--- a/Doku/Zeitplanung.xlsx
+++ b/Doku/Zeitplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\226 b Objektorientiertes programmieren\Zeitplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\eclipse-workspace\Projekt 226b Tim Krauth\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Dauer in h</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Umsetzungsidees finden</t>
   </si>
   <si>
-    <t>Klassen und Attribute grob definieren</t>
-  </si>
-  <si>
     <t>Klassen und Attribute definiert</t>
   </si>
   <si>
@@ -122,16 +119,28 @@
     <t>Klassen erstellen</t>
   </si>
   <si>
-    <t>Tests-erstellen</t>
-  </si>
-  <si>
     <t>Testplan erstellen</t>
   </si>
   <si>
-    <t>Hintergrund einfügen</t>
+    <t>Movement erstellen</t>
   </si>
   <si>
-    <t>Steuerung Frogger erstellen</t>
+    <t>Kollisionen erstellen</t>
+  </si>
+  <si>
+    <t>Leben, Punkte und Zustandsautomat hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamedesigne </t>
+  </si>
+  <si>
+    <t>Unit-Tests erstellen</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
   </si>
 </sst>
 </file>
@@ -259,18 +268,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -886,26 +895,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,11 +1102,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,37 +1111,28 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1561,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:CA122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:G49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,179 +1560,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="1"/>
       <c r="G1" s="43"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="84">
+      <c r="I1" s="80">
+        <v>44522</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="80">
         <v>44529</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="84">
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="80">
         <v>44536</v>
       </c>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="84">
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="80">
         <v>44543</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="84">
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="80">
         <v>44564</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="80">
+        <v>44571</v>
+      </c>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="92">
+        <v>44578</v>
+      </c>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="82"/>
       <c r="AL1" s="39"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="86"/>
+      <c r="AM1" s="92">
+        <v>44585</v>
+      </c>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="82"/>
       <c r="BG1" s="39"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="96"/>
-      <c r="BM1" s="85"/>
-      <c r="BN1" s="85"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="96"/>
-      <c r="BQ1" s="85"/>
-      <c r="BR1" s="85"/>
-      <c r="BS1" s="86"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="81"/>
+      <c r="BS1" s="82"/>
       <c r="BT1" s="49"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="97" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="91">
-        <v>3</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="91">
-        <v>3</v>
-      </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="91">
-        <v>3</v>
-      </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="93"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="91">
-        <v>4</v>
-      </c>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="89"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
-      <c r="BF2" s="93"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="89"/>
       <c r="BG2" s="3"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="92"/>
-      <c r="BJ2" s="92"/>
-      <c r="BK2" s="93"/>
-      <c r="BL2" s="91"/>
-      <c r="BM2" s="92"/>
-      <c r="BN2" s="92"/>
-      <c r="BO2" s="93"/>
-      <c r="BP2" s="91"/>
-      <c r="BQ2" s="92"/>
-      <c r="BR2" s="92"/>
-      <c r="BS2" s="93"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="89"/>
       <c r="BT2" s="50"/>
     </row>
     <row r="3" spans="1:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="67" t="s">
         <v>1</v>
       </c>
@@ -1824,20 +1806,20 @@
       <c r="BT3" s="51"/>
     </row>
     <row r="4" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -1900,13 +1882,13 @@
       <c r="BT4" s="52"/>
     </row>
     <row r="5" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="55"/>
       <c r="I5" s="56"/>
       <c r="J5" s="57"/>
@@ -1975,21 +1957,21 @@
     </row>
     <row r="6" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="90">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="86">
         <v>1.5</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="86">
         <v>1.5</v>
       </c>
       <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="57"/>
       <c r="L6" s="58"/>
       <c r="M6" s="24"/>
@@ -2055,12 +2037,12 @@
     </row>
     <row r="7" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="55"/>
       <c r="I7" s="56"/>
       <c r="J7" s="57"/>
@@ -2129,23 +2111,23 @@
     </row>
     <row r="8" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90">
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86">
         <v>1.5</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="86">
         <v>1.5</v>
       </c>
       <c r="H8" s="55"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="74"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -2209,17 +2191,17 @@
     </row>
     <row r="9" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="55"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="69"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -2283,27 +2265,27 @@
     </row>
     <row r="10" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="90">
-        <v>3</v>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="86">
+        <v>1</v>
       </c>
-      <c r="G10" s="90">
-        <v>3</v>
+      <c r="G10" s="86">
+        <v>1</v>
       </c>
       <c r="H10" s="55"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="81"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="79"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
@@ -2363,21 +2345,21 @@
     </row>
     <row r="11" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="80"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
@@ -2437,23 +2419,27 @@
     </row>
     <row r="12" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="99" t="s">
-        <v>24</v>
+      <c r="B12" s="95" t="s">
+        <v>34</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="86">
+        <v>1</v>
+      </c>
+      <c r="G12" s="86">
+        <v>1</v>
+      </c>
       <c r="H12" s="55"/>
       <c r="I12" s="56"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="58"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="80"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -2513,24 +2499,24 @@
     </row>
     <row r="13" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="55"/>
       <c r="I13" s="56"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="80"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="82"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="33"/>
       <c r="V13" s="38"/>
@@ -2587,21 +2573,17 @@
     </row>
     <row r="14" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="55"/>
       <c r="I14" s="56"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="80"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="61"/>
       <c r="S14" s="61"/>
@@ -2661,21 +2643,17 @@
     </row>
     <row r="15" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="55"/>
       <c r="I15" s="56"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="58"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="80"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -2735,19 +2713,19 @@
     </row>
     <row r="16" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="55"/>
       <c r="I16" s="56"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="122"/>
+      <c r="L16" s="118"/>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -2811,17 +2789,17 @@
     </row>
     <row r="17" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="55"/>
       <c r="I17" s="56"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="123"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -2885,29 +2863,29 @@
     </row>
     <row r="18" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="104">
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="100">
         <f>SUM(F6:F15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="100">
         <f>SUM(G6:G15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="56"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="58"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="80"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -2967,21 +2945,21 @@
     </row>
     <row r="19" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="55"/>
       <c r="I19" s="56"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="80"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -3040,15 +3018,15 @@
       <c r="BT19" s="52"/>
     </row>
     <row r="20" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="55"/>
       <c r="I20" s="64"/>
       <c r="J20" s="65"/>
@@ -3116,13 +3094,13 @@
       <c r="BT20" s="52"/>
     </row>
     <row r="21" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="55"/>
       <c r="I21" s="38"/>
       <c r="J21" s="25"/>
@@ -3191,16 +3169,16 @@
     </row>
     <row r="22" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="90">
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="86">
         <v>0.5</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="86">
         <v>0.5</v>
       </c>
       <c r="H22" s="55"/>
@@ -3210,12 +3188,12 @@
       <c r="L22" s="26"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="O22" s="73"/>
       <c r="P22" s="26"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="79"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
       <c r="U22" s="33"/>
       <c r="V22" s="38"/>
       <c r="W22" s="25"/>
@@ -3271,12 +3249,12 @@
     </row>
     <row r="23" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="55"/>
       <c r="I23" s="38"/>
       <c r="J23" s="25"/>
@@ -3286,10 +3264,10 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="80"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
       <c r="U23" s="33"/>
       <c r="V23" s="38"/>
       <c r="W23" s="25"/>
@@ -3345,16 +3323,16 @@
     </row>
     <row r="24" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="90" t="s">
-        <v>25</v>
+      <c r="B24" s="86" t="s">
+        <v>24</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90">
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86">
         <v>0.5</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="86">
         <v>0.5</v>
       </c>
       <c r="H24" s="55"/>
@@ -3365,11 +3343,11 @@
       <c r="M24" s="38"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="80"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
       <c r="U24" s="33"/>
       <c r="V24" s="38"/>
       <c r="W24" s="25"/>
@@ -3425,12 +3403,12 @@
     </row>
     <row r="25" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="55"/>
       <c r="I25" s="38"/>
       <c r="J25" s="25"/>
@@ -3440,10 +3418,10 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="26"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="80"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="33"/>
       <c r="V25" s="38"/>
       <c r="W25" s="25"/>
@@ -3499,16 +3477,16 @@
     </row>
     <row r="26" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="99" t="s">
-        <v>26</v>
+      <c r="B26" s="95" t="s">
+        <v>25</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="90">
-        <v>2</v>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="86">
+        <v>1</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="86">
         <v>2</v>
       </c>
       <c r="H26" s="55"/>
@@ -3520,10 +3498,10 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="80"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="26"/>
       <c r="U26" s="33"/>
       <c r="V26" s="38"/>
       <c r="W26" s="25"/>
@@ -3579,12 +3557,12 @@
     </row>
     <row r="27" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="55"/>
       <c r="I27" s="38"/>
       <c r="J27" s="25"/>
@@ -3594,10 +3572,10 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="26"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="80"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="26"/>
       <c r="U27" s="33"/>
       <c r="V27" s="38"/>
       <c r="W27" s="25"/>
@@ -3653,12 +3631,12 @@
     </row>
     <row r="28" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="55"/>
       <c r="I28" s="38"/>
       <c r="J28" s="25"/>
@@ -3727,12 +3705,12 @@
     </row>
     <row r="29" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="55"/>
       <c r="I29" s="36"/>
       <c r="J29" s="18"/>
@@ -3801,14 +3779,14 @@
     </row>
     <row r="30" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="55"/>
       <c r="I30" s="36"/>
       <c r="J30" s="18"/>
@@ -3818,7 +3796,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="120"/>
+      <c r="Q30" s="116"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
@@ -3877,12 +3855,12 @@
     </row>
     <row r="31" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="55"/>
       <c r="I31" s="36"/>
       <c r="J31" s="18"/>
@@ -3892,7 +3870,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="121"/>
+      <c r="Q31" s="117"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
@@ -3951,19 +3929,19 @@
     </row>
     <row r="32" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="104">
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="100">
         <f>SUM(F18,F22:F29)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
-      <c r="G32" s="104">
+      <c r="G32" s="100">
         <f>SUM(G18,G22:G29)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="36"/>
@@ -3974,10 +3952,10 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="80"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
       <c r="U32" s="33"/>
       <c r="V32" s="36"/>
       <c r="W32" s="18"/>
@@ -4033,12 +4011,12 @@
     </row>
     <row r="33" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="55"/>
       <c r="I33" s="36"/>
       <c r="J33" s="18"/>
@@ -4048,10 +4026,10 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="26"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="80"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
       <c r="U33" s="33"/>
       <c r="V33" s="36"/>
       <c r="W33" s="18"/>
@@ -4106,15 +4084,15 @@
       <c r="BT33" s="52"/>
     </row>
     <row r="34" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="55"/>
       <c r="I34" s="35"/>
       <c r="J34" s="14"/>
@@ -4182,13 +4160,13 @@
       <c r="BT34" s="52"/>
     </row>
     <row r="35" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="55"/>
       <c r="I35" s="36"/>
       <c r="J35" s="18"/>
@@ -4257,14 +4235,18 @@
     </row>
     <row r="36" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
-      <c r="B36" s="99" t="s">
-        <v>27</v>
+      <c r="B36" s="95" t="s">
+        <v>26</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="102"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="98">
+        <v>0.5</v>
+      </c>
       <c r="H36" s="48"/>
       <c r="I36" s="36"/>
       <c r="J36" s="18"/>
@@ -4274,7 +4256,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="24"/>
+      <c r="Q36" s="72"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="26"/>
@@ -4333,12 +4315,12 @@
     </row>
     <row r="37" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="103"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="48"/>
       <c r="I37" s="36"/>
       <c r="J37" s="18"/>
@@ -4407,19 +4389,19 @@
     </row>
     <row r="38" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="106">
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102">
         <f>SUM(F32,F36:F37)</f>
-        <v>9</v>
+        <v>7.5</v>
       </c>
-      <c r="G38" s="106">
+      <c r="G38" s="102">
         <f>SUM(G32,G36)</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="36"/>
@@ -4489,12 +4471,12 @@
     </row>
     <row r="39" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="48"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18"/>
@@ -4562,15 +4544,15 @@
       <c r="BT39" s="52"/>
     </row>
     <row r="40" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="55"/>
       <c r="I40" s="37"/>
       <c r="J40" s="22"/>
@@ -4638,13 +4620,13 @@
       <c r="BT40" s="52"/>
     </row>
     <row r="41" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="55"/>
       <c r="I41" s="37"/>
       <c r="J41" s="22"/>
@@ -4713,16 +4695,16 @@
     </row>
     <row r="42" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
-      <c r="B42" s="90" t="s">
-        <v>28</v>
+      <c r="B42" s="86" t="s">
+        <v>27</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86">
         <v>1</v>
       </c>
-      <c r="G42" s="90">
+      <c r="G42" s="86">
         <v>1</v>
       </c>
       <c r="H42" s="55"/>
@@ -4735,7 +4717,7 @@
       <c r="O42" s="18"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="25"/>
+      <c r="R42" s="73"/>
       <c r="S42" s="25"/>
       <c r="T42" s="26"/>
       <c r="U42" s="33"/>
@@ -4793,12 +4775,12 @@
     </row>
     <row r="43" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
       <c r="H43" s="55"/>
       <c r="I43" s="36"/>
       <c r="J43" s="22"/>
@@ -4867,17 +4849,17 @@
     </row>
     <row r="44" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="99" t="s">
-        <v>32</v>
+      <c r="B44" s="95" t="s">
+        <v>29</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="90">
-        <v>1</v>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="86">
+        <v>2</v>
       </c>
-      <c r="G44" s="90">
-        <v>1.5</v>
+      <c r="G44" s="86">
+        <v>3</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="37"/>
@@ -4893,8 +4875,8 @@
       <c r="S44" s="25"/>
       <c r="T44" s="26"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="25"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="73"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="17"/>
@@ -4947,12 +4929,12 @@
     </row>
     <row r="45" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
       <c r="H45" s="55"/>
       <c r="I45" s="37"/>
       <c r="J45" s="18"/>
@@ -5021,17 +5003,17 @@
     </row>
     <row r="46" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
-      <c r="B46" s="99" t="s">
-        <v>31</v>
+      <c r="B46" s="95" t="s">
+        <v>30</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="90">
-        <v>1.5</v>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="86">
+        <v>3</v>
       </c>
-      <c r="G46" s="90">
-        <v>1.5</v>
+      <c r="G46" s="86">
+        <v>4</v>
       </c>
       <c r="H46" s="55"/>
       <c r="I46" s="35"/>
@@ -5051,9 +5033,9 @@
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="26"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="61"/>
-      <c r="AB46" s="61"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="77"/>
+      <c r="AB46" s="77"/>
       <c r="AC46" s="62"/>
       <c r="AD46" s="24"/>
       <c r="AE46" s="25"/>
@@ -5101,12 +5083,12 @@
     </row>
     <row r="47" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="55"/>
       <c r="I47" s="36"/>
       <c r="J47" s="18"/>
@@ -5175,12 +5157,18 @@
     </row>
     <row r="48" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
+      <c r="B48" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="86">
+        <v>2</v>
+      </c>
+      <c r="G48" s="86">
+        <v>2</v>
+      </c>
       <c r="H48" s="55"/>
       <c r="I48" s="37"/>
       <c r="J48" s="18"/>
@@ -5203,8 +5191,8 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
       <c r="AC48" s="26"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="25"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="73"/>
       <c r="AF48" s="25"/>
       <c r="AG48" s="26"/>
       <c r="AH48" s="28"/>
@@ -5249,12 +5237,12 @@
     </row>
     <row r="49" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="55"/>
       <c r="I49" s="37"/>
       <c r="J49" s="18"/>
@@ -5323,12 +5311,18 @@
     </row>
     <row r="50" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
+      <c r="B50" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86">
+        <v>2</v>
+      </c>
+      <c r="G50" s="86">
+        <v>2</v>
+      </c>
       <c r="H50" s="55"/>
       <c r="I50" s="44"/>
       <c r="J50" s="18"/>
@@ -5353,8 +5347,8 @@
       <c r="AC50" s="26"/>
       <c r="AD50" s="24"/>
       <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="26"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="74"/>
       <c r="AH50" s="28"/>
       <c r="AI50" s="25"/>
       <c r="AJ50" s="25"/>
@@ -5397,12 +5391,12 @@
     </row>
     <row r="51" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="55"/>
       <c r="I51" s="44"/>
       <c r="J51" s="18"/>
@@ -5471,8 +5465,8 @@
     </row>
     <row r="52" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="55"/>
       <c r="I52" s="44"/>
       <c r="J52" s="18"/>
@@ -5537,8 +5531,8 @@
     </row>
     <row r="53" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="55"/>
       <c r="I53" s="44"/>
       <c r="J53" s="18"/>
@@ -5607,14 +5601,14 @@
     </row>
     <row r="54" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="55"/>
       <c r="I54" s="44"/>
       <c r="J54" s="18"/>
@@ -5650,7 +5644,7 @@
       <c r="AN54" s="61"/>
       <c r="AO54" s="61"/>
       <c r="AP54" s="62"/>
-      <c r="AQ54" s="120"/>
+      <c r="AQ54" s="116"/>
       <c r="AR54" s="61"/>
       <c r="AS54" s="61"/>
       <c r="AT54" s="62"/>
@@ -5683,12 +5677,12 @@
     </row>
     <row r="55" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
       <c r="H55" s="55"/>
       <c r="I55" s="44"/>
       <c r="J55" s="18"/>
@@ -5724,7 +5718,7 @@
       <c r="AN55" s="14"/>
       <c r="AO55" s="14"/>
       <c r="AP55" s="15"/>
-      <c r="AQ55" s="121"/>
+      <c r="AQ55" s="117"/>
       <c r="AR55" s="61"/>
       <c r="AS55" s="61"/>
       <c r="AT55" s="62"/>
@@ -5757,19 +5751,19 @@
     </row>
     <row r="56" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="104">
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="100">
         <f>SUM(F38,F42:F53)</f>
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
-      <c r="G56" s="104">
+      <c r="G56" s="100">
         <f>SUM(G38,G42:G53)</f>
-        <v>13</v>
+        <v>20.5</v>
       </c>
       <c r="H56" s="55"/>
       <c r="I56" s="37"/>
@@ -5839,12 +5833,12 @@
     </row>
     <row r="57" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
       <c r="H57" s="55"/>
       <c r="I57" s="37"/>
       <c r="J57" s="18"/>
@@ -5912,15 +5906,15 @@
       <c r="BT57" s="52"/>
     </row>
     <row r="58" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="55"/>
       <c r="I58" s="35"/>
       <c r="J58" s="18"/>
@@ -5988,13 +5982,13 @@
       <c r="BT58" s="52"/>
     </row>
     <row r="59" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="55"/>
       <c r="I59" s="36"/>
       <c r="J59" s="18"/>
@@ -6063,14 +6057,18 @@
     </row>
     <row r="60" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="99" t="s">
-        <v>30</v>
+      <c r="B60" s="95" t="s">
+        <v>28</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="86">
+        <v>1</v>
+      </c>
+      <c r="G60" s="86">
+        <v>1</v>
+      </c>
       <c r="H60" s="55"/>
       <c r="I60" s="35"/>
       <c r="J60" s="18"/>
@@ -6097,7 +6095,7 @@
       <c r="AE60" s="18"/>
       <c r="AF60" s="18"/>
       <c r="AG60" s="19"/>
-      <c r="AH60" s="20"/>
+      <c r="AH60" s="78"/>
       <c r="AI60" s="18"/>
       <c r="AJ60" s="18"/>
       <c r="AK60" s="19"/>
@@ -6139,12 +6137,12 @@
     </row>
     <row r="61" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="55"/>
       <c r="I61" s="36"/>
       <c r="J61" s="18"/>
@@ -6213,14 +6211,18 @@
     </row>
     <row r="62" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="90" t="s">
-        <v>29</v>
+      <c r="B62" s="86" t="s">
+        <v>33</v>
       </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86">
+        <v>1</v>
+      </c>
+      <c r="G62" s="86">
+        <v>1</v>
+      </c>
       <c r="H62" s="55"/>
       <c r="I62" s="36"/>
       <c r="J62" s="18"/>
@@ -6249,7 +6251,7 @@
       <c r="AG62" s="15"/>
       <c r="AH62" s="20"/>
       <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
+      <c r="AJ62" s="73"/>
       <c r="AK62" s="19"/>
       <c r="AL62" s="41"/>
       <c r="AM62" s="36"/>
@@ -6289,12 +6291,12 @@
     </row>
     <row r="63" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
       <c r="H63" s="55"/>
       <c r="I63" s="36"/>
       <c r="J63" s="18"/>
@@ -6363,14 +6365,14 @@
     </row>
     <row r="64" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
       <c r="H64" s="55"/>
       <c r="I64" s="36"/>
       <c r="J64" s="18"/>
@@ -6416,7 +6418,7 @@
       <c r="AX64" s="26"/>
       <c r="AY64" s="60"/>
       <c r="AZ64" s="61"/>
-      <c r="BA64" s="115"/>
+      <c r="BA64" s="111"/>
       <c r="BB64" s="62"/>
       <c r="BC64" s="13"/>
       <c r="BD64" s="14"/>
@@ -6439,12 +6441,12 @@
     </row>
     <row r="65" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
       <c r="H65" s="55"/>
       <c r="I65" s="36"/>
       <c r="J65" s="18"/>
@@ -6490,7 +6492,7 @@
       <c r="AX65" s="26"/>
       <c r="AY65" s="60"/>
       <c r="AZ65" s="61"/>
-      <c r="BA65" s="116"/>
+      <c r="BA65" s="112"/>
       <c r="BB65" s="62"/>
       <c r="BC65" s="13"/>
       <c r="BD65" s="14"/>
@@ -6513,19 +6515,19 @@
     </row>
     <row r="66" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="104">
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="100">
         <f>SUM(F56,F60:F63)</f>
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
-      <c r="G66" s="104">
+      <c r="G66" s="100">
         <f>SUM(G56,G60:G63)</f>
-        <v>13</v>
+        <v>22.5</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="37"/>
@@ -6558,7 +6560,7 @@
       <c r="AJ66" s="25"/>
       <c r="AK66" s="26"/>
       <c r="AL66" s="41"/>
-      <c r="AM66" s="37"/>
+      <c r="AM66" s="75"/>
       <c r="AN66" s="22"/>
       <c r="AO66" s="22"/>
       <c r="AP66" s="23"/>
@@ -6595,12 +6597,12 @@
     </row>
     <row r="67" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
       <c r="H67" s="55"/>
       <c r="I67" s="37"/>
       <c r="J67" s="18"/>
@@ -6668,15 +6670,15 @@
       <c r="BT67" s="52"/>
     </row>
     <row r="68" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="55"/>
       <c r="I68" s="37"/>
       <c r="J68" s="18"/>
@@ -6744,13 +6746,13 @@
       <c r="BT68" s="52"/>
     </row>
     <row r="69" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="55"/>
       <c r="I69" s="37"/>
       <c r="J69" s="18"/>
@@ -6819,12 +6821,18 @@
     </row>
     <row r="70" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
+      <c r="B70" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="86">
+        <v>1.5</v>
+      </c>
+      <c r="G70" s="86">
+        <v>3</v>
+      </c>
       <c r="H70" s="55"/>
       <c r="I70" s="37"/>
       <c r="J70" s="18"/>
@@ -6893,12 +6901,12 @@
     </row>
     <row r="71" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
       <c r="H71" s="55"/>
       <c r="I71" s="37"/>
       <c r="J71" s="18"/>
@@ -6967,12 +6975,12 @@
     </row>
     <row r="72" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="55"/>
       <c r="I72" s="44"/>
       <c r="J72" s="18"/>
@@ -7041,12 +7049,12 @@
     </row>
     <row r="73" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
       <c r="H73" s="55"/>
       <c r="I73" s="44"/>
       <c r="J73" s="18"/>
@@ -7115,12 +7123,12 @@
     </row>
     <row r="74" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
       <c r="H74" s="55"/>
       <c r="I74" s="44"/>
       <c r="J74" s="18"/>
@@ -7189,12 +7197,12 @@
     </row>
     <row r="75" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
       <c r="H75" s="55"/>
       <c r="I75" s="44"/>
       <c r="J75" s="18"/>
@@ -7263,12 +7271,12 @@
     </row>
     <row r="76" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
       <c r="H76" s="55"/>
       <c r="I76" s="44"/>
       <c r="J76" s="18"/>
@@ -7337,12 +7345,12 @@
     </row>
     <row r="77" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
       <c r="H77" s="55"/>
       <c r="I77" s="44"/>
       <c r="J77" s="18"/>
@@ -7411,12 +7419,12 @@
     </row>
     <row r="78" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
       <c r="H78" s="55"/>
       <c r="I78" s="35"/>
       <c r="J78" s="18"/>
@@ -7486,12 +7494,12 @@
     </row>
     <row r="79" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
       <c r="H79" s="55"/>
       <c r="I79" s="36"/>
       <c r="J79" s="18"/>
@@ -7561,14 +7569,14 @@
     </row>
     <row r="80" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="55"/>
       <c r="I80" s="36"/>
       <c r="J80" s="18"/>
@@ -7632,18 +7640,18 @@
       <c r="BP80" s="24"/>
       <c r="BQ80" s="25"/>
       <c r="BR80" s="25"/>
-      <c r="BS80" s="118"/>
+      <c r="BS80" s="114"/>
       <c r="BT80" s="52"/>
       <c r="BU80"/>
     </row>
     <row r="81" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
       <c r="H81" s="55"/>
       <c r="I81" s="36"/>
       <c r="J81" s="18"/>
@@ -7707,25 +7715,25 @@
       <c r="BP81" s="24"/>
       <c r="BQ81" s="25"/>
       <c r="BR81" s="25"/>
-      <c r="BS81" s="119"/>
+      <c r="BS81" s="115"/>
       <c r="BT81" s="52"/>
       <c r="BU81"/>
     </row>
     <row r="82" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="105" t="s">
+      <c r="B82" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="104">
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="100">
         <f>SUM(F66,F70:F79)</f>
-        <v>12.5</v>
+        <v>21</v>
       </c>
-      <c r="G82" s="104">
+      <c r="G82" s="100">
         <f>SUM(G66,G70:G79)</f>
-        <v>13</v>
+        <v>25.5</v>
       </c>
       <c r="H82" s="55"/>
       <c r="I82" s="37"/>
@@ -7796,12 +7804,12 @@
     </row>
     <row r="83" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="104"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
       <c r="H83" s="55"/>
       <c r="I83" s="37"/>
       <c r="J83" s="18"/>
@@ -7870,1064 +7878,1064 @@
       <c r="BU83"/>
     </row>
     <row r="84" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="88"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="83"/>
-      <c r="T84" s="83"/>
-      <c r="U84" s="83"/>
-      <c r="V84" s="83"/>
-      <c r="W84" s="83"/>
-      <c r="X84" s="83"/>
-      <c r="Y84" s="83"/>
-      <c r="Z84" s="83"/>
-      <c r="AA84" s="83"/>
-      <c r="AB84" s="83"/>
-      <c r="AC84" s="83"/>
-      <c r="AD84" s="83"/>
-      <c r="AE84" s="83"/>
-      <c r="AF84" s="83"/>
-      <c r="AG84" s="83"/>
-      <c r="AH84" s="83"/>
-      <c r="AI84" s="83"/>
-      <c r="AJ84" s="83"/>
-      <c r="AK84" s="83"/>
-      <c r="AL84" s="83"/>
-      <c r="AM84" s="83"/>
-      <c r="AN84" s="83"/>
-      <c r="AO84" s="83"/>
-      <c r="AP84" s="83"/>
-      <c r="AQ84" s="83"/>
-      <c r="AR84" s="83"/>
-      <c r="AS84" s="83"/>
-      <c r="AT84" s="83"/>
-      <c r="AU84" s="83"/>
-      <c r="AV84" s="83"/>
-      <c r="AW84" s="83"/>
-      <c r="AX84" s="83"/>
-      <c r="AY84" s="83"/>
-      <c r="AZ84" s="83"/>
-      <c r="BA84" s="83"/>
-      <c r="BB84" s="83"/>
-      <c r="BC84" s="83"/>
-      <c r="BD84" s="83"/>
-      <c r="BE84" s="83"/>
-      <c r="BF84" s="83"/>
-      <c r="BG84" s="83"/>
-      <c r="BH84" s="83"/>
-      <c r="BI84" s="83"/>
-      <c r="BJ84" s="83"/>
-      <c r="BK84" s="83"/>
-      <c r="BL84" s="83"/>
-      <c r="BM84" s="83"/>
-      <c r="BN84" s="83"/>
-      <c r="BO84" s="83"/>
-      <c r="BP84" s="83"/>
-      <c r="BQ84" s="83"/>
-      <c r="BR84" s="83"/>
-      <c r="BS84" s="83"/>
-      <c r="BT84" s="83"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="79"/>
+      <c r="P84" s="79"/>
+      <c r="Q84" s="79"/>
+      <c r="R84" s="79"/>
+      <c r="S84" s="79"/>
+      <c r="T84" s="79"/>
+      <c r="U84" s="79"/>
+      <c r="V84" s="79"/>
+      <c r="W84" s="79"/>
+      <c r="X84" s="79"/>
+      <c r="Y84" s="79"/>
+      <c r="Z84" s="79"/>
+      <c r="AA84" s="79"/>
+      <c r="AB84" s="79"/>
+      <c r="AC84" s="79"/>
+      <c r="AD84" s="79"/>
+      <c r="AE84" s="79"/>
+      <c r="AF84" s="79"/>
+      <c r="AG84" s="79"/>
+      <c r="AH84" s="79"/>
+      <c r="AI84" s="79"/>
+      <c r="AJ84" s="79"/>
+      <c r="AK84" s="79"/>
+      <c r="AL84" s="79"/>
+      <c r="AM84" s="79"/>
+      <c r="AN84" s="79"/>
+      <c r="AO84" s="79"/>
+      <c r="AP84" s="79"/>
+      <c r="AQ84" s="79"/>
+      <c r="AR84" s="79"/>
+      <c r="AS84" s="79"/>
+      <c r="AT84" s="79"/>
+      <c r="AU84" s="79"/>
+      <c r="AV84" s="79"/>
+      <c r="AW84" s="79"/>
+      <c r="AX84" s="79"/>
+      <c r="AY84" s="79"/>
+      <c r="AZ84" s="79"/>
+      <c r="BA84" s="79"/>
+      <c r="BB84" s="79"/>
+      <c r="BC84" s="79"/>
+      <c r="BD84" s="79"/>
+      <c r="BE84" s="79"/>
+      <c r="BF84" s="79"/>
+      <c r="BG84" s="79"/>
+      <c r="BH84" s="79"/>
+      <c r="BI84" s="79"/>
+      <c r="BJ84" s="79"/>
+      <c r="BK84" s="79"/>
+      <c r="BL84" s="79"/>
+      <c r="BM84" s="79"/>
+      <c r="BN84" s="79"/>
+      <c r="BO84" s="79"/>
+      <c r="BP84" s="79"/>
+      <c r="BQ84" s="79"/>
+      <c r="BR84" s="79"/>
+      <c r="BS84" s="79"/>
+      <c r="BT84" s="79"/>
       <c r="BU84"/>
     </row>
     <row r="85" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="88"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="83"/>
-      <c r="M85" s="83"/>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
-      <c r="Q85" s="83"/>
-      <c r="R85" s="83"/>
-      <c r="S85" s="83"/>
-      <c r="T85" s="83"/>
-      <c r="U85" s="83"/>
-      <c r="V85" s="83"/>
-      <c r="W85" s="83"/>
-      <c r="X85" s="83"/>
-      <c r="Y85" s="83"/>
-      <c r="Z85" s="83"/>
-      <c r="AA85" s="83"/>
-      <c r="AB85" s="83"/>
-      <c r="AC85" s="83"/>
-      <c r="AD85" s="83"/>
-      <c r="AE85" s="83"/>
-      <c r="AF85" s="83"/>
-      <c r="AG85" s="83"/>
-      <c r="AH85" s="83"/>
-      <c r="AI85" s="83"/>
-      <c r="AJ85" s="83"/>
-      <c r="AK85" s="83"/>
-      <c r="AL85" s="83"/>
-      <c r="AM85" s="83"/>
-      <c r="AN85" s="83"/>
-      <c r="AO85" s="83"/>
-      <c r="AP85" s="83"/>
-      <c r="AQ85" s="83"/>
-      <c r="AR85" s="83"/>
-      <c r="AS85" s="83"/>
-      <c r="AT85" s="83"/>
-      <c r="AU85" s="83"/>
-      <c r="AV85" s="83"/>
-      <c r="AW85" s="83"/>
-      <c r="AX85" s="83"/>
-      <c r="AY85" s="83"/>
-      <c r="AZ85" s="83"/>
-      <c r="BA85" s="83"/>
-      <c r="BB85" s="83"/>
-      <c r="BC85" s="83"/>
-      <c r="BD85" s="83"/>
-      <c r="BE85" s="83"/>
-      <c r="BF85" s="83"/>
-      <c r="BG85" s="83"/>
-      <c r="BH85" s="83"/>
-      <c r="BI85" s="83"/>
-      <c r="BJ85" s="83"/>
-      <c r="BK85" s="83"/>
-      <c r="BL85" s="83"/>
-      <c r="BM85" s="83"/>
-      <c r="BN85" s="83"/>
-      <c r="BO85" s="83"/>
-      <c r="BP85" s="83"/>
-      <c r="BQ85" s="83"/>
-      <c r="BR85" s="83"/>
-      <c r="BS85" s="83"/>
-      <c r="BT85" s="83"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
+      <c r="O85" s="79"/>
+      <c r="P85" s="79"/>
+      <c r="Q85" s="79"/>
+      <c r="R85" s="79"/>
+      <c r="S85" s="79"/>
+      <c r="T85" s="79"/>
+      <c r="U85" s="79"/>
+      <c r="V85" s="79"/>
+      <c r="W85" s="79"/>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="79"/>
+      <c r="AI85" s="79"/>
+      <c r="AJ85" s="79"/>
+      <c r="AK85" s="79"/>
+      <c r="AL85" s="79"/>
+      <c r="AM85" s="79"/>
+      <c r="AN85" s="79"/>
+      <c r="AO85" s="79"/>
+      <c r="AP85" s="79"/>
+      <c r="AQ85" s="79"/>
+      <c r="AR85" s="79"/>
+      <c r="AS85" s="79"/>
+      <c r="AT85" s="79"/>
+      <c r="AU85" s="79"/>
+      <c r="AV85" s="79"/>
+      <c r="AW85" s="79"/>
+      <c r="AX85" s="79"/>
+      <c r="AY85" s="79"/>
+      <c r="AZ85" s="79"/>
+      <c r="BA85" s="79"/>
+      <c r="BB85" s="79"/>
+      <c r="BC85" s="79"/>
+      <c r="BD85" s="79"/>
+      <c r="BE85" s="79"/>
+      <c r="BF85" s="79"/>
+      <c r="BG85" s="79"/>
+      <c r="BH85" s="79"/>
+      <c r="BI85" s="79"/>
+      <c r="BJ85" s="79"/>
+      <c r="BK85" s="79"/>
+      <c r="BL85" s="79"/>
+      <c r="BM85" s="79"/>
+      <c r="BN85" s="79"/>
+      <c r="BO85" s="79"/>
+      <c r="BP85" s="79"/>
+      <c r="BQ85" s="79"/>
+      <c r="BR85" s="79"/>
+      <c r="BS85" s="79"/>
+      <c r="BT85" s="79"/>
       <c r="BU85"/>
     </row>
     <row r="86" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="111" t="s">
+      <c r="A86" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="111"/>
-      <c r="G86" s="111"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="83"/>
-      <c r="V86" s="83"/>
-      <c r="W86" s="83"/>
-      <c r="X86" s="83"/>
-      <c r="Y86" s="83"/>
-      <c r="Z86" s="83"/>
-      <c r="AA86" s="83"/>
-      <c r="AB86" s="83"/>
-      <c r="AC86" s="83"/>
-      <c r="AD86" s="83"/>
-      <c r="AE86" s="83"/>
-      <c r="AF86" s="83"/>
-      <c r="AG86" s="83"/>
-      <c r="AH86" s="83"/>
-      <c r="AI86" s="83"/>
-      <c r="AJ86" s="83"/>
-      <c r="AK86" s="83"/>
-      <c r="AL86" s="83"/>
-      <c r="AM86" s="83"/>
-      <c r="AN86" s="83"/>
-      <c r="AO86" s="83"/>
-      <c r="AP86" s="83"/>
-      <c r="AQ86" s="83"/>
-      <c r="AR86" s="83"/>
-      <c r="AS86" s="83"/>
-      <c r="AT86" s="83"/>
-      <c r="AU86" s="83"/>
-      <c r="AV86" s="83"/>
-      <c r="AW86" s="83"/>
-      <c r="AX86" s="83"/>
-      <c r="AY86" s="83"/>
-      <c r="AZ86" s="83"/>
-      <c r="BA86" s="83"/>
-      <c r="BB86" s="83"/>
-      <c r="BC86" s="83"/>
-      <c r="BD86" s="83"/>
-      <c r="BE86" s="83"/>
-      <c r="BF86" s="83"/>
-      <c r="BG86" s="83"/>
-      <c r="BH86" s="83"/>
-      <c r="BI86" s="83"/>
-      <c r="BJ86" s="83"/>
-      <c r="BK86" s="83"/>
-      <c r="BL86" s="83"/>
-      <c r="BM86" s="83"/>
-      <c r="BN86" s="83"/>
-      <c r="BO86" s="83"/>
-      <c r="BP86" s="83"/>
-      <c r="BQ86" s="83"/>
-      <c r="BR86" s="83"/>
-      <c r="BS86" s="83"/>
-      <c r="BT86" s="83"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
+      <c r="O86" s="79"/>
+      <c r="P86" s="79"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
+      <c r="W86" s="79"/>
+      <c r="X86" s="79"/>
+      <c r="Y86" s="79"/>
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="79"/>
+      <c r="AB86" s="79"/>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="79"/>
+      <c r="AE86" s="79"/>
+      <c r="AF86" s="79"/>
+      <c r="AG86" s="79"/>
+      <c r="AH86" s="79"/>
+      <c r="AI86" s="79"/>
+      <c r="AJ86" s="79"/>
+      <c r="AK86" s="79"/>
+      <c r="AL86" s="79"/>
+      <c r="AM86" s="79"/>
+      <c r="AN86" s="79"/>
+      <c r="AO86" s="79"/>
+      <c r="AP86" s="79"/>
+      <c r="AQ86" s="79"/>
+      <c r="AR86" s="79"/>
+      <c r="AS86" s="79"/>
+      <c r="AT86" s="79"/>
+      <c r="AU86" s="79"/>
+      <c r="AV86" s="79"/>
+      <c r="AW86" s="79"/>
+      <c r="AX86" s="79"/>
+      <c r="AY86" s="79"/>
+      <c r="AZ86" s="79"/>
+      <c r="BA86" s="79"/>
+      <c r="BB86" s="79"/>
+      <c r="BC86" s="79"/>
+      <c r="BD86" s="79"/>
+      <c r="BE86" s="79"/>
+      <c r="BF86" s="79"/>
+      <c r="BG86" s="79"/>
+      <c r="BH86" s="79"/>
+      <c r="BI86" s="79"/>
+      <c r="BJ86" s="79"/>
+      <c r="BK86" s="79"/>
+      <c r="BL86" s="79"/>
+      <c r="BM86" s="79"/>
+      <c r="BN86" s="79"/>
+      <c r="BO86" s="79"/>
+      <c r="BP86" s="79"/>
+      <c r="BQ86" s="79"/>
+      <c r="BR86" s="79"/>
+      <c r="BS86" s="79"/>
+      <c r="BT86" s="79"/>
       <c r="BU86"/>
     </row>
     <row r="87" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="111"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="111"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="111"/>
-      <c r="F87" s="111"/>
-      <c r="G87" s="111"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-      <c r="K87" s="83"/>
-      <c r="L87" s="83"/>
-      <c r="M87" s="83"/>
-      <c r="N87" s="83"/>
-      <c r="O87" s="83"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
-      <c r="W87" s="83"/>
-      <c r="X87" s="83"/>
-      <c r="Y87" s="83"/>
-      <c r="Z87" s="83"/>
-      <c r="AA87" s="83"/>
-      <c r="AB87" s="83"/>
-      <c r="AC87" s="83"/>
-      <c r="AD87" s="83"/>
-      <c r="AE87" s="83"/>
-      <c r="AF87" s="83"/>
-      <c r="AG87" s="83"/>
-      <c r="AH87" s="83"/>
-      <c r="AI87" s="83"/>
-      <c r="AJ87" s="83"/>
-      <c r="AK87" s="83"/>
-      <c r="AL87" s="83"/>
-      <c r="AM87" s="83"/>
-      <c r="AN87" s="83"/>
-      <c r="AO87" s="83"/>
-      <c r="AP87" s="83"/>
-      <c r="AQ87" s="83"/>
-      <c r="AR87" s="83"/>
-      <c r="AS87" s="83"/>
-      <c r="AT87" s="83"/>
-      <c r="AU87" s="83"/>
-      <c r="AV87" s="83"/>
-      <c r="AW87" s="83"/>
-      <c r="AX87" s="83"/>
-      <c r="AY87" s="83"/>
-      <c r="AZ87" s="83"/>
-      <c r="BA87" s="83"/>
-      <c r="BB87" s="83"/>
-      <c r="BC87" s="83"/>
-      <c r="BD87" s="83"/>
-      <c r="BE87" s="83"/>
-      <c r="BF87" s="83"/>
-      <c r="BG87" s="83"/>
-      <c r="BH87" s="83"/>
-      <c r="BI87" s="83"/>
-      <c r="BJ87" s="83"/>
-      <c r="BK87" s="83"/>
-      <c r="BL87" s="83"/>
-      <c r="BM87" s="83"/>
-      <c r="BN87" s="83"/>
-      <c r="BO87" s="83"/>
-      <c r="BP87" s="83"/>
-      <c r="BQ87" s="83"/>
-      <c r="BR87" s="83"/>
-      <c r="BS87" s="83"/>
-      <c r="BT87" s="83"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="79"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
+      <c r="W87" s="79"/>
+      <c r="X87" s="79"/>
+      <c r="Y87" s="79"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="79"/>
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
+      <c r="AF87" s="79"/>
+      <c r="AG87" s="79"/>
+      <c r="AH87" s="79"/>
+      <c r="AI87" s="79"/>
+      <c r="AJ87" s="79"/>
+      <c r="AK87" s="79"/>
+      <c r="AL87" s="79"/>
+      <c r="AM87" s="79"/>
+      <c r="AN87" s="79"/>
+      <c r="AO87" s="79"/>
+      <c r="AP87" s="79"/>
+      <c r="AQ87" s="79"/>
+      <c r="AR87" s="79"/>
+      <c r="AS87" s="79"/>
+      <c r="AT87" s="79"/>
+      <c r="AU87" s="79"/>
+      <c r="AV87" s="79"/>
+      <c r="AW87" s="79"/>
+      <c r="AX87" s="79"/>
+      <c r="AY87" s="79"/>
+      <c r="AZ87" s="79"/>
+      <c r="BA87" s="79"/>
+      <c r="BB87" s="79"/>
+      <c r="BC87" s="79"/>
+      <c r="BD87" s="79"/>
+      <c r="BE87" s="79"/>
+      <c r="BF87" s="79"/>
+      <c r="BG87" s="79"/>
+      <c r="BH87" s="79"/>
+      <c r="BI87" s="79"/>
+      <c r="BJ87" s="79"/>
+      <c r="BK87" s="79"/>
+      <c r="BL87" s="79"/>
+      <c r="BM87" s="79"/>
+      <c r="BN87" s="79"/>
+      <c r="BO87" s="79"/>
+      <c r="BP87" s="79"/>
+      <c r="BQ87" s="79"/>
+      <c r="BR87" s="79"/>
+      <c r="BS87" s="79"/>
+      <c r="BT87" s="79"/>
       <c r="BU87"/>
     </row>
     <row r="88" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
-      <c r="B88" s="87" t="s">
+      <c r="B88" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="87"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
-      <c r="W88" s="83"/>
-      <c r="X88" s="83"/>
-      <c r="Y88" s="83"/>
-      <c r="Z88" s="83"/>
-      <c r="AA88" s="83"/>
-      <c r="AB88" s="83"/>
-      <c r="AC88" s="83"/>
-      <c r="AD88" s="83"/>
-      <c r="AE88" s="83"/>
-      <c r="AF88" s="83"/>
-      <c r="AG88" s="83"/>
-      <c r="AH88" s="83"/>
-      <c r="AI88" s="83"/>
-      <c r="AJ88" s="83"/>
-      <c r="AK88" s="83"/>
-      <c r="AL88" s="83"/>
-      <c r="AM88" s="83"/>
-      <c r="AN88" s="83"/>
-      <c r="AO88" s="83"/>
-      <c r="AP88" s="83"/>
-      <c r="AQ88" s="83"/>
-      <c r="AR88" s="83"/>
-      <c r="AS88" s="83"/>
-      <c r="AT88" s="83"/>
-      <c r="AU88" s="83"/>
-      <c r="AV88" s="83"/>
-      <c r="AW88" s="83"/>
-      <c r="AX88" s="83"/>
-      <c r="AY88" s="83"/>
-      <c r="AZ88" s="83"/>
-      <c r="BA88" s="83"/>
-      <c r="BB88" s="83"/>
-      <c r="BC88" s="83"/>
-      <c r="BD88" s="83"/>
-      <c r="BE88" s="83"/>
-      <c r="BF88" s="83"/>
-      <c r="BG88" s="83"/>
-      <c r="BH88" s="83"/>
-      <c r="BI88" s="83"/>
-      <c r="BJ88" s="83"/>
-      <c r="BK88" s="83"/>
-      <c r="BL88" s="83"/>
-      <c r="BM88" s="83"/>
-      <c r="BN88" s="83"/>
-      <c r="BO88" s="83"/>
-      <c r="BP88" s="83"/>
-      <c r="BQ88" s="83"/>
-      <c r="BR88" s="83"/>
-      <c r="BS88" s="83"/>
-      <c r="BT88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="79"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="79"/>
+      <c r="Y88" s="79"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="79"/>
+      <c r="AB88" s="79"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="79"/>
+      <c r="AF88" s="79"/>
+      <c r="AG88" s="79"/>
+      <c r="AH88" s="79"/>
+      <c r="AI88" s="79"/>
+      <c r="AJ88" s="79"/>
+      <c r="AK88" s="79"/>
+      <c r="AL88" s="79"/>
+      <c r="AM88" s="79"/>
+      <c r="AN88" s="79"/>
+      <c r="AO88" s="79"/>
+      <c r="AP88" s="79"/>
+      <c r="AQ88" s="79"/>
+      <c r="AR88" s="79"/>
+      <c r="AS88" s="79"/>
+      <c r="AT88" s="79"/>
+      <c r="AU88" s="79"/>
+      <c r="AV88" s="79"/>
+      <c r="AW88" s="79"/>
+      <c r="AX88" s="79"/>
+      <c r="AY88" s="79"/>
+      <c r="AZ88" s="79"/>
+      <c r="BA88" s="79"/>
+      <c r="BB88" s="79"/>
+      <c r="BC88" s="79"/>
+      <c r="BD88" s="79"/>
+      <c r="BE88" s="79"/>
+      <c r="BF88" s="79"/>
+      <c r="BG88" s="79"/>
+      <c r="BH88" s="79"/>
+      <c r="BI88" s="79"/>
+      <c r="BJ88" s="79"/>
+      <c r="BK88" s="79"/>
+      <c r="BL88" s="79"/>
+      <c r="BM88" s="79"/>
+      <c r="BN88" s="79"/>
+      <c r="BO88" s="79"/>
+      <c r="BP88" s="79"/>
+      <c r="BQ88" s="79"/>
+      <c r="BR88" s="79"/>
+      <c r="BS88" s="79"/>
+      <c r="BT88" s="79"/>
       <c r="BU88"/>
     </row>
     <row r="89" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
-      <c r="U89" s="83"/>
-      <c r="V89" s="83"/>
-      <c r="W89" s="83"/>
-      <c r="X89" s="83"/>
-      <c r="Y89" s="83"/>
-      <c r="Z89" s="83"/>
-      <c r="AA89" s="83"/>
-      <c r="AB89" s="83"/>
-      <c r="AC89" s="83"/>
-      <c r="AD89" s="83"/>
-      <c r="AE89" s="83"/>
-      <c r="AF89" s="83"/>
-      <c r="AG89" s="83"/>
-      <c r="AH89" s="83"/>
-      <c r="AI89" s="83"/>
-      <c r="AJ89" s="83"/>
-      <c r="AK89" s="83"/>
-      <c r="AL89" s="83"/>
-      <c r="AM89" s="83"/>
-      <c r="AN89" s="83"/>
-      <c r="AO89" s="83"/>
-      <c r="AP89" s="83"/>
-      <c r="AQ89" s="83"/>
-      <c r="AR89" s="83"/>
-      <c r="AS89" s="83"/>
-      <c r="AT89" s="83"/>
-      <c r="AU89" s="83"/>
-      <c r="AV89" s="83"/>
-      <c r="AW89" s="83"/>
-      <c r="AX89" s="83"/>
-      <c r="AY89" s="83"/>
-      <c r="AZ89" s="83"/>
-      <c r="BA89" s="83"/>
-      <c r="BB89" s="83"/>
-      <c r="BC89" s="83"/>
-      <c r="BD89" s="83"/>
-      <c r="BE89" s="83"/>
-      <c r="BF89" s="83"/>
-      <c r="BG89" s="83"/>
-      <c r="BH89" s="83"/>
-      <c r="BI89" s="83"/>
-      <c r="BJ89" s="83"/>
-      <c r="BK89" s="83"/>
-      <c r="BL89" s="83"/>
-      <c r="BM89" s="83"/>
-      <c r="BN89" s="83"/>
-      <c r="BO89" s="83"/>
-      <c r="BP89" s="83"/>
-      <c r="BQ89" s="83"/>
-      <c r="BR89" s="83"/>
-      <c r="BS89" s="83"/>
-      <c r="BT89" s="83"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
+      <c r="O89" s="79"/>
+      <c r="P89" s="79"/>
+      <c r="Q89" s="79"/>
+      <c r="R89" s="79"/>
+      <c r="S89" s="79"/>
+      <c r="T89" s="79"/>
+      <c r="U89" s="79"/>
+      <c r="V89" s="79"/>
+      <c r="W89" s="79"/>
+      <c r="X89" s="79"/>
+      <c r="Y89" s="79"/>
+      <c r="Z89" s="79"/>
+      <c r="AA89" s="79"/>
+      <c r="AB89" s="79"/>
+      <c r="AC89" s="79"/>
+      <c r="AD89" s="79"/>
+      <c r="AE89" s="79"/>
+      <c r="AF89" s="79"/>
+      <c r="AG89" s="79"/>
+      <c r="AH89" s="79"/>
+      <c r="AI89" s="79"/>
+      <c r="AJ89" s="79"/>
+      <c r="AK89" s="79"/>
+      <c r="AL89" s="79"/>
+      <c r="AM89" s="79"/>
+      <c r="AN89" s="79"/>
+      <c r="AO89" s="79"/>
+      <c r="AP89" s="79"/>
+      <c r="AQ89" s="79"/>
+      <c r="AR89" s="79"/>
+      <c r="AS89" s="79"/>
+      <c r="AT89" s="79"/>
+      <c r="AU89" s="79"/>
+      <c r="AV89" s="79"/>
+      <c r="AW89" s="79"/>
+      <c r="AX89" s="79"/>
+      <c r="AY89" s="79"/>
+      <c r="AZ89" s="79"/>
+      <c r="BA89" s="79"/>
+      <c r="BB89" s="79"/>
+      <c r="BC89" s="79"/>
+      <c r="BD89" s="79"/>
+      <c r="BE89" s="79"/>
+      <c r="BF89" s="79"/>
+      <c r="BG89" s="79"/>
+      <c r="BH89" s="79"/>
+      <c r="BI89" s="79"/>
+      <c r="BJ89" s="79"/>
+      <c r="BK89" s="79"/>
+      <c r="BL89" s="79"/>
+      <c r="BM89" s="79"/>
+      <c r="BN89" s="79"/>
+      <c r="BO89" s="79"/>
+      <c r="BP89" s="79"/>
+      <c r="BQ89" s="79"/>
+      <c r="BR89" s="79"/>
+      <c r="BS89" s="79"/>
+      <c r="BT89" s="79"/>
       <c r="BU89"/>
     </row>
     <row r="90" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="110"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="83"/>
-      <c r="J90" s="83"/>
-      <c r="K90" s="83"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83"/>
-      <c r="Q90" s="83"/>
-      <c r="R90" s="83"/>
-      <c r="S90" s="83"/>
-      <c r="T90" s="83"/>
-      <c r="U90" s="83"/>
-      <c r="V90" s="83"/>
-      <c r="W90" s="83"/>
-      <c r="X90" s="83"/>
-      <c r="Y90" s="83"/>
-      <c r="Z90" s="83"/>
-      <c r="AA90" s="83"/>
-      <c r="AB90" s="83"/>
-      <c r="AC90" s="83"/>
-      <c r="AD90" s="83"/>
-      <c r="AE90" s="83"/>
-      <c r="AF90" s="83"/>
-      <c r="AG90" s="83"/>
-      <c r="AH90" s="83"/>
-      <c r="AI90" s="83"/>
-      <c r="AJ90" s="83"/>
-      <c r="AK90" s="83"/>
-      <c r="AL90" s="83"/>
-      <c r="AM90" s="83"/>
-      <c r="AN90" s="83"/>
-      <c r="AO90" s="83"/>
-      <c r="AP90" s="83"/>
-      <c r="AQ90" s="83"/>
-      <c r="AR90" s="83"/>
-      <c r="AS90" s="83"/>
-      <c r="AT90" s="83"/>
-      <c r="AU90" s="83"/>
-      <c r="AV90" s="83"/>
-      <c r="AW90" s="83"/>
-      <c r="AX90" s="83"/>
-      <c r="AY90" s="83"/>
-      <c r="AZ90" s="83"/>
-      <c r="BA90" s="83"/>
-      <c r="BB90" s="83"/>
-      <c r="BC90" s="83"/>
-      <c r="BD90" s="83"/>
-      <c r="BE90" s="83"/>
-      <c r="BF90" s="83"/>
-      <c r="BG90" s="83"/>
-      <c r="BH90" s="83"/>
-      <c r="BI90" s="83"/>
-      <c r="BJ90" s="83"/>
-      <c r="BK90" s="83"/>
-      <c r="BL90" s="83"/>
-      <c r="BM90" s="83"/>
-      <c r="BN90" s="83"/>
-      <c r="BO90" s="83"/>
-      <c r="BP90" s="83"/>
-      <c r="BQ90" s="83"/>
-      <c r="BR90" s="83"/>
-      <c r="BS90" s="83"/>
-      <c r="BT90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="79"/>
+      <c r="P90" s="79"/>
+      <c r="Q90" s="79"/>
+      <c r="R90" s="79"/>
+      <c r="S90" s="79"/>
+      <c r="T90" s="79"/>
+      <c r="U90" s="79"/>
+      <c r="V90" s="79"/>
+      <c r="W90" s="79"/>
+      <c r="X90" s="79"/>
+      <c r="Y90" s="79"/>
+      <c r="Z90" s="79"/>
+      <c r="AA90" s="79"/>
+      <c r="AB90" s="79"/>
+      <c r="AC90" s="79"/>
+      <c r="AD90" s="79"/>
+      <c r="AE90" s="79"/>
+      <c r="AF90" s="79"/>
+      <c r="AG90" s="79"/>
+      <c r="AH90" s="79"/>
+      <c r="AI90" s="79"/>
+      <c r="AJ90" s="79"/>
+      <c r="AK90" s="79"/>
+      <c r="AL90" s="79"/>
+      <c r="AM90" s="79"/>
+      <c r="AN90" s="79"/>
+      <c r="AO90" s="79"/>
+      <c r="AP90" s="79"/>
+      <c r="AQ90" s="79"/>
+      <c r="AR90" s="79"/>
+      <c r="AS90" s="79"/>
+      <c r="AT90" s="79"/>
+      <c r="AU90" s="79"/>
+      <c r="AV90" s="79"/>
+      <c r="AW90" s="79"/>
+      <c r="AX90" s="79"/>
+      <c r="AY90" s="79"/>
+      <c r="AZ90" s="79"/>
+      <c r="BA90" s="79"/>
+      <c r="BB90" s="79"/>
+      <c r="BC90" s="79"/>
+      <c r="BD90" s="79"/>
+      <c r="BE90" s="79"/>
+      <c r="BF90" s="79"/>
+      <c r="BG90" s="79"/>
+      <c r="BH90" s="79"/>
+      <c r="BI90" s="79"/>
+      <c r="BJ90" s="79"/>
+      <c r="BK90" s="79"/>
+      <c r="BL90" s="79"/>
+      <c r="BM90" s="79"/>
+      <c r="BN90" s="79"/>
+      <c r="BO90" s="79"/>
+      <c r="BP90" s="79"/>
+      <c r="BQ90" s="79"/>
+      <c r="BR90" s="79"/>
+      <c r="BS90" s="79"/>
+      <c r="BT90" s="79"/>
       <c r="BU90"/>
     </row>
     <row r="91" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83"/>
-      <c r="Q91" s="83"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
-      <c r="U91" s="83"/>
-      <c r="V91" s="83"/>
-      <c r="W91" s="83"/>
-      <c r="X91" s="83"/>
-      <c r="Y91" s="83"/>
-      <c r="Z91" s="83"/>
-      <c r="AA91" s="83"/>
-      <c r="AB91" s="83"/>
-      <c r="AC91" s="83"/>
-      <c r="AD91" s="83"/>
-      <c r="AE91" s="83"/>
-      <c r="AF91" s="83"/>
-      <c r="AG91" s="83"/>
-      <c r="AH91" s="83"/>
-      <c r="AI91" s="83"/>
-      <c r="AJ91" s="83"/>
-      <c r="AK91" s="83"/>
-      <c r="AL91" s="83"/>
-      <c r="AM91" s="83"/>
-      <c r="AN91" s="83"/>
-      <c r="AO91" s="83"/>
-      <c r="AP91" s="83"/>
-      <c r="AQ91" s="83"/>
-      <c r="AR91" s="83"/>
-      <c r="AS91" s="83"/>
-      <c r="AT91" s="83"/>
-      <c r="AU91" s="83"/>
-      <c r="AV91" s="83"/>
-      <c r="AW91" s="83"/>
-      <c r="AX91" s="83"/>
-      <c r="AY91" s="83"/>
-      <c r="AZ91" s="83"/>
-      <c r="BA91" s="83"/>
-      <c r="BB91" s="83"/>
-      <c r="BC91" s="83"/>
-      <c r="BD91" s="83"/>
-      <c r="BE91" s="83"/>
-      <c r="BF91" s="83"/>
-      <c r="BG91" s="83"/>
-      <c r="BH91" s="83"/>
-      <c r="BI91" s="83"/>
-      <c r="BJ91" s="83"/>
-      <c r="BK91" s="83"/>
-      <c r="BL91" s="83"/>
-      <c r="BM91" s="83"/>
-      <c r="BN91" s="83"/>
-      <c r="BO91" s="83"/>
-      <c r="BP91" s="83"/>
-      <c r="BQ91" s="83"/>
-      <c r="BR91" s="83"/>
-      <c r="BS91" s="83"/>
-      <c r="BT91" s="83"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="79"/>
+      <c r="S91" s="79"/>
+      <c r="T91" s="79"/>
+      <c r="U91" s="79"/>
+      <c r="V91" s="79"/>
+      <c r="W91" s="79"/>
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="79"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
+      <c r="AF91" s="79"/>
+      <c r="AG91" s="79"/>
+      <c r="AH91" s="79"/>
+      <c r="AI91" s="79"/>
+      <c r="AJ91" s="79"/>
+      <c r="AK91" s="79"/>
+      <c r="AL91" s="79"/>
+      <c r="AM91" s="79"/>
+      <c r="AN91" s="79"/>
+      <c r="AO91" s="79"/>
+      <c r="AP91" s="79"/>
+      <c r="AQ91" s="79"/>
+      <c r="AR91" s="79"/>
+      <c r="AS91" s="79"/>
+      <c r="AT91" s="79"/>
+      <c r="AU91" s="79"/>
+      <c r="AV91" s="79"/>
+      <c r="AW91" s="79"/>
+      <c r="AX91" s="79"/>
+      <c r="AY91" s="79"/>
+      <c r="AZ91" s="79"/>
+      <c r="BA91" s="79"/>
+      <c r="BB91" s="79"/>
+      <c r="BC91" s="79"/>
+      <c r="BD91" s="79"/>
+      <c r="BE91" s="79"/>
+      <c r="BF91" s="79"/>
+      <c r="BG91" s="79"/>
+      <c r="BH91" s="79"/>
+      <c r="BI91" s="79"/>
+      <c r="BJ91" s="79"/>
+      <c r="BK91" s="79"/>
+      <c r="BL91" s="79"/>
+      <c r="BM91" s="79"/>
+      <c r="BN91" s="79"/>
+      <c r="BO91" s="79"/>
+      <c r="BP91" s="79"/>
+      <c r="BQ91" s="79"/>
+      <c r="BR91" s="79"/>
+      <c r="BS91" s="79"/>
+      <c r="BT91" s="79"/>
       <c r="BU91"/>
     </row>
     <row r="92" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="87" t="s">
+      <c r="B92" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="87"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="83"/>
-      <c r="Q92" s="83"/>
-      <c r="R92" s="83"/>
-      <c r="S92" s="83"/>
-      <c r="T92" s="83"/>
-      <c r="U92" s="83"/>
-      <c r="V92" s="83"/>
-      <c r="W92" s="83"/>
-      <c r="X92" s="83"/>
-      <c r="Y92" s="83"/>
-      <c r="Z92" s="83"/>
-      <c r="AA92" s="83"/>
-      <c r="AB92" s="83"/>
-      <c r="AC92" s="83"/>
-      <c r="AD92" s="83"/>
-      <c r="AE92" s="83"/>
-      <c r="AF92" s="83"/>
-      <c r="AG92" s="83"/>
-      <c r="AH92" s="83"/>
-      <c r="AI92" s="83"/>
-      <c r="AJ92" s="83"/>
-      <c r="AK92" s="83"/>
-      <c r="AL92" s="83"/>
-      <c r="AM92" s="83"/>
-      <c r="AN92" s="83"/>
-      <c r="AO92" s="83"/>
-      <c r="AP92" s="83"/>
-      <c r="AQ92" s="83"/>
-      <c r="AR92" s="83"/>
-      <c r="AS92" s="83"/>
-      <c r="AT92" s="83"/>
-      <c r="AU92" s="83"/>
-      <c r="AV92" s="83"/>
-      <c r="AW92" s="83"/>
-      <c r="AX92" s="83"/>
-      <c r="AY92" s="83"/>
-      <c r="AZ92" s="83"/>
-      <c r="BA92" s="83"/>
-      <c r="BB92" s="83"/>
-      <c r="BC92" s="83"/>
-      <c r="BD92" s="83"/>
-      <c r="BE92" s="83"/>
-      <c r="BF92" s="83"/>
-      <c r="BG92" s="83"/>
-      <c r="BH92" s="83"/>
-      <c r="BI92" s="83"/>
-      <c r="BJ92" s="83"/>
-      <c r="BK92" s="83"/>
-      <c r="BL92" s="83"/>
-      <c r="BM92" s="83"/>
-      <c r="BN92" s="83"/>
-      <c r="BO92" s="83"/>
-      <c r="BP92" s="83"/>
-      <c r="BQ92" s="83"/>
-      <c r="BR92" s="83"/>
-      <c r="BS92" s="83"/>
-      <c r="BT92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="79"/>
+      <c r="P92" s="79"/>
+      <c r="Q92" s="79"/>
+      <c r="R92" s="79"/>
+      <c r="S92" s="79"/>
+      <c r="T92" s="79"/>
+      <c r="U92" s="79"/>
+      <c r="V92" s="79"/>
+      <c r="W92" s="79"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="79"/>
+      <c r="AB92" s="79"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="79"/>
+      <c r="AF92" s="79"/>
+      <c r="AG92" s="79"/>
+      <c r="AH92" s="79"/>
+      <c r="AI92" s="79"/>
+      <c r="AJ92" s="79"/>
+      <c r="AK92" s="79"/>
+      <c r="AL92" s="79"/>
+      <c r="AM92" s="79"/>
+      <c r="AN92" s="79"/>
+      <c r="AO92" s="79"/>
+      <c r="AP92" s="79"/>
+      <c r="AQ92" s="79"/>
+      <c r="AR92" s="79"/>
+      <c r="AS92" s="79"/>
+      <c r="AT92" s="79"/>
+      <c r="AU92" s="79"/>
+      <c r="AV92" s="79"/>
+      <c r="AW92" s="79"/>
+      <c r="AX92" s="79"/>
+      <c r="AY92" s="79"/>
+      <c r="AZ92" s="79"/>
+      <c r="BA92" s="79"/>
+      <c r="BB92" s="79"/>
+      <c r="BC92" s="79"/>
+      <c r="BD92" s="79"/>
+      <c r="BE92" s="79"/>
+      <c r="BF92" s="79"/>
+      <c r="BG92" s="79"/>
+      <c r="BH92" s="79"/>
+      <c r="BI92" s="79"/>
+      <c r="BJ92" s="79"/>
+      <c r="BK92" s="79"/>
+      <c r="BL92" s="79"/>
+      <c r="BM92" s="79"/>
+      <c r="BN92" s="79"/>
+      <c r="BO92" s="79"/>
+      <c r="BP92" s="79"/>
+      <c r="BQ92" s="79"/>
+      <c r="BR92" s="79"/>
+      <c r="BS92" s="79"/>
+      <c r="BT92" s="79"/>
       <c r="BU92"/>
     </row>
     <row r="93" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="87"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="83"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="83"/>
-      <c r="T93" s="83"/>
-      <c r="U93" s="83"/>
-      <c r="V93" s="83"/>
-      <c r="W93" s="83"/>
-      <c r="X93" s="83"/>
-      <c r="Y93" s="83"/>
-      <c r="Z93" s="83"/>
-      <c r="AA93" s="83"/>
-      <c r="AB93" s="83"/>
-      <c r="AC93" s="83"/>
-      <c r="AD93" s="83"/>
-      <c r="AE93" s="83"/>
-      <c r="AF93" s="83"/>
-      <c r="AG93" s="83"/>
-      <c r="AH93" s="83"/>
-      <c r="AI93" s="83"/>
-      <c r="AJ93" s="83"/>
-      <c r="AK93" s="83"/>
-      <c r="AL93" s="83"/>
-      <c r="AM93" s="83"/>
-      <c r="AN93" s="83"/>
-      <c r="AO93" s="83"/>
-      <c r="AP93" s="83"/>
-      <c r="AQ93" s="83"/>
-      <c r="AR93" s="83"/>
-      <c r="AS93" s="83"/>
-      <c r="AT93" s="83"/>
-      <c r="AU93" s="83"/>
-      <c r="AV93" s="83"/>
-      <c r="AW93" s="83"/>
-      <c r="AX93" s="83"/>
-      <c r="AY93" s="83"/>
-      <c r="AZ93" s="83"/>
-      <c r="BA93" s="83"/>
-      <c r="BB93" s="83"/>
-      <c r="BC93" s="83"/>
-      <c r="BD93" s="83"/>
-      <c r="BE93" s="83"/>
-      <c r="BF93" s="83"/>
-      <c r="BG93" s="83"/>
-      <c r="BH93" s="83"/>
-      <c r="BI93" s="83"/>
-      <c r="BJ93" s="83"/>
-      <c r="BK93" s="83"/>
-      <c r="BL93" s="83"/>
-      <c r="BM93" s="83"/>
-      <c r="BN93" s="83"/>
-      <c r="BO93" s="83"/>
-      <c r="BP93" s="83"/>
-      <c r="BQ93" s="83"/>
-      <c r="BR93" s="83"/>
-      <c r="BS93" s="83"/>
-      <c r="BT93" s="83"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="79"/>
+      <c r="P93" s="79"/>
+      <c r="Q93" s="79"/>
+      <c r="R93" s="79"/>
+      <c r="S93" s="79"/>
+      <c r="T93" s="79"/>
+      <c r="U93" s="79"/>
+      <c r="V93" s="79"/>
+      <c r="W93" s="79"/>
+      <c r="X93" s="79"/>
+      <c r="Y93" s="79"/>
+      <c r="Z93" s="79"/>
+      <c r="AA93" s="79"/>
+      <c r="AB93" s="79"/>
+      <c r="AC93" s="79"/>
+      <c r="AD93" s="79"/>
+      <c r="AE93" s="79"/>
+      <c r="AF93" s="79"/>
+      <c r="AG93" s="79"/>
+      <c r="AH93" s="79"/>
+      <c r="AI93" s="79"/>
+      <c r="AJ93" s="79"/>
+      <c r="AK93" s="79"/>
+      <c r="AL93" s="79"/>
+      <c r="AM93" s="79"/>
+      <c r="AN93" s="79"/>
+      <c r="AO93" s="79"/>
+      <c r="AP93" s="79"/>
+      <c r="AQ93" s="79"/>
+      <c r="AR93" s="79"/>
+      <c r="AS93" s="79"/>
+      <c r="AT93" s="79"/>
+      <c r="AU93" s="79"/>
+      <c r="AV93" s="79"/>
+      <c r="AW93" s="79"/>
+      <c r="AX93" s="79"/>
+      <c r="AY93" s="79"/>
+      <c r="AZ93" s="79"/>
+      <c r="BA93" s="79"/>
+      <c r="BB93" s="79"/>
+      <c r="BC93" s="79"/>
+      <c r="BD93" s="79"/>
+      <c r="BE93" s="79"/>
+      <c r="BF93" s="79"/>
+      <c r="BG93" s="79"/>
+      <c r="BH93" s="79"/>
+      <c r="BI93" s="79"/>
+      <c r="BJ93" s="79"/>
+      <c r="BK93" s="79"/>
+      <c r="BL93" s="79"/>
+      <c r="BM93" s="79"/>
+      <c r="BN93" s="79"/>
+      <c r="BO93" s="79"/>
+      <c r="BP93" s="79"/>
+      <c r="BQ93" s="79"/>
+      <c r="BR93" s="79"/>
+      <c r="BS93" s="79"/>
+      <c r="BT93" s="79"/>
       <c r="BU93"/>
     </row>
     <row r="94" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="87" t="s">
+      <c r="B94" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="87"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="83"/>
-      <c r="T94" s="83"/>
-      <c r="U94" s="83"/>
-      <c r="V94" s="83"/>
-      <c r="W94" s="83"/>
-      <c r="X94" s="83"/>
-      <c r="Y94" s="83"/>
-      <c r="Z94" s="83"/>
-      <c r="AA94" s="83"/>
-      <c r="AB94" s="83"/>
-      <c r="AC94" s="83"/>
-      <c r="AD94" s="83"/>
-      <c r="AE94" s="83"/>
-      <c r="AF94" s="83"/>
-      <c r="AG94" s="83"/>
-      <c r="AH94" s="83"/>
-      <c r="AI94" s="83"/>
-      <c r="AJ94" s="83"/>
-      <c r="AK94" s="83"/>
-      <c r="AL94" s="83"/>
-      <c r="AM94" s="83"/>
-      <c r="AN94" s="83"/>
-      <c r="AO94" s="83"/>
-      <c r="AP94" s="83"/>
-      <c r="AQ94" s="83"/>
-      <c r="AR94" s="83"/>
-      <c r="AS94" s="83"/>
-      <c r="AT94" s="83"/>
-      <c r="AU94" s="83"/>
-      <c r="AV94" s="83"/>
-      <c r="AW94" s="83"/>
-      <c r="AX94" s="83"/>
-      <c r="AY94" s="83"/>
-      <c r="AZ94" s="83"/>
-      <c r="BA94" s="83"/>
-      <c r="BB94" s="83"/>
-      <c r="BC94" s="83"/>
-      <c r="BD94" s="83"/>
-      <c r="BE94" s="83"/>
-      <c r="BF94" s="83"/>
-      <c r="BG94" s="83"/>
-      <c r="BH94" s="83"/>
-      <c r="BI94" s="83"/>
-      <c r="BJ94" s="83"/>
-      <c r="BK94" s="83"/>
-      <c r="BL94" s="83"/>
-      <c r="BM94" s="83"/>
-      <c r="BN94" s="83"/>
-      <c r="BO94" s="83"/>
-      <c r="BP94" s="83"/>
-      <c r="BQ94" s="83"/>
-      <c r="BR94" s="83"/>
-      <c r="BS94" s="83"/>
-      <c r="BT94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="79"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="79"/>
+      <c r="O94" s="79"/>
+      <c r="P94" s="79"/>
+      <c r="Q94" s="79"/>
+      <c r="R94" s="79"/>
+      <c r="S94" s="79"/>
+      <c r="T94" s="79"/>
+      <c r="U94" s="79"/>
+      <c r="V94" s="79"/>
+      <c r="W94" s="79"/>
+      <c r="X94" s="79"/>
+      <c r="Y94" s="79"/>
+      <c r="Z94" s="79"/>
+      <c r="AA94" s="79"/>
+      <c r="AB94" s="79"/>
+      <c r="AC94" s="79"/>
+      <c r="AD94" s="79"/>
+      <c r="AE94" s="79"/>
+      <c r="AF94" s="79"/>
+      <c r="AG94" s="79"/>
+      <c r="AH94" s="79"/>
+      <c r="AI94" s="79"/>
+      <c r="AJ94" s="79"/>
+      <c r="AK94" s="79"/>
+      <c r="AL94" s="79"/>
+      <c r="AM94" s="79"/>
+      <c r="AN94" s="79"/>
+      <c r="AO94" s="79"/>
+      <c r="AP94" s="79"/>
+      <c r="AQ94" s="79"/>
+      <c r="AR94" s="79"/>
+      <c r="AS94" s="79"/>
+      <c r="AT94" s="79"/>
+      <c r="AU94" s="79"/>
+      <c r="AV94" s="79"/>
+      <c r="AW94" s="79"/>
+      <c r="AX94" s="79"/>
+      <c r="AY94" s="79"/>
+      <c r="AZ94" s="79"/>
+      <c r="BA94" s="79"/>
+      <c r="BB94" s="79"/>
+      <c r="BC94" s="79"/>
+      <c r="BD94" s="79"/>
+      <c r="BE94" s="79"/>
+      <c r="BF94" s="79"/>
+      <c r="BG94" s="79"/>
+      <c r="BH94" s="79"/>
+      <c r="BI94" s="79"/>
+      <c r="BJ94" s="79"/>
+      <c r="BK94" s="79"/>
+      <c r="BL94" s="79"/>
+      <c r="BM94" s="79"/>
+      <c r="BN94" s="79"/>
+      <c r="BO94" s="79"/>
+      <c r="BP94" s="79"/>
+      <c r="BQ94" s="79"/>
+      <c r="BR94" s="79"/>
+      <c r="BS94" s="79"/>
+      <c r="BT94" s="79"/>
       <c r="BU94"/>
     </row>
     <row r="95" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="83"/>
-      <c r="L95" s="83"/>
-      <c r="M95" s="83"/>
-      <c r="N95" s="83"/>
-      <c r="O95" s="83"/>
-      <c r="P95" s="83"/>
-      <c r="Q95" s="83"/>
-      <c r="R95" s="83"/>
-      <c r="S95" s="83"/>
-      <c r="T95" s="83"/>
-      <c r="U95" s="83"/>
-      <c r="V95" s="83"/>
-      <c r="W95" s="83"/>
-      <c r="X95" s="83"/>
-      <c r="Y95" s="83"/>
-      <c r="Z95" s="83"/>
-      <c r="AA95" s="83"/>
-      <c r="AB95" s="83"/>
-      <c r="AC95" s="83"/>
-      <c r="AD95" s="83"/>
-      <c r="AE95" s="83"/>
-      <c r="AF95" s="83"/>
-      <c r="AG95" s="83"/>
-      <c r="AH95" s="83"/>
-      <c r="AI95" s="83"/>
-      <c r="AJ95" s="83"/>
-      <c r="AK95" s="83"/>
-      <c r="AL95" s="83"/>
-      <c r="AM95" s="83"/>
-      <c r="AN95" s="83"/>
-      <c r="AO95" s="83"/>
-      <c r="AP95" s="83"/>
-      <c r="AQ95" s="83"/>
-      <c r="AR95" s="83"/>
-      <c r="AS95" s="83"/>
-      <c r="AT95" s="83"/>
-      <c r="AU95" s="83"/>
-      <c r="AV95" s="83"/>
-      <c r="AW95" s="83"/>
-      <c r="AX95" s="83"/>
-      <c r="AY95" s="83"/>
-      <c r="AZ95" s="83"/>
-      <c r="BA95" s="83"/>
-      <c r="BB95" s="83"/>
-      <c r="BC95" s="83"/>
-      <c r="BD95" s="83"/>
-      <c r="BE95" s="83"/>
-      <c r="BF95" s="83"/>
-      <c r="BG95" s="83"/>
-      <c r="BH95" s="83"/>
-      <c r="BI95" s="83"/>
-      <c r="BJ95" s="83"/>
-      <c r="BK95" s="83"/>
-      <c r="BL95" s="83"/>
-      <c r="BM95" s="83"/>
-      <c r="BN95" s="83"/>
-      <c r="BO95" s="83"/>
-      <c r="BP95" s="83"/>
-      <c r="BQ95" s="83"/>
-      <c r="BR95" s="83"/>
-      <c r="BS95" s="83"/>
-      <c r="BT95" s="83"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="79"/>
+      <c r="P95" s="79"/>
+      <c r="Q95" s="79"/>
+      <c r="R95" s="79"/>
+      <c r="S95" s="79"/>
+      <c r="T95" s="79"/>
+      <c r="U95" s="79"/>
+      <c r="V95" s="79"/>
+      <c r="W95" s="79"/>
+      <c r="X95" s="79"/>
+      <c r="Y95" s="79"/>
+      <c r="Z95" s="79"/>
+      <c r="AA95" s="79"/>
+      <c r="AB95" s="79"/>
+      <c r="AC95" s="79"/>
+      <c r="AD95" s="79"/>
+      <c r="AE95" s="79"/>
+      <c r="AF95" s="79"/>
+      <c r="AG95" s="79"/>
+      <c r="AH95" s="79"/>
+      <c r="AI95" s="79"/>
+      <c r="AJ95" s="79"/>
+      <c r="AK95" s="79"/>
+      <c r="AL95" s="79"/>
+      <c r="AM95" s="79"/>
+      <c r="AN95" s="79"/>
+      <c r="AO95" s="79"/>
+      <c r="AP95" s="79"/>
+      <c r="AQ95" s="79"/>
+      <c r="AR95" s="79"/>
+      <c r="AS95" s="79"/>
+      <c r="AT95" s="79"/>
+      <c r="AU95" s="79"/>
+      <c r="AV95" s="79"/>
+      <c r="AW95" s="79"/>
+      <c r="AX95" s="79"/>
+      <c r="AY95" s="79"/>
+      <c r="AZ95" s="79"/>
+      <c r="BA95" s="79"/>
+      <c r="BB95" s="79"/>
+      <c r="BC95" s="79"/>
+      <c r="BD95" s="79"/>
+      <c r="BE95" s="79"/>
+      <c r="BF95" s="79"/>
+      <c r="BG95" s="79"/>
+      <c r="BH95" s="79"/>
+      <c r="BI95" s="79"/>
+      <c r="BJ95" s="79"/>
+      <c r="BK95" s="79"/>
+      <c r="BL95" s="79"/>
+      <c r="BM95" s="79"/>
+      <c r="BN95" s="79"/>
+      <c r="BO95" s="79"/>
+      <c r="BP95" s="79"/>
+      <c r="BQ95" s="79"/>
+      <c r="BR95" s="79"/>
+      <c r="BS95" s="79"/>
+      <c r="BT95" s="79"/>
       <c r="BU95"/>
     </row>
     <row r="96" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30"/>
-      <c r="C96" s="109" t="s">
+      <c r="C96" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D96" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="117"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="83"/>
-      <c r="L96" s="83"/>
-      <c r="M96" s="83"/>
-      <c r="N96" s="83"/>
-      <c r="O96" s="83"/>
-      <c r="P96" s="83"/>
-      <c r="Q96" s="83"/>
-      <c r="R96" s="83"/>
-      <c r="S96" s="83"/>
-      <c r="T96" s="83"/>
-      <c r="U96" s="83"/>
-      <c r="V96" s="83"/>
-      <c r="W96" s="83"/>
-      <c r="X96" s="83"/>
-      <c r="Y96" s="83"/>
-      <c r="Z96" s="83"/>
-      <c r="AA96" s="83"/>
-      <c r="AB96" s="83"/>
-      <c r="AC96" s="83"/>
-      <c r="AD96" s="83"/>
-      <c r="AE96" s="83"/>
-      <c r="AF96" s="83"/>
-      <c r="AG96" s="83"/>
-      <c r="AH96" s="83"/>
-      <c r="AI96" s="83"/>
-      <c r="AJ96" s="83"/>
-      <c r="AK96" s="83"/>
-      <c r="AL96" s="83"/>
-      <c r="AM96" s="83"/>
-      <c r="AN96" s="83"/>
-      <c r="AO96" s="83"/>
-      <c r="AP96" s="83"/>
-      <c r="AQ96" s="83"/>
-      <c r="AR96" s="83"/>
-      <c r="AS96" s="83"/>
-      <c r="AT96" s="83"/>
-      <c r="AU96" s="83"/>
-      <c r="AV96" s="83"/>
-      <c r="AW96" s="83"/>
-      <c r="AX96" s="83"/>
-      <c r="AY96" s="83"/>
-      <c r="AZ96" s="83"/>
-      <c r="BA96" s="83"/>
-      <c r="BB96" s="83"/>
-      <c r="BC96" s="83"/>
-      <c r="BD96" s="83"/>
-      <c r="BE96" s="83"/>
-      <c r="BF96" s="83"/>
-      <c r="BG96" s="83"/>
-      <c r="BH96" s="83"/>
-      <c r="BI96" s="83"/>
-      <c r="BJ96" s="83"/>
-      <c r="BK96" s="83"/>
-      <c r="BL96" s="83"/>
-      <c r="BM96" s="83"/>
-      <c r="BN96" s="83"/>
-      <c r="BO96" s="83"/>
-      <c r="BP96" s="83"/>
-      <c r="BQ96" s="83"/>
-      <c r="BR96" s="83"/>
-      <c r="BS96" s="83"/>
-      <c r="BT96" s="83"/>
+      <c r="E96" s="113"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="79"/>
+      <c r="S96" s="79"/>
+      <c r="T96" s="79"/>
+      <c r="U96" s="79"/>
+      <c r="V96" s="79"/>
+      <c r="W96" s="79"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="79"/>
+      <c r="AA96" s="79"/>
+      <c r="AB96" s="79"/>
+      <c r="AC96" s="79"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="79"/>
+      <c r="AF96" s="79"/>
+      <c r="AG96" s="79"/>
+      <c r="AH96" s="79"/>
+      <c r="AI96" s="79"/>
+      <c r="AJ96" s="79"/>
+      <c r="AK96" s="79"/>
+      <c r="AL96" s="79"/>
+      <c r="AM96" s="79"/>
+      <c r="AN96" s="79"/>
+      <c r="AO96" s="79"/>
+      <c r="AP96" s="79"/>
+      <c r="AQ96" s="79"/>
+      <c r="AR96" s="79"/>
+      <c r="AS96" s="79"/>
+      <c r="AT96" s="79"/>
+      <c r="AU96" s="79"/>
+      <c r="AV96" s="79"/>
+      <c r="AW96" s="79"/>
+      <c r="AX96" s="79"/>
+      <c r="AY96" s="79"/>
+      <c r="AZ96" s="79"/>
+      <c r="BA96" s="79"/>
+      <c r="BB96" s="79"/>
+      <c r="BC96" s="79"/>
+      <c r="BD96" s="79"/>
+      <c r="BE96" s="79"/>
+      <c r="BF96" s="79"/>
+      <c r="BG96" s="79"/>
+      <c r="BH96" s="79"/>
+      <c r="BI96" s="79"/>
+      <c r="BJ96" s="79"/>
+      <c r="BK96" s="79"/>
+      <c r="BL96" s="79"/>
+      <c r="BM96" s="79"/>
+      <c r="BN96" s="79"/>
+      <c r="BO96" s="79"/>
+      <c r="BP96" s="79"/>
+      <c r="BQ96" s="79"/>
+      <c r="BR96" s="79"/>
+      <c r="BS96" s="79"/>
+      <c r="BT96" s="79"/>
       <c r="BU96"/>
     </row>
     <row r="97" spans="1:79" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="109"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="83"/>
-      <c r="J97" s="83"/>
-      <c r="K97" s="83"/>
-      <c r="L97" s="83"/>
-      <c r="M97" s="83"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83"/>
-      <c r="Q97" s="83"/>
-      <c r="R97" s="83"/>
-      <c r="S97" s="83"/>
-      <c r="T97" s="83"/>
-      <c r="U97" s="83"/>
-      <c r="V97" s="83"/>
-      <c r="W97" s="83"/>
-      <c r="X97" s="83"/>
-      <c r="Y97" s="83"/>
-      <c r="Z97" s="83"/>
-      <c r="AA97" s="83"/>
-      <c r="AB97" s="83"/>
-      <c r="AC97" s="83"/>
-      <c r="AD97" s="83"/>
-      <c r="AE97" s="83"/>
-      <c r="AF97" s="83"/>
-      <c r="AG97" s="83"/>
-      <c r="AH97" s="83"/>
-      <c r="AI97" s="83"/>
-      <c r="AJ97" s="83"/>
-      <c r="AK97" s="83"/>
-      <c r="AL97" s="83"/>
-      <c r="AM97" s="83"/>
-      <c r="AN97" s="83"/>
-      <c r="AO97" s="83"/>
-      <c r="AP97" s="83"/>
-      <c r="AQ97" s="83"/>
-      <c r="AR97" s="83"/>
-      <c r="AS97" s="83"/>
-      <c r="AT97" s="83"/>
-      <c r="AU97" s="83"/>
-      <c r="AV97" s="83"/>
-      <c r="AW97" s="83"/>
-      <c r="AX97" s="83"/>
-      <c r="AY97" s="83"/>
-      <c r="AZ97" s="83"/>
-      <c r="BA97" s="83"/>
-      <c r="BB97" s="83"/>
-      <c r="BC97" s="83"/>
-      <c r="BD97" s="83"/>
-      <c r="BE97" s="83"/>
-      <c r="BF97" s="83"/>
-      <c r="BG97" s="83"/>
-      <c r="BH97" s="83"/>
-      <c r="BI97" s="83"/>
-      <c r="BJ97" s="83"/>
-      <c r="BK97" s="83"/>
-      <c r="BL97" s="83"/>
-      <c r="BM97" s="83"/>
-      <c r="BN97" s="83"/>
-      <c r="BO97" s="83"/>
-      <c r="BP97" s="83"/>
-      <c r="BQ97" s="83"/>
-      <c r="BR97" s="83"/>
-      <c r="BS97" s="83"/>
-      <c r="BT97" s="83"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="113"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="79"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+      <c r="P97" s="79"/>
+      <c r="Q97" s="79"/>
+      <c r="R97" s="79"/>
+      <c r="S97" s="79"/>
+      <c r="T97" s="79"/>
+      <c r="U97" s="79"/>
+      <c r="V97" s="79"/>
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="79"/>
+      <c r="Z97" s="79"/>
+      <c r="AA97" s="79"/>
+      <c r="AB97" s="79"/>
+      <c r="AC97" s="79"/>
+      <c r="AD97" s="79"/>
+      <c r="AE97" s="79"/>
+      <c r="AF97" s="79"/>
+      <c r="AG97" s="79"/>
+      <c r="AH97" s="79"/>
+      <c r="AI97" s="79"/>
+      <c r="AJ97" s="79"/>
+      <c r="AK97" s="79"/>
+      <c r="AL97" s="79"/>
+      <c r="AM97" s="79"/>
+      <c r="AN97" s="79"/>
+      <c r="AO97" s="79"/>
+      <c r="AP97" s="79"/>
+      <c r="AQ97" s="79"/>
+      <c r="AR97" s="79"/>
+      <c r="AS97" s="79"/>
+      <c r="AT97" s="79"/>
+      <c r="AU97" s="79"/>
+      <c r="AV97" s="79"/>
+      <c r="AW97" s="79"/>
+      <c r="AX97" s="79"/>
+      <c r="AY97" s="79"/>
+      <c r="AZ97" s="79"/>
+      <c r="BA97" s="79"/>
+      <c r="BB97" s="79"/>
+      <c r="BC97" s="79"/>
+      <c r="BD97" s="79"/>
+      <c r="BE97" s="79"/>
+      <c r="BF97" s="79"/>
+      <c r="BG97" s="79"/>
+      <c r="BH97" s="79"/>
+      <c r="BI97" s="79"/>
+      <c r="BJ97" s="79"/>
+      <c r="BK97" s="79"/>
+      <c r="BL97" s="79"/>
+      <c r="BM97" s="79"/>
+      <c r="BN97" s="79"/>
+      <c r="BO97" s="79"/>
+      <c r="BP97" s="79"/>
+      <c r="BQ97" s="79"/>
+      <c r="BR97" s="79"/>
+      <c r="BS97" s="79"/>
+      <c r="BT97" s="79"/>
       <c r="BU97"/>
     </row>
     <row r="98" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10716,8 +10724,7 @@
     <row r="121" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="619">
-    <mergeCell ref="I1:L1"/>
+  <mergeCells count="618">
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="BA64:BA65"/>
     <mergeCell ref="E96:E97"/>
@@ -10749,7 +10756,6 @@
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B14:E15"/>
     <mergeCell ref="B18:E19"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F14:F15"/>
@@ -10765,6 +10771,7 @@
     <mergeCell ref="B94:C95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="E94:E95"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="G96:G97"/>
     <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="AY1:BB1"/>

--- a/Doku/Zeitplanung.xlsx
+++ b/Doku/Zeitplanung.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Dauer in h</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Meilenstein: Testphase abgeschlossen</t>
-  </si>
-  <si>
-    <t>Legende</t>
-  </si>
-  <si>
-    <t>Meilenstein</t>
   </si>
   <si>
     <t>Informieren</t>
@@ -71,12 +65,6 @@
     <t>Meilenstein: Planung abgeschlossen</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Realisieren</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
   </si>
   <si>
     <t>Meilenstein: Auswertung abgeschlossen</t>
-  </si>
-  <si>
-    <t>Puffer</t>
   </si>
   <si>
     <t>Totalaufwand</t>
@@ -223,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,31 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,12 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -627,21 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </left>
@@ -899,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,6 +916,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -979,166 +1060,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,43 +1145,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,64 +1169,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,8 +1505,8 @@
   </sheetPr>
   <dimension ref="A1:CA122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70:G71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,187 +1522,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>8</v>
+      <c r="A1" s="96" t="s">
+        <v>6</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="80">
+      <c r="G1" s="41"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="103">
         <v>44522</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="80">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="103">
         <v>44529</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="80">
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="103">
         <v>44536</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="80">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="103">
         <v>44543</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="80">
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="103">
         <v>44564</v>
       </c>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="80">
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="103">
         <v>44571</v>
       </c>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="92">
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="98">
         <v>44578</v>
       </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="92">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="98">
         <v>44585</v>
       </c>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="82"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="92"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="49"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="99"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="98"/>
+      <c r="BQ1" s="99"/>
+      <c r="BR1" s="99"/>
+      <c r="BS1" s="100"/>
+      <c r="BT1" s="47"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="93" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="89"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="89"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="95"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="89"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="94"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="95"/>
       <c r="BG2" s="3"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="87"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="89"/>
-      <c r="BT2" s="50"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="94"/>
+      <c r="BJ2" s="94"/>
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="94"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="94"/>
+      <c r="BR2" s="94"/>
+      <c r="BS2" s="95"/>
+      <c r="BT2" s="48"/>
     </row>
     <row r="3" spans="1:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="67" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1753,7 +1715,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="7"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="34"/>
+      <c r="V3" s="32"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
@@ -1769,8 +1731,8 @@
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="34"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="32"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
       <c r="AP3" s="7"/>
@@ -1790,8 +1752,8 @@
       <c r="BD3" s="11"/>
       <c r="BE3" s="11"/>
       <c r="BF3" s="12"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="34"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="32"/>
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="7"/>
@@ -1803,23 +1765,23 @@
       <c r="BQ3" s="6"/>
       <c r="BR3" s="6"/>
       <c r="BS3" s="7"/>
-      <c r="BT3" s="51"/>
+      <c r="BT3" s="49"/>
     </row>
     <row r="4" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>6</v>
+      <c r="A4" s="91" t="s">
+        <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -1828,8 +1790,8 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="15"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="35"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="33"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
@@ -1845,8 +1807,8 @@
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
       <c r="AK4" s="15"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="35"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="33"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
       <c r="AP4" s="15"/>
@@ -1866,8 +1828,8 @@
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
       <c r="BF4" s="15"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="35"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="33"/>
       <c r="BI4" s="14"/>
       <c r="BJ4" s="14"/>
       <c r="BK4" s="15"/>
@@ -1879,21 +1841,21 @@
       <c r="BQ4" s="14"/>
       <c r="BR4" s="14"/>
       <c r="BS4" s="15"/>
-      <c r="BT4" s="52"/>
+      <c r="BT4" s="50"/>
     </row>
     <row r="5" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="24"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
@@ -1902,8 +1864,8 @@
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="36"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="34"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="19"/>
@@ -1919,8 +1881,8 @@
       <c r="AI5" s="18"/>
       <c r="AJ5" s="18"/>
       <c r="AK5" s="19"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="36"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="34"/>
       <c r="AN5" s="18"/>
       <c r="AO5" s="18"/>
       <c r="AP5" s="19"/>
@@ -1940,8 +1902,8 @@
       <c r="BD5" s="18"/>
       <c r="BE5" s="18"/>
       <c r="BF5" s="19"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="36"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="34"/>
       <c r="BI5" s="18"/>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="19"/>
@@ -1953,27 +1915,27 @@
       <c r="BQ5" s="18"/>
       <c r="BR5" s="18"/>
       <c r="BS5" s="19"/>
-      <c r="BT5" s="52"/>
+      <c r="BT5" s="50"/>
     </row>
     <row r="6" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="95" t="s">
-        <v>6</v>
+      <c r="A6" s="28"/>
+      <c r="B6" s="104" t="s">
+        <v>4</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="86">
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="92">
         <v>1.5</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="92">
         <v>1.5</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
@@ -1982,8 +1944,8 @@
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="26"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="38"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="36"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="26"/>
@@ -1999,8 +1961,8 @@
       <c r="AI6" s="18"/>
       <c r="AJ6" s="18"/>
       <c r="AK6" s="19"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="36"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="34"/>
       <c r="AN6" s="18"/>
       <c r="AO6" s="18"/>
       <c r="AP6" s="19"/>
@@ -2020,8 +1982,8 @@
       <c r="BD6" s="18"/>
       <c r="BE6" s="18"/>
       <c r="BF6" s="19"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="36"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="34"/>
       <c r="BI6" s="18"/>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="19"/>
@@ -2033,21 +1995,21 @@
       <c r="BQ6" s="18"/>
       <c r="BR6" s="18"/>
       <c r="BS6" s="19"/>
-      <c r="BT6" s="52"/>
+      <c r="BT6" s="50"/>
     </row>
     <row r="7" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -2056,8 +2018,8 @@
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="38"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="36"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="26"/>
@@ -2073,8 +2035,8 @@
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="36"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="34"/>
       <c r="AN7" s="18"/>
       <c r="AO7" s="18"/>
       <c r="AP7" s="19"/>
@@ -2094,8 +2056,8 @@
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="19"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="36"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="34"/>
       <c r="BI7" s="18"/>
       <c r="BJ7" s="18"/>
       <c r="BK7" s="19"/>
@@ -2107,27 +2069,27 @@
       <c r="BQ7" s="18"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="19"/>
-      <c r="BT7" s="52"/>
+      <c r="BT7" s="50"/>
     </row>
     <row r="8" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="86" t="s">
-        <v>22</v>
+      <c r="A8" s="28"/>
+      <c r="B8" s="92" t="s">
+        <v>17</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92">
         <v>1.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="92">
         <v>1.5</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -2136,8 +2098,8 @@
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="26"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="38"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="36"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="26"/>
@@ -2153,8 +2115,8 @@
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="36"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="34"/>
       <c r="AN8" s="18"/>
       <c r="AO8" s="18"/>
       <c r="AP8" s="19"/>
@@ -2174,8 +2136,8 @@
       <c r="BD8" s="18"/>
       <c r="BE8" s="18"/>
       <c r="BF8" s="19"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="36"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="34"/>
       <c r="BI8" s="18"/>
       <c r="BJ8" s="18"/>
       <c r="BK8" s="19"/>
@@ -2187,21 +2149,21 @@
       <c r="BQ8" s="18"/>
       <c r="BR8" s="18"/>
       <c r="BS8" s="19"/>
-      <c r="BT8" s="52"/>
+      <c r="BT8" s="50"/>
     </row>
     <row r="9" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -2210,8 +2172,8 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="26"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="38"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="36"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="26"/>
@@ -2227,8 +2189,8 @@
       <c r="AI9" s="18"/>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="36"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="34"/>
       <c r="AN9" s="18"/>
       <c r="AO9" s="18"/>
       <c r="AP9" s="19"/>
@@ -2248,8 +2210,8 @@
       <c r="BD9" s="18"/>
       <c r="BE9" s="18"/>
       <c r="BF9" s="19"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="36"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="34"/>
       <c r="BI9" s="18"/>
       <c r="BJ9" s="18"/>
       <c r="BK9" s="19"/>
@@ -2261,28 +2223,28 @@
       <c r="BQ9" s="18"/>
       <c r="BR9" s="18"/>
       <c r="BS9" s="19"/>
-      <c r="BT9" s="52"/>
+      <c r="BT9" s="50"/>
     </row>
     <row r="10" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="95" t="s">
-        <v>23</v>
+      <c r="A10" s="28"/>
+      <c r="B10" s="104" t="s">
+        <v>18</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="86">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="92">
         <v>1</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="92">
         <v>1</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="72"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
@@ -2290,8 +2252,8 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="26"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="38"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="36"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="26"/>
@@ -2307,8 +2269,8 @@
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="36"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="34"/>
       <c r="AN10" s="18"/>
       <c r="AO10" s="18"/>
       <c r="AP10" s="19"/>
@@ -2328,8 +2290,8 @@
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="19"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="36"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="34"/>
       <c r="BI10" s="18"/>
       <c r="BJ10" s="18"/>
       <c r="BK10" s="19"/>
@@ -2341,22 +2303,22 @@
       <c r="BQ10" s="18"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="19"/>
-      <c r="BT10" s="52"/>
+      <c r="BT10" s="50"/>
     </row>
     <row r="11" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="24"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="26"/>
@@ -2364,8 +2326,8 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="26"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="38"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="36"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="26"/>
@@ -2381,8 +2343,8 @@
       <c r="AI11" s="18"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="36"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="34"/>
       <c r="AN11" s="18"/>
       <c r="AO11" s="18"/>
       <c r="AP11" s="19"/>
@@ -2402,8 +2364,8 @@
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
       <c r="BF11" s="19"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="36"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="34"/>
       <c r="BI11" s="18"/>
       <c r="BJ11" s="18"/>
       <c r="BK11" s="19"/>
@@ -2415,37 +2377,37 @@
       <c r="BQ11" s="18"/>
       <c r="BR11" s="18"/>
       <c r="BS11" s="19"/>
-      <c r="BT11" s="52"/>
+      <c r="BT11" s="50"/>
     </row>
     <row r="12" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="95" t="s">
-        <v>34</v>
+      <c r="A12" s="28"/>
+      <c r="B12" s="104" t="s">
+        <v>29</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="86">
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="92">
         <v>1</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="92">
         <v>1</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="73"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="38"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="36"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="26"/>
@@ -2461,8 +2423,8 @@
       <c r="AI12" s="18"/>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="36"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="34"/>
       <c r="AN12" s="18"/>
       <c r="AO12" s="18"/>
       <c r="AP12" s="19"/>
@@ -2482,8 +2444,8 @@
       <c r="BD12" s="18"/>
       <c r="BE12" s="18"/>
       <c r="BF12" s="19"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="36"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="34"/>
       <c r="BI12" s="18"/>
       <c r="BJ12" s="18"/>
       <c r="BK12" s="19"/>
@@ -2495,31 +2457,31 @@
       <c r="BQ12" s="18"/>
       <c r="BR12" s="18"/>
       <c r="BS12" s="19"/>
-      <c r="BT12" s="52"/>
+      <c r="BT12" s="50"/>
     </row>
     <row r="13" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="25"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="38"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="36"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="26"/>
@@ -2535,8 +2497,8 @@
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="36"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="34"/>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="19"/>
@@ -2556,8 +2518,8 @@
       <c r="BD13" s="18"/>
       <c r="BE13" s="18"/>
       <c r="BF13" s="19"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="36"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="34"/>
       <c r="BI13" s="18"/>
       <c r="BJ13" s="18"/>
       <c r="BK13" s="19"/>
@@ -2569,27 +2531,27 @@
       <c r="BQ13" s="18"/>
       <c r="BR13" s="18"/>
       <c r="BS13" s="19"/>
-      <c r="BT13" s="52"/>
+      <c r="BT13" s="50"/>
     </row>
     <row r="14" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="A14" s="28"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="24"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
       <c r="T14" s="26"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="38"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="26"/>
@@ -2605,8 +2567,8 @@
       <c r="AI14" s="18"/>
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="36"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="34"/>
       <c r="AN14" s="18"/>
       <c r="AO14" s="18"/>
       <c r="AP14" s="19"/>
@@ -2626,8 +2588,8 @@
       <c r="BD14" s="18"/>
       <c r="BE14" s="18"/>
       <c r="BF14" s="19"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="36"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="34"/>
       <c r="BI14" s="18"/>
       <c r="BJ14" s="18"/>
       <c r="BK14" s="19"/>
@@ -2639,17 +2601,17 @@
       <c r="BQ14" s="18"/>
       <c r="BR14" s="18"/>
       <c r="BS14" s="19"/>
-      <c r="BT14" s="52"/>
+      <c r="BT14" s="50"/>
     </row>
     <row r="15" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
+      <c r="A15" s="28"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="24"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -2658,8 +2620,8 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="38"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="26"/>
@@ -2675,8 +2637,8 @@
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="36"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="34"/>
       <c r="AN15" s="18"/>
       <c r="AO15" s="18"/>
       <c r="AP15" s="19"/>
@@ -2696,8 +2658,8 @@
       <c r="BD15" s="18"/>
       <c r="BE15" s="18"/>
       <c r="BF15" s="19"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="36"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="34"/>
       <c r="BI15" s="18"/>
       <c r="BJ15" s="18"/>
       <c r="BK15" s="19"/>
@@ -2709,23 +2671,23 @@
       <c r="BQ15" s="18"/>
       <c r="BR15" s="18"/>
       <c r="BS15" s="19"/>
-      <c r="BT15" s="52"/>
+      <c r="BT15" s="50"/>
     </row>
     <row r="16" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="86" t="s">
-        <v>10</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="92" t="s">
+        <v>8</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="118"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="124"/>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -2734,8 +2696,8 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="26"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="38"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="26"/>
@@ -2751,8 +2713,8 @@
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="36"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="34"/>
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="19"/>
@@ -2772,8 +2734,8 @@
       <c r="BD16" s="18"/>
       <c r="BE16" s="18"/>
       <c r="BF16" s="19"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="36"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="34"/>
       <c r="BI16" s="18"/>
       <c r="BJ16" s="18"/>
       <c r="BK16" s="19"/>
@@ -2785,21 +2747,21 @@
       <c r="BQ16" s="18"/>
       <c r="BR16" s="18"/>
       <c r="BS16" s="19"/>
-      <c r="BT16" s="52"/>
+      <c r="BT16" s="50"/>
     </row>
     <row r="17" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="119"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -2808,8 +2770,8 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="38"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="26"/>
@@ -2825,8 +2787,8 @@
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="36"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="34"/>
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="19"/>
@@ -2846,8 +2808,8 @@
       <c r="BD17" s="18"/>
       <c r="BE17" s="18"/>
       <c r="BF17" s="19"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="36"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="34"/>
       <c r="BI17" s="18"/>
       <c r="BJ17" s="18"/>
       <c r="BK17" s="19"/>
@@ -2859,29 +2821,29 @@
       <c r="BQ17" s="18"/>
       <c r="BR17" s="18"/>
       <c r="BS17" s="19"/>
-      <c r="BT17" s="52"/>
+      <c r="BT17" s="50"/>
     </row>
     <row r="18" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="101" t="s">
-        <v>19</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="100">
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="109">
         <f>SUM(F6:F15)</f>
         <v>5</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G18" s="109">
         <f>SUM(G6:G15)</f>
         <v>5</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
@@ -2890,8 +2852,8 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="38"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="36"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="26"/>
@@ -2907,8 +2869,8 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="36"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="34"/>
       <c r="AN18" s="18"/>
       <c r="AO18" s="18"/>
       <c r="AP18" s="19"/>
@@ -2928,8 +2890,8 @@
       <c r="BD18" s="18"/>
       <c r="BE18" s="18"/>
       <c r="BF18" s="19"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="36"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="34"/>
       <c r="BI18" s="18"/>
       <c r="BJ18" s="18"/>
       <c r="BK18" s="19"/>
@@ -2941,21 +2903,21 @@
       <c r="BQ18" s="18"/>
       <c r="BR18" s="18"/>
       <c r="BS18" s="19"/>
-      <c r="BT18" s="52"/>
+      <c r="BT18" s="50"/>
     </row>
     <row r="19" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -2964,8 +2926,8 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="38"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="36"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
       <c r="Y19" s="26"/>
@@ -2981,8 +2943,8 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="36"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="34"/>
       <c r="AN19" s="18"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="19"/>
@@ -3002,8 +2964,8 @@
       <c r="BD19" s="18"/>
       <c r="BE19" s="18"/>
       <c r="BF19" s="19"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="36"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="34"/>
       <c r="BI19" s="18"/>
       <c r="BJ19" s="18"/>
       <c r="BK19" s="19"/>
@@ -3015,23 +2977,23 @@
       <c r="BQ19" s="18"/>
       <c r="BR19" s="18"/>
       <c r="BS19" s="19"/>
-      <c r="BT19" s="52"/>
+      <c r="BT19" s="50"/>
     </row>
     <row r="20" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
-        <v>7</v>
+      <c r="A20" s="91" t="s">
+        <v>5</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
@@ -3040,8 +3002,8 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="26"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="38"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
       <c r="Y20" s="26"/>
@@ -3057,8 +3019,8 @@
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="36"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="34"/>
       <c r="AN20" s="18"/>
       <c r="AO20" s="18"/>
       <c r="AP20" s="19"/>
@@ -3078,8 +3040,8 @@
       <c r="BD20" s="18"/>
       <c r="BE20" s="18"/>
       <c r="BF20" s="19"/>
-      <c r="BG20" s="41"/>
-      <c r="BH20" s="36"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="34"/>
       <c r="BI20" s="18"/>
       <c r="BJ20" s="18"/>
       <c r="BK20" s="19"/>
@@ -3091,18 +3053,18 @@
       <c r="BQ20" s="18"/>
       <c r="BR20" s="18"/>
       <c r="BS20" s="19"/>
-      <c r="BT20" s="52"/>
+      <c r="BT20" s="50"/>
     </row>
     <row r="21" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="38"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
@@ -3114,8 +3076,8 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="38"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="25"/>
       <c r="X21" s="25"/>
       <c r="Y21" s="26"/>
@@ -3131,8 +3093,8 @@
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="36"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="34"/>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="19"/>
@@ -3152,8 +3114,8 @@
       <c r="BD21" s="18"/>
       <c r="BE21" s="18"/>
       <c r="BF21" s="19"/>
-      <c r="BG21" s="41"/>
-      <c r="BH21" s="36"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="34"/>
       <c r="BI21" s="18"/>
       <c r="BJ21" s="18"/>
       <c r="BK21" s="19"/>
@@ -3165,37 +3127,37 @@
       <c r="BQ21" s="18"/>
       <c r="BR21" s="18"/>
       <c r="BS21" s="19"/>
-      <c r="BT21" s="52"/>
+      <c r="BT21" s="50"/>
     </row>
     <row r="22" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="95" t="s">
-        <v>21</v>
+      <c r="A22" s="28"/>
+      <c r="B22" s="104" t="s">
+        <v>16</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="86">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="92">
         <v>0.5</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="92">
         <v>0.5</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="38"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="26"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="73"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="38"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="26"/>
@@ -3211,8 +3173,8 @@
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="36"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="34"/>
       <c r="AN22" s="18"/>
       <c r="AO22" s="18"/>
       <c r="AP22" s="19"/>
@@ -3232,8 +3194,8 @@
       <c r="BD22" s="18"/>
       <c r="BE22" s="18"/>
       <c r="BF22" s="19"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="36"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="34"/>
       <c r="BI22" s="18"/>
       <c r="BJ22" s="18"/>
       <c r="BK22" s="19"/>
@@ -3245,31 +3207,31 @@
       <c r="BQ22" s="18"/>
       <c r="BR22" s="18"/>
       <c r="BS22" s="19"/>
-      <c r="BT22" s="52"/>
+      <c r="BT22" s="50"/>
     </row>
     <row r="23" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="38"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="38"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="38"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="36"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="26"/>
@@ -3285,8 +3247,8 @@
       <c r="AI23" s="18"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="36"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="34"/>
       <c r="AN23" s="18"/>
       <c r="AO23" s="18"/>
       <c r="AP23" s="19"/>
@@ -3306,8 +3268,8 @@
       <c r="BD23" s="18"/>
       <c r="BE23" s="18"/>
       <c r="BF23" s="19"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="36"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="34"/>
       <c r="BI23" s="18"/>
       <c r="BJ23" s="18"/>
       <c r="BK23" s="19"/>
@@ -3319,37 +3281,37 @@
       <c r="BQ23" s="18"/>
       <c r="BR23" s="18"/>
       <c r="BS23" s="19"/>
-      <c r="BT23" s="52"/>
+      <c r="BT23" s="50"/>
     </row>
     <row r="24" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="86" t="s">
-        <v>24</v>
+      <c r="A24" s="28"/>
+      <c r="B24" s="92" t="s">
+        <v>19</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92">
         <v>0.5</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="92">
         <v>0.5</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="38"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="74"/>
+      <c r="P24" s="71"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="38"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="26"/>
@@ -3365,8 +3327,8 @@
       <c r="AI24" s="18"/>
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="36"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="34"/>
       <c r="AN24" s="18"/>
       <c r="AO24" s="18"/>
       <c r="AP24" s="19"/>
@@ -3386,8 +3348,8 @@
       <c r="BD24" s="18"/>
       <c r="BE24" s="18"/>
       <c r="BF24" s="19"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="36"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="34"/>
       <c r="BI24" s="18"/>
       <c r="BJ24" s="18"/>
       <c r="BK24" s="19"/>
@@ -3399,31 +3361,31 @@
       <c r="BQ24" s="18"/>
       <c r="BR24" s="18"/>
       <c r="BS24" s="19"/>
-      <c r="BT24" s="52"/>
+      <c r="BT24" s="50"/>
     </row>
     <row r="25" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="38"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="38"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="38"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="36"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="26"/>
@@ -3439,8 +3401,8 @@
       <c r="AI25" s="18"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="36"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="34"/>
       <c r="AN25" s="18"/>
       <c r="AO25" s="18"/>
       <c r="AP25" s="19"/>
@@ -3460,8 +3422,8 @@
       <c r="BD25" s="18"/>
       <c r="BE25" s="18"/>
       <c r="BF25" s="19"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="36"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="34"/>
       <c r="BI25" s="18"/>
       <c r="BJ25" s="18"/>
       <c r="BK25" s="19"/>
@@ -3473,28 +3435,28 @@
       <c r="BQ25" s="18"/>
       <c r="BR25" s="18"/>
       <c r="BS25" s="19"/>
-      <c r="BT25" s="52"/>
+      <c r="BT25" s="50"/>
     </row>
     <row r="26" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="95" t="s">
-        <v>25</v>
+      <c r="A26" s="28"/>
+      <c r="B26" s="104" t="s">
+        <v>20</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="86">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="92">
         <v>1</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G26" s="92">
         <v>2</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="38"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="26"/>
-      <c r="M26" s="38"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
@@ -3502,8 +3464,8 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="26"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="38"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="36"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
       <c r="Y26" s="26"/>
@@ -3519,8 +3481,8 @@
       <c r="AI26" s="18"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="36"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="34"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="19"/>
@@ -3540,8 +3502,8 @@
       <c r="BD26" s="18"/>
       <c r="BE26" s="18"/>
       <c r="BF26" s="19"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="36"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="34"/>
       <c r="BI26" s="18"/>
       <c r="BJ26" s="18"/>
       <c r="BK26" s="19"/>
@@ -3553,22 +3515,22 @@
       <c r="BQ26" s="18"/>
       <c r="BR26" s="18"/>
       <c r="BS26" s="19"/>
-      <c r="BT26" s="52"/>
+      <c r="BT26" s="50"/>
     </row>
     <row r="27" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="38"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="38"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="26"/>
@@ -3576,8 +3538,8 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="38"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="36"/>
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="26"/>
@@ -3593,8 +3555,8 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="36"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="34"/>
       <c r="AN27" s="18"/>
       <c r="AO27" s="18"/>
       <c r="AP27" s="19"/>
@@ -3614,8 +3576,8 @@
       <c r="BD27" s="18"/>
       <c r="BE27" s="18"/>
       <c r="BF27" s="19"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="36"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="34"/>
       <c r="BI27" s="18"/>
       <c r="BJ27" s="18"/>
       <c r="BK27" s="19"/>
@@ -3627,22 +3589,22 @@
       <c r="BQ27" s="18"/>
       <c r="BR27" s="18"/>
       <c r="BS27" s="19"/>
-      <c r="BT27" s="52"/>
+      <c r="BT27" s="50"/>
     </row>
     <row r="28" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="38"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="38"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="26"/>
@@ -3650,8 +3612,8 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="38"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="36"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="26"/>
@@ -3667,8 +3629,8 @@
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="36"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="34"/>
       <c r="AN28" s="18"/>
       <c r="AO28" s="18"/>
       <c r="AP28" s="19"/>
@@ -3688,8 +3650,8 @@
       <c r="BD28" s="18"/>
       <c r="BE28" s="18"/>
       <c r="BF28" s="19"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="36"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="34"/>
       <c r="BI28" s="18"/>
       <c r="BJ28" s="18"/>
       <c r="BK28" s="19"/>
@@ -3701,22 +3663,22 @@
       <c r="BQ28" s="18"/>
       <c r="BR28" s="18"/>
       <c r="BS28" s="19"/>
-      <c r="BT28" s="52"/>
+      <c r="BT28" s="50"/>
     </row>
     <row r="29" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="36"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="38"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="26"/>
@@ -3724,8 +3686,8 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="38"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="36"/>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="26"/>
@@ -3741,8 +3703,8 @@
       <c r="AI29" s="18"/>
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="36"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="34"/>
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
       <c r="AP29" s="19"/>
@@ -3762,8 +3724,8 @@
       <c r="BD29" s="18"/>
       <c r="BE29" s="18"/>
       <c r="BF29" s="19"/>
-      <c r="BG29" s="41"/>
-      <c r="BH29" s="36"/>
+      <c r="BG29" s="39"/>
+      <c r="BH29" s="34"/>
       <c r="BI29" s="18"/>
       <c r="BJ29" s="18"/>
       <c r="BK29" s="19"/>
@@ -3775,33 +3737,33 @@
       <c r="BQ29" s="18"/>
       <c r="BR29" s="18"/>
       <c r="BS29" s="19"/>
-      <c r="BT29" s="52"/>
+      <c r="BT29" s="50"/>
     </row>
     <row r="30" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="86" t="s">
-        <v>11</v>
+      <c r="A30" s="28"/>
+      <c r="B30" s="92" t="s">
+        <v>9</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="36"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="38"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="116"/>
+      <c r="Q30" s="122"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="36"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="34"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="19"/>
@@ -3817,8 +3779,8 @@
       <c r="AI30" s="18"/>
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="36"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="34"/>
       <c r="AN30" s="18"/>
       <c r="AO30" s="18"/>
       <c r="AP30" s="19"/>
@@ -3838,8 +3800,8 @@
       <c r="BD30" s="18"/>
       <c r="BE30" s="18"/>
       <c r="BF30" s="19"/>
-      <c r="BG30" s="41"/>
-      <c r="BH30" s="36"/>
+      <c r="BG30" s="39"/>
+      <c r="BH30" s="34"/>
       <c r="BI30" s="18"/>
       <c r="BJ30" s="18"/>
       <c r="BK30" s="19"/>
@@ -3851,31 +3813,31 @@
       <c r="BQ30" s="18"/>
       <c r="BR30" s="18"/>
       <c r="BS30" s="19"/>
-      <c r="BT30" s="52"/>
+      <c r="BT30" s="50"/>
     </row>
     <row r="31" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="38"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="117"/>
+      <c r="Q31" s="123"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="36"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="34"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="19"/>
@@ -3891,8 +3853,8 @@
       <c r="AI31" s="18"/>
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="36"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="34"/>
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
       <c r="AP31" s="19"/>
@@ -3912,8 +3874,8 @@
       <c r="BD31" s="18"/>
       <c r="BE31" s="18"/>
       <c r="BF31" s="19"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="36"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="34"/>
       <c r="BI31" s="18"/>
       <c r="BJ31" s="18"/>
       <c r="BK31" s="19"/>
@@ -3925,26 +3887,26 @@
       <c r="BQ31" s="18"/>
       <c r="BR31" s="18"/>
       <c r="BS31" s="19"/>
-      <c r="BT31" s="52"/>
+      <c r="BT31" s="50"/>
     </row>
     <row r="32" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="101" t="s">
-        <v>19</v>
+      <c r="A32" s="28"/>
+      <c r="B32" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="100">
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="109">
         <f>SUM(F18,F22:F29)</f>
         <v>7</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="109">
         <f>SUM(G18,G22:G29)</f>
         <v>8</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="36"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="19"/>
@@ -3956,8 +3918,8 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="36"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="34"/>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="19"/>
@@ -3973,8 +3935,8 @@
       <c r="AI32" s="18"/>
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="36"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="34"/>
       <c r="AN32" s="18"/>
       <c r="AO32" s="18"/>
       <c r="AP32" s="19"/>
@@ -3994,8 +3956,8 @@
       <c r="BD32" s="18"/>
       <c r="BE32" s="18"/>
       <c r="BF32" s="19"/>
-      <c r="BG32" s="41"/>
-      <c r="BH32" s="36"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="34"/>
       <c r="BI32" s="18"/>
       <c r="BJ32" s="18"/>
       <c r="BK32" s="19"/>
@@ -4007,18 +3969,18 @@
       <c r="BQ32" s="18"/>
       <c r="BR32" s="18"/>
       <c r="BS32" s="19"/>
-      <c r="BT32" s="52"/>
+      <c r="BT32" s="50"/>
     </row>
     <row r="33" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="36"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="19"/>
@@ -4030,8 +3992,8 @@
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="36"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="34"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
       <c r="Y33" s="19"/>
@@ -4047,8 +4009,8 @@
       <c r="AI33" s="18"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="36"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="34"/>
       <c r="AN33" s="18"/>
       <c r="AO33" s="18"/>
       <c r="AP33" s="19"/>
@@ -4068,8 +4030,8 @@
       <c r="BD33" s="18"/>
       <c r="BE33" s="18"/>
       <c r="BF33" s="19"/>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="36"/>
+      <c r="BG33" s="39"/>
+      <c r="BH33" s="34"/>
       <c r="BI33" s="18"/>
       <c r="BJ33" s="18"/>
       <c r="BK33" s="19"/>
@@ -4081,20 +4043,20 @@
       <c r="BQ33" s="18"/>
       <c r="BR33" s="18"/>
       <c r="BS33" s="19"/>
-      <c r="BT33" s="52"/>
+      <c r="BT33" s="50"/>
     </row>
     <row r="34" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
-        <v>9</v>
+      <c r="A34" s="91" t="s">
+        <v>7</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="35"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="15"/>
@@ -4106,8 +4068,8 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="36"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="34"/>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
       <c r="Y34" s="19"/>
@@ -4123,8 +4085,8 @@
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="36"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="34"/>
       <c r="AN34" s="18"/>
       <c r="AO34" s="18"/>
       <c r="AP34" s="19"/>
@@ -4144,8 +4106,8 @@
       <c r="BD34" s="18"/>
       <c r="BE34" s="18"/>
       <c r="BF34" s="19"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="36"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="34"/>
       <c r="BI34" s="18"/>
       <c r="BJ34" s="18"/>
       <c r="BK34" s="19"/>
@@ -4157,18 +4119,18 @@
       <c r="BQ34" s="18"/>
       <c r="BR34" s="18"/>
       <c r="BS34" s="19"/>
-      <c r="BT34" s="52"/>
+      <c r="BT34" s="50"/>
     </row>
     <row r="35" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="36"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="19"/>
@@ -4180,8 +4142,8 @@
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="38"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="36"/>
       <c r="W35" s="25"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="26"/>
@@ -4197,8 +4159,8 @@
       <c r="AI35" s="18"/>
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="36"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="34"/>
       <c r="AN35" s="18"/>
       <c r="AO35" s="18"/>
       <c r="AP35" s="19"/>
@@ -4218,8 +4180,8 @@
       <c r="BD35" s="18"/>
       <c r="BE35" s="18"/>
       <c r="BF35" s="19"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="36"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="34"/>
       <c r="BI35" s="18"/>
       <c r="BJ35" s="18"/>
       <c r="BK35" s="19"/>
@@ -4231,24 +4193,24 @@
       <c r="BQ35" s="18"/>
       <c r="BR35" s="18"/>
       <c r="BS35" s="19"/>
-      <c r="BT35" s="52"/>
+      <c r="BT35" s="50"/>
     </row>
     <row r="36" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="95" t="s">
-        <v>26</v>
+      <c r="A36" s="28"/>
+      <c r="B36" s="104" t="s">
+        <v>21</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96">
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105">
         <v>0.5</v>
       </c>
-      <c r="G36" s="98">
+      <c r="G36" s="107">
         <v>0.5</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="36"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="19"/>
@@ -4256,12 +4218,12 @@
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="72"/>
+      <c r="Q36" s="69"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="38"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="36"/>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
       <c r="Y36" s="26"/>
@@ -4273,12 +4235,12 @@
       <c r="AE36" s="18"/>
       <c r="AF36" s="18"/>
       <c r="AG36" s="19"/>
-      <c r="AH36" s="42"/>
+      <c r="AH36" s="40"/>
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="36"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="34"/>
       <c r="AN36" s="18"/>
       <c r="AO36" s="18"/>
       <c r="AP36" s="19"/>
@@ -4298,8 +4260,8 @@
       <c r="BD36" s="18"/>
       <c r="BE36" s="18"/>
       <c r="BF36" s="19"/>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="36"/>
+      <c r="BG36" s="39"/>
+      <c r="BH36" s="34"/>
       <c r="BI36" s="18"/>
       <c r="BJ36" s="18"/>
       <c r="BK36" s="19"/>
@@ -4311,18 +4273,18 @@
       <c r="BQ36" s="18"/>
       <c r="BR36" s="18"/>
       <c r="BS36" s="19"/>
-      <c r="BT36" s="52"/>
+      <c r="BT36" s="50"/>
     </row>
     <row r="37" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="19"/>
@@ -4331,11 +4293,11 @@
       <c r="O37" s="14"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="25"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="81"/>
       <c r="T37" s="26"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="38"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="36"/>
       <c r="W37" s="25"/>
       <c r="X37" s="25"/>
       <c r="Y37" s="26"/>
@@ -4347,12 +4309,12 @@
       <c r="AE37" s="18"/>
       <c r="AF37" s="18"/>
       <c r="AG37" s="19"/>
-      <c r="AH37" s="42"/>
+      <c r="AH37" s="40"/>
       <c r="AI37" s="18"/>
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="36"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="34"/>
       <c r="AN37" s="18"/>
       <c r="AO37" s="18"/>
       <c r="AP37" s="19"/>
@@ -4372,8 +4334,8 @@
       <c r="BD37" s="18"/>
       <c r="BE37" s="18"/>
       <c r="BF37" s="19"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="36"/>
+      <c r="BG37" s="39"/>
+      <c r="BH37" s="34"/>
       <c r="BI37" s="18"/>
       <c r="BJ37" s="18"/>
       <c r="BK37" s="19"/>
@@ -4385,26 +4347,26 @@
       <c r="BQ37" s="18"/>
       <c r="BR37" s="18"/>
       <c r="BS37" s="19"/>
-      <c r="BT37" s="52"/>
+      <c r="BT37" s="50"/>
     </row>
     <row r="38" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="101" t="s">
-        <v>19</v>
+      <c r="A38" s="28"/>
+      <c r="B38" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102">
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111">
         <f>SUM(F32,F36:F37)</f>
         <v>7.5</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G38" s="111">
         <f>SUM(G32,G36)</f>
         <v>8.5</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="36"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="19"/>
@@ -4416,8 +4378,8 @@
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="38"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="36"/>
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
       <c r="Y38" s="26"/>
@@ -4433,8 +4395,8 @@
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18"/>
       <c r="AK38" s="19"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="37"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="35"/>
       <c r="AN38" s="22"/>
       <c r="AO38" s="22"/>
       <c r="AP38" s="23"/>
@@ -4454,8 +4416,8 @@
       <c r="BD38" s="18"/>
       <c r="BE38" s="18"/>
       <c r="BF38" s="19"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="36"/>
+      <c r="BG38" s="39"/>
+      <c r="BH38" s="34"/>
       <c r="BI38" s="18"/>
       <c r="BJ38" s="18"/>
       <c r="BK38" s="19"/>
@@ -4467,18 +4429,18 @@
       <c r="BQ38" s="18"/>
       <c r="BR38" s="18"/>
       <c r="BS38" s="19"/>
-      <c r="BT38" s="52"/>
+      <c r="BT38" s="50"/>
     </row>
     <row r="39" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="36"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="19"/>
@@ -4490,8 +4452,8 @@
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="38"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="36"/>
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
       <c r="Y39" s="26"/>
@@ -4503,12 +4465,12 @@
       <c r="AE39" s="18"/>
       <c r="AF39" s="18"/>
       <c r="AG39" s="19"/>
-      <c r="AH39" s="42"/>
+      <c r="AH39" s="40"/>
       <c r="AI39" s="22"/>
       <c r="AJ39" s="22"/>
       <c r="AK39" s="23"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="37"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="35"/>
       <c r="AN39" s="22"/>
       <c r="AO39" s="22"/>
       <c r="AP39" s="23"/>
@@ -4528,8 +4490,8 @@
       <c r="BD39" s="22"/>
       <c r="BE39" s="22"/>
       <c r="BF39" s="23"/>
-      <c r="BG39" s="41"/>
-      <c r="BH39" s="35"/>
+      <c r="BG39" s="39"/>
+      <c r="BH39" s="33"/>
       <c r="BI39" s="14"/>
       <c r="BJ39" s="14"/>
       <c r="BK39" s="15"/>
@@ -4541,20 +4503,20 @@
       <c r="BQ39" s="18"/>
       <c r="BR39" s="18"/>
       <c r="BS39" s="19"/>
-      <c r="BT39" s="52"/>
+      <c r="BT39" s="50"/>
     </row>
     <row r="40" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
-        <v>14</v>
+      <c r="A40" s="91" t="s">
+        <v>10</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="37"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
@@ -4566,8 +4528,8 @@
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="38"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="36"/>
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="26"/>
@@ -4579,12 +4541,12 @@
       <c r="AE40" s="18"/>
       <c r="AF40" s="18"/>
       <c r="AG40" s="19"/>
-      <c r="AH40" s="42"/>
+      <c r="AH40" s="40"/>
       <c r="AI40" s="22"/>
       <c r="AJ40" s="22"/>
       <c r="AK40" s="23"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="37"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="35"/>
       <c r="AN40" s="22"/>
       <c r="AO40" s="22"/>
       <c r="AP40" s="23"/>
@@ -4604,8 +4566,8 @@
       <c r="BD40" s="18"/>
       <c r="BE40" s="18"/>
       <c r="BF40" s="19"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="37"/>
+      <c r="BG40" s="39"/>
+      <c r="BH40" s="35"/>
       <c r="BI40" s="22"/>
       <c r="BJ40" s="22"/>
       <c r="BK40" s="23"/>
@@ -4617,18 +4579,18 @@
       <c r="BQ40" s="18"/>
       <c r="BR40" s="18"/>
       <c r="BS40" s="19"/>
-      <c r="BT40" s="52"/>
+      <c r="BT40" s="50"/>
     </row>
     <row r="41" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="37"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
@@ -4640,8 +4602,8 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="26"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="38"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="36"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="26"/>
@@ -4653,12 +4615,12 @@
       <c r="AE41" s="18"/>
       <c r="AF41" s="18"/>
       <c r="AG41" s="19"/>
-      <c r="AH41" s="42"/>
+      <c r="AH41" s="40"/>
       <c r="AI41" s="22"/>
       <c r="AJ41" s="22"/>
       <c r="AK41" s="23"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="36"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="34"/>
       <c r="AN41" s="18"/>
       <c r="AO41" s="18"/>
       <c r="AP41" s="19"/>
@@ -4678,8 +4640,8 @@
       <c r="BD41" s="18"/>
       <c r="BE41" s="18"/>
       <c r="BF41" s="19"/>
-      <c r="BG41" s="41"/>
-      <c r="BH41" s="37"/>
+      <c r="BG41" s="39"/>
+      <c r="BH41" s="35"/>
       <c r="BI41" s="22"/>
       <c r="BJ41" s="22"/>
       <c r="BK41" s="23"/>
@@ -4691,24 +4653,24 @@
       <c r="BQ41" s="22"/>
       <c r="BR41" s="22"/>
       <c r="BS41" s="23"/>
-      <c r="BT41" s="52"/>
+      <c r="BT41" s="50"/>
     </row>
     <row r="42" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="86" t="s">
-        <v>27</v>
+      <c r="A42" s="28"/>
+      <c r="B42" s="92" t="s">
+        <v>22</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86">
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92">
         <v>1</v>
       </c>
-      <c r="G42" s="86">
+      <c r="G42" s="92">
         <v>1</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="35"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
@@ -4717,11 +4679,11 @@
       <c r="O42" s="18"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="73"/>
+      <c r="R42" s="70"/>
       <c r="S42" s="25"/>
       <c r="T42" s="26"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="38"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="36"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="26"/>
@@ -4737,8 +4699,8 @@
       <c r="AI42" s="18"/>
       <c r="AJ42" s="18"/>
       <c r="AK42" s="19"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="36"/>
+      <c r="AL42" s="39"/>
+      <c r="AM42" s="34"/>
       <c r="AN42" s="18"/>
       <c r="AO42" s="18"/>
       <c r="AP42" s="19"/>
@@ -4758,8 +4720,8 @@
       <c r="BD42" s="18"/>
       <c r="BE42" s="18"/>
       <c r="BF42" s="19"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="37"/>
+      <c r="BG42" s="39"/>
+      <c r="BH42" s="35"/>
       <c r="BI42" s="22"/>
       <c r="BJ42" s="22"/>
       <c r="BK42" s="23"/>
@@ -4771,18 +4733,18 @@
       <c r="BQ42" s="22"/>
       <c r="BR42" s="22"/>
       <c r="BS42" s="23"/>
-      <c r="BT42" s="52"/>
+      <c r="BT42" s="50"/>
     </row>
     <row r="43" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
@@ -4793,9 +4755,9 @@
       <c r="Q43" s="24"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="38"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="36"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="26"/>
@@ -4811,8 +4773,8 @@
       <c r="AI43" s="18"/>
       <c r="AJ43" s="18"/>
       <c r="AK43" s="19"/>
-      <c r="AL43" s="41"/>
-      <c r="AM43" s="36"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="34"/>
       <c r="AN43" s="18"/>
       <c r="AO43" s="18"/>
       <c r="AP43" s="19"/>
@@ -4832,8 +4794,8 @@
       <c r="BD43" s="14"/>
       <c r="BE43" s="14"/>
       <c r="BF43" s="15"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="37"/>
+      <c r="BG43" s="39"/>
+      <c r="BH43" s="35"/>
       <c r="BI43" s="22"/>
       <c r="BJ43" s="22"/>
       <c r="BK43" s="23"/>
@@ -4845,24 +4807,24 @@
       <c r="BQ43" s="22"/>
       <c r="BR43" s="22"/>
       <c r="BS43" s="23"/>
-      <c r="BT43" s="52"/>
+      <c r="BT43" s="50"/>
     </row>
     <row r="44" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="95" t="s">
-        <v>29</v>
+      <c r="B44" s="104" t="s">
+        <v>24</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="86">
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="92">
         <v>2</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G44" s="92">
         <v>3</v>
       </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
@@ -4874,9 +4836,9 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="26"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="73"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="70"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="17"/>
@@ -4891,8 +4853,8 @@
       <c r="AI44" s="18"/>
       <c r="AJ44" s="18"/>
       <c r="AK44" s="19"/>
-      <c r="AL44" s="41"/>
-      <c r="AM44" s="37"/>
+      <c r="AL44" s="39"/>
+      <c r="AM44" s="35"/>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
       <c r="AP44" s="23"/>
@@ -4912,8 +4874,8 @@
       <c r="BD44" s="18"/>
       <c r="BE44" s="18"/>
       <c r="BF44" s="19"/>
-      <c r="BG44" s="41"/>
-      <c r="BH44" s="36"/>
+      <c r="BG44" s="39"/>
+      <c r="BH44" s="34"/>
       <c r="BI44" s="18"/>
       <c r="BJ44" s="18"/>
       <c r="BK44" s="19"/>
@@ -4925,18 +4887,18 @@
       <c r="BQ44" s="22"/>
       <c r="BR44" s="22"/>
       <c r="BS44" s="23"/>
-      <c r="BT44" s="52"/>
+      <c r="BT44" s="50"/>
     </row>
     <row r="45" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="37"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="19"/>
@@ -4948,11 +4910,11 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="26"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="26"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="82"/>
       <c r="Z45" s="24"/>
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
@@ -4961,12 +4923,12 @@
       <c r="AE45" s="18"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="19"/>
-      <c r="AH45" s="42"/>
+      <c r="AH45" s="40"/>
       <c r="AI45" s="22"/>
       <c r="AJ45" s="22"/>
       <c r="AK45" s="23"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="38"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="36"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="25"/>
       <c r="AP45" s="26"/>
@@ -4986,8 +4948,8 @@
       <c r="BD45" s="22"/>
       <c r="BE45" s="22"/>
       <c r="BF45" s="23"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="36"/>
+      <c r="BG45" s="39"/>
+      <c r="BH45" s="34"/>
       <c r="BI45" s="18"/>
       <c r="BJ45" s="18"/>
       <c r="BK45" s="19"/>
@@ -4999,24 +4961,24 @@
       <c r="BQ45" s="22"/>
       <c r="BR45" s="22"/>
       <c r="BS45" s="23"/>
-      <c r="BT45" s="52"/>
+      <c r="BT45" s="50"/>
     </row>
     <row r="46" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="95" t="s">
-        <v>30</v>
+      <c r="A46" s="28"/>
+      <c r="B46" s="104" t="s">
+        <v>25</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="86">
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="92">
         <v>3</v>
       </c>
-      <c r="G46" s="86">
+      <c r="G46" s="92">
         <v>4</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="35"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="19"/>
@@ -5028,25 +4990,25 @@
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="26"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="38"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="36"/>
       <c r="W46" s="25"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="26"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="77"/>
-      <c r="AB46" s="77"/>
-      <c r="AC46" s="62"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="74"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="60"/>
       <c r="AD46" s="24"/>
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
       <c r="AG46" s="26"/>
-      <c r="AH46" s="28"/>
+      <c r="AH46" s="27"/>
       <c r="AI46" s="25"/>
       <c r="AJ46" s="25"/>
       <c r="AK46" s="26"/>
-      <c r="AL46" s="41"/>
-      <c r="AM46" s="38"/>
+      <c r="AL46" s="39"/>
+      <c r="AM46" s="36"/>
       <c r="AN46" s="25"/>
       <c r="AO46" s="25"/>
       <c r="AP46" s="26"/>
@@ -5066,8 +5028,8 @@
       <c r="BD46" s="22"/>
       <c r="BE46" s="22"/>
       <c r="BF46" s="23"/>
-      <c r="BG46" s="41"/>
-      <c r="BH46" s="36"/>
+      <c r="BG46" s="39"/>
+      <c r="BH46" s="34"/>
       <c r="BI46" s="18"/>
       <c r="BJ46" s="18"/>
       <c r="BK46" s="19"/>
@@ -5079,18 +5041,18 @@
       <c r="BQ46" s="22"/>
       <c r="BR46" s="22"/>
       <c r="BS46" s="23"/>
-      <c r="BT46" s="52"/>
+      <c r="BT46" s="50"/>
     </row>
     <row r="47" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="36"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="19"/>
@@ -5102,25 +5064,25 @@
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="26"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="38"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="36"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="26"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="25"/>
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="81"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="80"/>
+      <c r="AE47" s="81"/>
       <c r="AF47" s="25"/>
       <c r="AG47" s="26"/>
-      <c r="AH47" s="28"/>
+      <c r="AH47" s="27"/>
       <c r="AI47" s="25"/>
       <c r="AJ47" s="25"/>
       <c r="AK47" s="26"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="38"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="36"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="25"/>
       <c r="AP47" s="26"/>
@@ -5140,8 +5102,8 @@
       <c r="BD47" s="22"/>
       <c r="BE47" s="22"/>
       <c r="BF47" s="23"/>
-      <c r="BG47" s="41"/>
-      <c r="BH47" s="37"/>
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="35"/>
       <c r="BI47" s="22"/>
       <c r="BJ47" s="22"/>
       <c r="BK47" s="23"/>
@@ -5153,24 +5115,24 @@
       <c r="BQ47" s="22"/>
       <c r="BR47" s="22"/>
       <c r="BS47" s="23"/>
-      <c r="BT47" s="52"/>
+      <c r="BT47" s="50"/>
     </row>
     <row r="48" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="95" t="s">
-        <v>31</v>
+      <c r="A48" s="28"/>
+      <c r="B48" s="104" t="s">
+        <v>26</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="86">
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="92">
         <v>2</v>
       </c>
-      <c r="G48" s="86">
+      <c r="G48" s="92">
         <v>2</v>
       </c>
-      <c r="H48" s="55"/>
-      <c r="I48" s="37"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="35"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="19"/>
@@ -5182,8 +5144,8 @@
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
       <c r="T48" s="26"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="38"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="36"/>
       <c r="W48" s="25"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="26"/>
@@ -5191,16 +5153,16 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
       <c r="AC48" s="26"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="73"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="70"/>
       <c r="AF48" s="25"/>
       <c r="AG48" s="26"/>
-      <c r="AH48" s="28"/>
+      <c r="AH48" s="27"/>
       <c r="AI48" s="25"/>
       <c r="AJ48" s="25"/>
       <c r="AK48" s="26"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="38"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="36"/>
       <c r="AN48" s="25"/>
       <c r="AO48" s="25"/>
       <c r="AP48" s="26"/>
@@ -5220,8 +5182,8 @@
       <c r="BD48" s="22"/>
       <c r="BE48" s="22"/>
       <c r="BF48" s="23"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="36"/>
+      <c r="BG48" s="39"/>
+      <c r="BH48" s="34"/>
       <c r="BI48" s="18"/>
       <c r="BJ48" s="18"/>
       <c r="BK48" s="19"/>
@@ -5233,18 +5195,18 @@
       <c r="BQ48" s="22"/>
       <c r="BR48" s="22"/>
       <c r="BS48" s="23"/>
-      <c r="BT48" s="52"/>
+      <c r="BT48" s="50"/>
     </row>
     <row r="49" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="37"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="19"/>
@@ -5256,8 +5218,8 @@
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
       <c r="T49" s="26"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="38"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="36"/>
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="26"/>
@@ -5267,14 +5229,14 @@
       <c r="AC49" s="26"/>
       <c r="AD49" s="24"/>
       <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="28"/>
+      <c r="AF49" s="81"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="27"/>
       <c r="AI49" s="25"/>
       <c r="AJ49" s="25"/>
       <c r="AK49" s="26"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="38"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="36"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="25"/>
       <c r="AP49" s="26"/>
@@ -5294,8 +5256,8 @@
       <c r="BD49" s="22"/>
       <c r="BE49" s="22"/>
       <c r="BF49" s="23"/>
-      <c r="BG49" s="41"/>
-      <c r="BH49" s="36"/>
+      <c r="BG49" s="39"/>
+      <c r="BH49" s="34"/>
       <c r="BI49" s="18"/>
       <c r="BJ49" s="18"/>
       <c r="BK49" s="19"/>
@@ -5307,24 +5269,24 @@
       <c r="BQ49" s="22"/>
       <c r="BR49" s="22"/>
       <c r="BS49" s="23"/>
-      <c r="BT49" s="52"/>
+      <c r="BT49" s="50"/>
     </row>
     <row r="50" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="86" t="s">
-        <v>32</v>
+      <c r="A50" s="28"/>
+      <c r="B50" s="92" t="s">
+        <v>27</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86">
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92">
         <v>2</v>
       </c>
-      <c r="G50" s="86">
+      <c r="G50" s="92">
         <v>2</v>
       </c>
-      <c r="H50" s="55"/>
-      <c r="I50" s="44"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="42"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="19"/>
@@ -5336,8 +5298,8 @@
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
       <c r="T50" s="26"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="38"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="36"/>
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
       <c r="Y50" s="26"/>
@@ -5347,17 +5309,17 @@
       <c r="AC50" s="26"/>
       <c r="AD50" s="24"/>
       <c r="AE50" s="25"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="74"/>
-      <c r="AH50" s="28"/>
+      <c r="AF50" s="70"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="27"/>
       <c r="AI50" s="25"/>
       <c r="AJ50" s="25"/>
       <c r="AK50" s="26"/>
-      <c r="AL50" s="41"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="62"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="60"/>
       <c r="AQ50" s="13"/>
       <c r="AR50" s="14"/>
       <c r="AS50" s="14"/>
@@ -5374,8 +5336,8 @@
       <c r="BD50" s="22"/>
       <c r="BE50" s="22"/>
       <c r="BF50" s="23"/>
-      <c r="BG50" s="41"/>
-      <c r="BH50" s="36"/>
+      <c r="BG50" s="39"/>
+      <c r="BH50" s="34"/>
       <c r="BI50" s="18"/>
       <c r="BJ50" s="18"/>
       <c r="BK50" s="19"/>
@@ -5387,18 +5349,18 @@
       <c r="BQ50" s="22"/>
       <c r="BR50" s="22"/>
       <c r="BS50" s="23"/>
-      <c r="BT50" s="52"/>
+      <c r="BT50" s="50"/>
     </row>
     <row r="51" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="44"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="42"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="19"/>
@@ -5410,8 +5372,8 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
       <c r="T51" s="26"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="38"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="36"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
       <c r="Y51" s="26"/>
@@ -5423,19 +5385,19 @@
       <c r="AE51" s="25"/>
       <c r="AF51" s="25"/>
       <c r="AG51" s="26"/>
-      <c r="AH51" s="28"/>
+      <c r="AH51" s="27"/>
       <c r="AI51" s="25"/>
       <c r="AJ51" s="25"/>
       <c r="AK51" s="26"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="63"/>
-      <c r="AN51" s="61"/>
-      <c r="AO51" s="61"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="60"/>
-      <c r="AR51" s="61"/>
-      <c r="AS51" s="61"/>
-      <c r="AT51" s="62"/>
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="59"/>
+      <c r="AO51" s="59"/>
+      <c r="AP51" s="60"/>
+      <c r="AQ51" s="58"/>
+      <c r="AR51" s="59"/>
+      <c r="AS51" s="59"/>
+      <c r="AT51" s="60"/>
       <c r="AU51" s="13"/>
       <c r="AV51" s="14"/>
       <c r="AW51" s="14"/>
@@ -5448,8 +5410,8 @@
       <c r="BD51" s="22"/>
       <c r="BE51" s="22"/>
       <c r="BF51" s="23"/>
-      <c r="BG51" s="41"/>
-      <c r="BH51" s="36"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="34"/>
       <c r="BI51" s="18"/>
       <c r="BJ51" s="18"/>
       <c r="BK51" s="19"/>
@@ -5461,14 +5423,14 @@
       <c r="BQ51" s="22"/>
       <c r="BR51" s="22"/>
       <c r="BS51" s="23"/>
-      <c r="BT51" s="52"/>
+      <c r="BT51" s="50"/>
     </row>
     <row r="52" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="44"/>
+      <c r="A52" s="28"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="19"/>
@@ -5480,7 +5442,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="26"/>
-      <c r="U52" s="33"/>
+      <c r="U52" s="31"/>
       <c r="Z52" s="24"/>
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
@@ -5493,15 +5455,15 @@
       <c r="AI52" s="18"/>
       <c r="AJ52" s="18"/>
       <c r="AK52" s="19"/>
-      <c r="AL52" s="41"/>
-      <c r="AM52" s="63"/>
-      <c r="AN52" s="61"/>
-      <c r="AO52" s="61"/>
-      <c r="AP52" s="62"/>
-      <c r="AQ52" s="60"/>
-      <c r="AR52" s="61"/>
-      <c r="AS52" s="61"/>
-      <c r="AT52" s="62"/>
+      <c r="AL52" s="39"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="60"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="59"/>
+      <c r="AS52" s="59"/>
+      <c r="AT52" s="60"/>
       <c r="AU52" s="13"/>
       <c r="AV52" s="14"/>
       <c r="AW52" s="14"/>
@@ -5514,8 +5476,8 @@
       <c r="BD52" s="22"/>
       <c r="BE52" s="22"/>
       <c r="BF52" s="23"/>
-      <c r="BG52" s="41"/>
-      <c r="BH52" s="36"/>
+      <c r="BG52" s="39"/>
+      <c r="BH52" s="34"/>
       <c r="BI52" s="18"/>
       <c r="BJ52" s="18"/>
       <c r="BK52" s="19"/>
@@ -5523,18 +5485,18 @@
       <c r="BM52" s="22"/>
       <c r="BN52" s="22"/>
       <c r="BO52" s="23"/>
-      <c r="BP52" s="31"/>
-      <c r="BQ52" s="53"/>
-      <c r="BR52" s="53"/>
-      <c r="BS52" s="54"/>
-      <c r="BT52" s="52"/>
+      <c r="BP52" s="29"/>
+      <c r="BQ52" s="51"/>
+      <c r="BR52" s="51"/>
+      <c r="BS52" s="52"/>
+      <c r="BT52" s="50"/>
     </row>
     <row r="53" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="44"/>
+      <c r="A53" s="28"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="42"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="19"/>
@@ -5546,8 +5508,8 @@
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="38"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="36"/>
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
       <c r="Y53" s="26"/>
@@ -5563,15 +5525,15 @@
       <c r="AI53" s="18"/>
       <c r="AJ53" s="18"/>
       <c r="AK53" s="19"/>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="63"/>
-      <c r="AN53" s="61"/>
-      <c r="AO53" s="61"/>
-      <c r="AP53" s="62"/>
-      <c r="AQ53" s="60"/>
-      <c r="AR53" s="61"/>
-      <c r="AS53" s="61"/>
-      <c r="AT53" s="62"/>
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="59"/>
+      <c r="AP53" s="60"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="59"/>
+      <c r="AS53" s="59"/>
+      <c r="AT53" s="60"/>
       <c r="AU53" s="13"/>
       <c r="AV53" s="14"/>
       <c r="AW53" s="14"/>
@@ -5584,8 +5546,8 @@
       <c r="BD53" s="22"/>
       <c r="BE53" s="22"/>
       <c r="BF53" s="23"/>
-      <c r="BG53" s="41"/>
-      <c r="BH53" s="36"/>
+      <c r="BG53" s="39"/>
+      <c r="BH53" s="34"/>
       <c r="BI53" s="18"/>
       <c r="BJ53" s="18"/>
       <c r="BK53" s="19"/>
@@ -5593,24 +5555,24 @@
       <c r="BM53" s="22"/>
       <c r="BN53" s="22"/>
       <c r="BO53" s="23"/>
-      <c r="BP53" s="31"/>
-      <c r="BQ53" s="53"/>
-      <c r="BR53" s="53"/>
-      <c r="BS53" s="54"/>
-      <c r="BT53" s="52"/>
+      <c r="BP53" s="29"/>
+      <c r="BQ53" s="51"/>
+      <c r="BR53" s="51"/>
+      <c r="BS53" s="52"/>
+      <c r="BT53" s="50"/>
     </row>
     <row r="54" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="86" t="s">
-        <v>20</v>
+      <c r="A54" s="28"/>
+      <c r="B54" s="92" t="s">
+        <v>15</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="44"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="42"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="19"/>
@@ -5622,8 +5584,8 @@
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
       <c r="T54" s="26"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="38"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="36"/>
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
       <c r="Y54" s="26"/>
@@ -5639,15 +5601,15 @@
       <c r="AI54" s="18"/>
       <c r="AJ54" s="18"/>
       <c r="AK54" s="19"/>
-      <c r="AL54" s="41"/>
-      <c r="AM54" s="63"/>
-      <c r="AN54" s="61"/>
-      <c r="AO54" s="61"/>
-      <c r="AP54" s="62"/>
-      <c r="AQ54" s="116"/>
-      <c r="AR54" s="61"/>
-      <c r="AS54" s="61"/>
-      <c r="AT54" s="62"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="59"/>
+      <c r="AP54" s="60"/>
+      <c r="AQ54" s="122"/>
+      <c r="AR54" s="59"/>
+      <c r="AS54" s="59"/>
+      <c r="AT54" s="60"/>
       <c r="AU54" s="13"/>
       <c r="AV54" s="14"/>
       <c r="AW54" s="14"/>
@@ -5660,8 +5622,8 @@
       <c r="BD54" s="22"/>
       <c r="BE54" s="22"/>
       <c r="BF54" s="23"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="36"/>
+      <c r="BG54" s="39"/>
+      <c r="BH54" s="34"/>
       <c r="BI54" s="18"/>
       <c r="BJ54" s="18"/>
       <c r="BK54" s="19"/>
@@ -5669,22 +5631,22 @@
       <c r="BM54" s="22"/>
       <c r="BN54" s="22"/>
       <c r="BO54" s="23"/>
-      <c r="BP54" s="31"/>
-      <c r="BQ54" s="53"/>
-      <c r="BR54" s="53"/>
-      <c r="BS54" s="54"/>
-      <c r="BT54" s="52"/>
+      <c r="BP54" s="29"/>
+      <c r="BQ54" s="51"/>
+      <c r="BR54" s="51"/>
+      <c r="BS54" s="52"/>
+      <c r="BT54" s="50"/>
     </row>
     <row r="55" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="44"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="19"/>
@@ -5696,8 +5658,8 @@
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="38"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="36"/>
       <c r="W55" s="25"/>
       <c r="X55" s="25"/>
       <c r="Y55" s="26"/>
@@ -5713,15 +5675,15 @@
       <c r="AI55" s="18"/>
       <c r="AJ55" s="18"/>
       <c r="AK55" s="19"/>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="35"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="33"/>
       <c r="AN55" s="14"/>
       <c r="AO55" s="14"/>
       <c r="AP55" s="15"/>
-      <c r="AQ55" s="117"/>
-      <c r="AR55" s="61"/>
-      <c r="AS55" s="61"/>
-      <c r="AT55" s="62"/>
+      <c r="AQ55" s="123"/>
+      <c r="AR55" s="59"/>
+      <c r="AS55" s="59"/>
+      <c r="AT55" s="60"/>
       <c r="AU55" s="13"/>
       <c r="AV55" s="14"/>
       <c r="AW55" s="14"/>
@@ -5734,8 +5696,8 @@
       <c r="BD55" s="22"/>
       <c r="BE55" s="22"/>
       <c r="BF55" s="23"/>
-      <c r="BG55" s="41"/>
-      <c r="BH55" s="36"/>
+      <c r="BG55" s="39"/>
+      <c r="BH55" s="34"/>
       <c r="BI55" s="18"/>
       <c r="BJ55" s="18"/>
       <c r="BK55" s="19"/>
@@ -5743,30 +5705,30 @@
       <c r="BM55" s="22"/>
       <c r="BN55" s="22"/>
       <c r="BO55" s="23"/>
-      <c r="BP55" s="31"/>
-      <c r="BQ55" s="53"/>
-      <c r="BR55" s="53"/>
-      <c r="BS55" s="54"/>
-      <c r="BT55" s="52"/>
+      <c r="BP55" s="29"/>
+      <c r="BQ55" s="51"/>
+      <c r="BR55" s="51"/>
+      <c r="BS55" s="52"/>
+      <c r="BT55" s="50"/>
     </row>
     <row r="56" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="101" t="s">
-        <v>19</v>
+      <c r="B56" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="100">
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="109">
         <f>SUM(F38,F42:F53)</f>
         <v>17.5</v>
       </c>
-      <c r="G56" s="100">
+      <c r="G56" s="109">
         <f>SUM(G38,G42:G53)</f>
         <v>20.5</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="37"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="19"/>
@@ -5778,8 +5740,8 @@
       <c r="R56" s="25"/>
       <c r="S56" s="25"/>
       <c r="T56" s="26"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="38"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="36"/>
       <c r="W56" s="25"/>
       <c r="X56" s="25"/>
       <c r="Y56" s="26"/>
@@ -5795,8 +5757,8 @@
       <c r="AI56" s="18"/>
       <c r="AJ56" s="18"/>
       <c r="AK56" s="19"/>
-      <c r="AL56" s="41"/>
-      <c r="AM56" s="37"/>
+      <c r="AL56" s="39"/>
+      <c r="AM56" s="35"/>
       <c r="AN56" s="22"/>
       <c r="AO56" s="22"/>
       <c r="AP56" s="23"/>
@@ -5816,8 +5778,8 @@
       <c r="BD56" s="18"/>
       <c r="BE56" s="18"/>
       <c r="BF56" s="19"/>
-      <c r="BG56" s="41"/>
-      <c r="BH56" s="36"/>
+      <c r="BG56" s="39"/>
+      <c r="BH56" s="34"/>
       <c r="BI56" s="18"/>
       <c r="BJ56" s="18"/>
       <c r="BK56" s="19"/>
@@ -5829,18 +5791,18 @@
       <c r="BQ56" s="14"/>
       <c r="BR56" s="14"/>
       <c r="BS56" s="15"/>
-      <c r="BT56" s="52"/>
+      <c r="BT56" s="50"/>
     </row>
     <row r="57" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="37"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="19"/>
@@ -5852,8 +5814,8 @@
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="38"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="36"/>
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
       <c r="Y57" s="26"/>
@@ -5865,12 +5827,12 @@
       <c r="AE57" s="18"/>
       <c r="AF57" s="18"/>
       <c r="AG57" s="19"/>
-      <c r="AH57" s="42"/>
+      <c r="AH57" s="40"/>
       <c r="AI57" s="22"/>
       <c r="AJ57" s="22"/>
       <c r="AK57" s="23"/>
-      <c r="AL57" s="41"/>
-      <c r="AM57" s="37"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="35"/>
       <c r="AN57" s="22"/>
       <c r="AO57" s="22"/>
       <c r="AP57" s="23"/>
@@ -5890,8 +5852,8 @@
       <c r="BD57" s="22"/>
       <c r="BE57" s="22"/>
       <c r="BF57" s="23"/>
-      <c r="BG57" s="41"/>
-      <c r="BH57" s="35"/>
+      <c r="BG57" s="39"/>
+      <c r="BH57" s="33"/>
       <c r="BI57" s="14"/>
       <c r="BJ57" s="14"/>
       <c r="BK57" s="15"/>
@@ -5903,20 +5865,20 @@
       <c r="BQ57" s="18"/>
       <c r="BR57" s="18"/>
       <c r="BS57" s="19"/>
-      <c r="BT57" s="52"/>
+      <c r="BT57" s="50"/>
     </row>
     <row r="58" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
-        <v>15</v>
+      <c r="A58" s="91" t="s">
+        <v>11</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="35"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="19"/>
@@ -5928,8 +5890,8 @@
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
       <c r="T58" s="26"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="38"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="36"/>
       <c r="W58" s="25"/>
       <c r="X58" s="25"/>
       <c r="Y58" s="26"/>
@@ -5941,12 +5903,12 @@
       <c r="AE58" s="22"/>
       <c r="AF58" s="22"/>
       <c r="AG58" s="23"/>
-      <c r="AH58" s="42"/>
+      <c r="AH58" s="40"/>
       <c r="AI58" s="22"/>
       <c r="AJ58" s="22"/>
       <c r="AK58" s="23"/>
-      <c r="AL58" s="41"/>
-      <c r="AM58" s="37"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="35"/>
       <c r="AN58" s="22"/>
       <c r="AO58" s="22"/>
       <c r="AP58" s="23"/>
@@ -5966,8 +5928,8 @@
       <c r="BD58" s="18"/>
       <c r="BE58" s="18"/>
       <c r="BF58" s="19"/>
-      <c r="BG58" s="41"/>
-      <c r="BH58" s="36"/>
+      <c r="BG58" s="39"/>
+      <c r="BH58" s="34"/>
       <c r="BI58" s="18"/>
       <c r="BJ58" s="18"/>
       <c r="BK58" s="19"/>
@@ -5979,18 +5941,18 @@
       <c r="BQ58" s="22"/>
       <c r="BR58" s="22"/>
       <c r="BS58" s="23"/>
-      <c r="BT58" s="52"/>
+      <c r="BT58" s="50"/>
     </row>
     <row r="59" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="36"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="19"/>
@@ -6002,8 +5964,8 @@
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
       <c r="T59" s="26"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="38"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="36"/>
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="Y59" s="26"/>
@@ -6015,12 +5977,12 @@
       <c r="AE59" s="18"/>
       <c r="AF59" s="18"/>
       <c r="AG59" s="19"/>
-      <c r="AH59" s="42"/>
+      <c r="AH59" s="40"/>
       <c r="AI59" s="22"/>
       <c r="AJ59" s="22"/>
       <c r="AK59" s="23"/>
-      <c r="AL59" s="41"/>
-      <c r="AM59" s="37"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="35"/>
       <c r="AN59" s="22"/>
       <c r="AO59" s="22"/>
       <c r="AP59" s="23"/>
@@ -6040,8 +6002,8 @@
       <c r="BD59" s="18"/>
       <c r="BE59" s="18"/>
       <c r="BF59" s="19"/>
-      <c r="BG59" s="41"/>
-      <c r="BH59" s="37"/>
+      <c r="BG59" s="39"/>
+      <c r="BH59" s="35"/>
       <c r="BI59" s="22"/>
       <c r="BJ59" s="22"/>
       <c r="BK59" s="23"/>
@@ -6053,24 +6015,24 @@
       <c r="BQ59" s="22"/>
       <c r="BR59" s="22"/>
       <c r="BS59" s="23"/>
-      <c r="BT59" s="52"/>
+      <c r="BT59" s="50"/>
     </row>
     <row r="60" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="95" t="s">
-        <v>28</v>
+      <c r="B60" s="104" t="s">
+        <v>23</v>
       </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="86">
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="92">
         <v>1</v>
       </c>
-      <c r="G60" s="86">
+      <c r="G60" s="92">
         <v>1</v>
       </c>
-      <c r="H60" s="55"/>
-      <c r="I60" s="35"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="19"/>
@@ -6082,8 +6044,8 @@
       <c r="R60" s="25"/>
       <c r="S60" s="25"/>
       <c r="T60" s="26"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="38"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="36"/>
       <c r="W60" s="25"/>
       <c r="X60" s="25"/>
       <c r="Y60" s="26"/>
@@ -6095,12 +6057,12 @@
       <c r="AE60" s="18"/>
       <c r="AF60" s="18"/>
       <c r="AG60" s="19"/>
-      <c r="AH60" s="78"/>
+      <c r="AH60" s="75"/>
       <c r="AI60" s="18"/>
       <c r="AJ60" s="18"/>
       <c r="AK60" s="19"/>
-      <c r="AL60" s="41"/>
-      <c r="AM60" s="36"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="34"/>
       <c r="AN60" s="18"/>
       <c r="AO60" s="18"/>
       <c r="AP60" s="19"/>
@@ -6120,8 +6082,8 @@
       <c r="BD60" s="18"/>
       <c r="BE60" s="18"/>
       <c r="BF60" s="19"/>
-      <c r="BG60" s="41"/>
-      <c r="BH60" s="37"/>
+      <c r="BG60" s="39"/>
+      <c r="BH60" s="35"/>
       <c r="BI60" s="22"/>
       <c r="BJ60" s="22"/>
       <c r="BK60" s="23"/>
@@ -6133,18 +6095,18 @@
       <c r="BQ60" s="22"/>
       <c r="BR60" s="22"/>
       <c r="BS60" s="23"/>
-      <c r="BT60" s="52"/>
+      <c r="BT60" s="50"/>
     </row>
     <row r="61" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="36"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="19"/>
@@ -6156,8 +6118,8 @@
       <c r="R61" s="25"/>
       <c r="S61" s="25"/>
       <c r="T61" s="26"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="38"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="36"/>
       <c r="W61" s="25"/>
       <c r="X61" s="25"/>
       <c r="Y61" s="26"/>
@@ -6170,11 +6132,11 @@
       <c r="AF61" s="18"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="20"/>
-      <c r="AI61" s="18"/>
+      <c r="AI61" s="81"/>
       <c r="AJ61" s="18"/>
       <c r="AK61" s="19"/>
-      <c r="AL61" s="41"/>
-      <c r="AM61" s="36"/>
+      <c r="AL61" s="39"/>
+      <c r="AM61" s="34"/>
       <c r="AN61" s="18"/>
       <c r="AO61" s="18"/>
       <c r="AP61" s="19"/>
@@ -6194,8 +6156,8 @@
       <c r="BD61" s="14"/>
       <c r="BE61" s="14"/>
       <c r="BF61" s="15"/>
-      <c r="BG61" s="41"/>
-      <c r="BH61" s="37"/>
+      <c r="BG61" s="39"/>
+      <c r="BH61" s="35"/>
       <c r="BI61" s="22"/>
       <c r="BJ61" s="22"/>
       <c r="BK61" s="23"/>
@@ -6207,24 +6169,24 @@
       <c r="BQ61" s="18"/>
       <c r="BR61" s="18"/>
       <c r="BS61" s="19"/>
-      <c r="BT61" s="52"/>
+      <c r="BT61" s="50"/>
     </row>
     <row r="62" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="86" t="s">
-        <v>33</v>
+      <c r="B62" s="92" t="s">
+        <v>28</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86">
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92">
         <v>1</v>
       </c>
-      <c r="G62" s="86">
+      <c r="G62" s="92">
         <v>1</v>
       </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="36"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="19"/>
@@ -6236,8 +6198,8 @@
       <c r="R62" s="25"/>
       <c r="S62" s="25"/>
       <c r="T62" s="26"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="38"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="36"/>
       <c r="W62" s="25"/>
       <c r="X62" s="25"/>
       <c r="Y62" s="26"/>
@@ -6251,10 +6213,10 @@
       <c r="AG62" s="15"/>
       <c r="AH62" s="20"/>
       <c r="AI62" s="18"/>
-      <c r="AJ62" s="73"/>
+      <c r="AJ62" s="70"/>
       <c r="AK62" s="19"/>
-      <c r="AL62" s="41"/>
-      <c r="AM62" s="36"/>
+      <c r="AL62" s="39"/>
+      <c r="AM62" s="34"/>
       <c r="AN62" s="18"/>
       <c r="AO62" s="18"/>
       <c r="AP62" s="19"/>
@@ -6266,16 +6228,16 @@
       <c r="AV62" s="25"/>
       <c r="AW62" s="25"/>
       <c r="AX62" s="26"/>
-      <c r="AY62" s="60"/>
-      <c r="AZ62" s="61"/>
-      <c r="BA62" s="61"/>
-      <c r="BB62" s="62"/>
+      <c r="AY62" s="58"/>
+      <c r="AZ62" s="59"/>
+      <c r="BA62" s="59"/>
+      <c r="BB62" s="60"/>
       <c r="BC62" s="13"/>
       <c r="BD62" s="14"/>
       <c r="BE62" s="14"/>
       <c r="BF62" s="15"/>
-      <c r="BG62" s="41"/>
-      <c r="BH62" s="37"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="35"/>
       <c r="BI62" s="22"/>
       <c r="BJ62" s="22"/>
       <c r="BK62" s="23"/>
@@ -6287,18 +6249,18 @@
       <c r="BQ62" s="18"/>
       <c r="BR62" s="18"/>
       <c r="BS62" s="19"/>
-      <c r="BT62" s="52"/>
+      <c r="BT62" s="50"/>
     </row>
     <row r="63" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="36"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="19"/>
@@ -6310,8 +6272,8 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="38"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="36"/>
       <c r="W63" s="25"/>
       <c r="X63" s="25"/>
       <c r="Y63" s="26"/>
@@ -6326,9 +6288,9 @@
       <c r="AH63" s="20"/>
       <c r="AI63" s="18"/>
       <c r="AJ63" s="18"/>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="41"/>
-      <c r="AM63" s="36"/>
+      <c r="AK63" s="82"/>
+      <c r="AL63" s="39"/>
+      <c r="AM63" s="34"/>
       <c r="AN63" s="18"/>
       <c r="AO63" s="18"/>
       <c r="AP63" s="19"/>
@@ -6340,16 +6302,16 @@
       <c r="AV63" s="25"/>
       <c r="AW63" s="25"/>
       <c r="AX63" s="26"/>
-      <c r="AY63" s="60"/>
-      <c r="AZ63" s="61"/>
-      <c r="BA63" s="61"/>
-      <c r="BB63" s="62"/>
+      <c r="AY63" s="58"/>
+      <c r="AZ63" s="59"/>
+      <c r="BA63" s="59"/>
+      <c r="BB63" s="60"/>
       <c r="BC63" s="13"/>
       <c r="BD63" s="14"/>
       <c r="BE63" s="14"/>
       <c r="BF63" s="15"/>
-      <c r="BG63" s="41"/>
-      <c r="BH63" s="37"/>
+      <c r="BG63" s="39"/>
+      <c r="BH63" s="35"/>
       <c r="BI63" s="22"/>
       <c r="BJ63" s="22"/>
       <c r="BK63" s="23"/>
@@ -6361,20 +6323,20 @@
       <c r="BQ63" s="18"/>
       <c r="BR63" s="18"/>
       <c r="BS63" s="19"/>
-      <c r="BT63" s="52"/>
+      <c r="BT63" s="50"/>
     </row>
     <row r="64" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="36"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
       <c r="L64" s="19"/>
@@ -6386,8 +6348,8 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
       <c r="T64" s="26"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="38"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="36"/>
       <c r="W64" s="25"/>
       <c r="X64" s="25"/>
       <c r="Y64" s="26"/>
@@ -6403,8 +6365,8 @@
       <c r="AI64" s="18"/>
       <c r="AJ64" s="18"/>
       <c r="AK64" s="19"/>
-      <c r="AL64" s="41"/>
-      <c r="AM64" s="36"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="34"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="18"/>
       <c r="AP64" s="19"/>
@@ -6416,16 +6378,16 @@
       <c r="AV64" s="25"/>
       <c r="AW64" s="25"/>
       <c r="AX64" s="26"/>
-      <c r="AY64" s="60"/>
-      <c r="AZ64" s="61"/>
-      <c r="BA64" s="111"/>
-      <c r="BB64" s="62"/>
+      <c r="AY64" s="58"/>
+      <c r="AZ64" s="59"/>
+      <c r="BA64" s="118"/>
+      <c r="BB64" s="60"/>
       <c r="BC64" s="13"/>
       <c r="BD64" s="14"/>
       <c r="BE64" s="14"/>
       <c r="BF64" s="15"/>
-      <c r="BG64" s="41"/>
-      <c r="BH64" s="37"/>
+      <c r="BG64" s="39"/>
+      <c r="BH64" s="35"/>
       <c r="BI64" s="22"/>
       <c r="BJ64" s="22"/>
       <c r="BK64" s="23"/>
@@ -6437,18 +6399,18 @@
       <c r="BQ64" s="18"/>
       <c r="BR64" s="18"/>
       <c r="BS64" s="19"/>
-      <c r="BT64" s="52"/>
+      <c r="BT64" s="50"/>
     </row>
     <row r="65" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="36"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="19"/>
@@ -6460,8 +6422,8 @@
       <c r="R65" s="25"/>
       <c r="S65" s="25"/>
       <c r="T65" s="26"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="38"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="36"/>
       <c r="W65" s="25"/>
       <c r="X65" s="25"/>
       <c r="Y65" s="26"/>
@@ -6477,8 +6439,8 @@
       <c r="AI65" s="18"/>
       <c r="AJ65" s="18"/>
       <c r="AK65" s="19"/>
-      <c r="AL65" s="41"/>
-      <c r="AM65" s="36"/>
+      <c r="AL65" s="39"/>
+      <c r="AM65" s="34"/>
       <c r="AN65" s="18"/>
       <c r="AO65" s="18"/>
       <c r="AP65" s="19"/>
@@ -6490,16 +6452,16 @@
       <c r="AV65" s="25"/>
       <c r="AW65" s="25"/>
       <c r="AX65" s="26"/>
-      <c r="AY65" s="60"/>
-      <c r="AZ65" s="61"/>
-      <c r="BA65" s="112"/>
-      <c r="BB65" s="62"/>
+      <c r="AY65" s="58"/>
+      <c r="AZ65" s="59"/>
+      <c r="BA65" s="119"/>
+      <c r="BB65" s="60"/>
       <c r="BC65" s="13"/>
       <c r="BD65" s="14"/>
       <c r="BE65" s="14"/>
       <c r="BF65" s="15"/>
-      <c r="BG65" s="41"/>
-      <c r="BH65" s="37"/>
+      <c r="BG65" s="39"/>
+      <c r="BH65" s="35"/>
       <c r="BI65" s="22"/>
       <c r="BJ65" s="22"/>
       <c r="BK65" s="23"/>
@@ -6511,26 +6473,26 @@
       <c r="BQ65" s="18"/>
       <c r="BR65" s="18"/>
       <c r="BS65" s="19"/>
-      <c r="BT65" s="52"/>
+      <c r="BT65" s="50"/>
     </row>
     <row r="66" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="101" t="s">
-        <v>19</v>
+      <c r="B66" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="100">
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="109">
         <f>SUM(F56,F60:F63)</f>
         <v>19.5</v>
       </c>
-      <c r="G66" s="100">
+      <c r="G66" s="109">
         <f>SUM(G56,G60:G63)</f>
         <v>22.5</v>
       </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="37"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="19"/>
@@ -6542,8 +6504,8 @@
       <c r="R66" s="25"/>
       <c r="S66" s="25"/>
       <c r="T66" s="26"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="38"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="36"/>
       <c r="W66" s="25"/>
       <c r="X66" s="25"/>
       <c r="Y66" s="26"/>
@@ -6555,12 +6517,12 @@
       <c r="AE66" s="14"/>
       <c r="AF66" s="14"/>
       <c r="AG66" s="15"/>
-      <c r="AH66" s="28"/>
+      <c r="AH66" s="27"/>
       <c r="AI66" s="25"/>
       <c r="AJ66" s="25"/>
       <c r="AK66" s="26"/>
-      <c r="AL66" s="41"/>
-      <c r="AM66" s="75"/>
+      <c r="AL66" s="39"/>
+      <c r="AM66" s="72"/>
       <c r="AN66" s="22"/>
       <c r="AO66" s="22"/>
       <c r="AP66" s="23"/>
@@ -6572,16 +6534,16 @@
       <c r="AV66" s="25"/>
       <c r="AW66" s="25"/>
       <c r="AX66" s="26"/>
-      <c r="AY66" s="60"/>
-      <c r="AZ66" s="61"/>
-      <c r="BA66" s="61"/>
-      <c r="BB66" s="62"/>
+      <c r="AY66" s="58"/>
+      <c r="AZ66" s="59"/>
+      <c r="BA66" s="59"/>
+      <c r="BB66" s="60"/>
       <c r="BC66" s="17"/>
       <c r="BD66" s="18"/>
       <c r="BE66" s="18"/>
       <c r="BF66" s="19"/>
-      <c r="BG66" s="41"/>
-      <c r="BH66" s="36"/>
+      <c r="BG66" s="39"/>
+      <c r="BH66" s="34"/>
       <c r="BI66" s="18"/>
       <c r="BJ66" s="18"/>
       <c r="BK66" s="19"/>
@@ -6593,18 +6555,18 @@
       <c r="BQ66" s="18"/>
       <c r="BR66" s="18"/>
       <c r="BS66" s="19"/>
-      <c r="BT66" s="52"/>
+      <c r="BT66" s="50"/>
     </row>
     <row r="67" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="37"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
       <c r="L67" s="19"/>
@@ -6616,8 +6578,8 @@
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
       <c r="T67" s="26"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="38"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="36"/>
       <c r="W67" s="25"/>
       <c r="X67" s="25"/>
       <c r="Y67" s="26"/>
@@ -6629,15 +6591,15 @@
       <c r="AE67" s="18"/>
       <c r="AF67" s="18"/>
       <c r="AG67" s="19"/>
-      <c r="AH67" s="28"/>
+      <c r="AH67" s="27"/>
       <c r="AI67" s="25"/>
       <c r="AJ67" s="25"/>
       <c r="AK67" s="26"/>
-      <c r="AL67" s="41"/>
-      <c r="AM67" s="36"/>
-      <c r="AN67" s="18"/>
-      <c r="AO67" s="18"/>
-      <c r="AP67" s="19"/>
+      <c r="AL67" s="39"/>
+      <c r="AM67" s="83"/>
+      <c r="AN67" s="81"/>
+      <c r="AO67" s="81"/>
+      <c r="AP67" s="82"/>
       <c r="AQ67" s="17"/>
       <c r="AR67" s="18"/>
       <c r="AS67" s="18"/>
@@ -6654,8 +6616,8 @@
       <c r="BD67" s="22"/>
       <c r="BE67" s="22"/>
       <c r="BF67" s="23"/>
-      <c r="BG67" s="41"/>
-      <c r="BH67" s="36"/>
+      <c r="BG67" s="39"/>
+      <c r="BH67" s="34"/>
       <c r="BI67" s="18"/>
       <c r="BJ67" s="18"/>
       <c r="BK67" s="19"/>
@@ -6667,20 +6629,20 @@
       <c r="BQ67" s="18"/>
       <c r="BR67" s="18"/>
       <c r="BS67" s="19"/>
-      <c r="BT67" s="52"/>
+      <c r="BT67" s="50"/>
     </row>
     <row r="68" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
-        <v>16</v>
+      <c r="A68" s="91" t="s">
+        <v>12</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="37"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="19"/>
@@ -6692,8 +6654,8 @@
       <c r="R68" s="25"/>
       <c r="S68" s="25"/>
       <c r="T68" s="26"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="38"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="36"/>
       <c r="W68" s="25"/>
       <c r="X68" s="25"/>
       <c r="Y68" s="26"/>
@@ -6705,12 +6667,12 @@
       <c r="AE68" s="18"/>
       <c r="AF68" s="18"/>
       <c r="AG68" s="19"/>
-      <c r="AH68" s="28"/>
+      <c r="AH68" s="27"/>
       <c r="AI68" s="25"/>
       <c r="AJ68" s="25"/>
       <c r="AK68" s="26"/>
-      <c r="AL68" s="41"/>
-      <c r="AM68" s="38"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="36"/>
       <c r="AN68" s="25"/>
       <c r="AO68" s="25"/>
       <c r="AP68" s="26"/>
@@ -6730,8 +6692,8 @@
       <c r="BD68" s="25"/>
       <c r="BE68" s="25"/>
       <c r="BF68" s="26"/>
-      <c r="BG68" s="41"/>
-      <c r="BH68" s="36"/>
+      <c r="BG68" s="39"/>
+      <c r="BH68" s="34"/>
       <c r="BI68" s="18"/>
       <c r="BJ68" s="18"/>
       <c r="BK68" s="19"/>
@@ -6743,18 +6705,18 @@
       <c r="BQ68" s="14"/>
       <c r="BR68" s="14"/>
       <c r="BS68" s="15"/>
-      <c r="BT68" s="52"/>
+      <c r="BT68" s="50"/>
     </row>
     <row r="69" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="37"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="19"/>
@@ -6766,8 +6728,8 @@
       <c r="R69" s="25"/>
       <c r="S69" s="25"/>
       <c r="T69" s="26"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="38"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="36"/>
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
       <c r="Y69" s="26"/>
@@ -6779,12 +6741,12 @@
       <c r="AE69" s="18"/>
       <c r="AF69" s="18"/>
       <c r="AG69" s="19"/>
-      <c r="AH69" s="28"/>
+      <c r="AH69" s="27"/>
       <c r="AI69" s="25"/>
       <c r="AJ69" s="25"/>
       <c r="AK69" s="26"/>
-      <c r="AL69" s="41"/>
-      <c r="AM69" s="38"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="36"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="25"/>
       <c r="AP69" s="26"/>
@@ -6804,8 +6766,8 @@
       <c r="BD69" s="25"/>
       <c r="BE69" s="25"/>
       <c r="BF69" s="26"/>
-      <c r="BG69" s="41"/>
-      <c r="BH69" s="35"/>
+      <c r="BG69" s="39"/>
+      <c r="BH69" s="33"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="15"/>
@@ -6817,24 +6779,24 @@
       <c r="BQ69" s="18"/>
       <c r="BR69" s="18"/>
       <c r="BS69" s="19"/>
-      <c r="BT69" s="52"/>
+      <c r="BT69" s="50"/>
     </row>
     <row r="70" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="95" t="s">
-        <v>35</v>
+      <c r="B70" s="104" t="s">
+        <v>30</v>
       </c>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="86">
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="92">
         <v>1.5</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="92">
         <v>3</v>
       </c>
-      <c r="H70" s="55"/>
-      <c r="I70" s="37"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
       <c r="L70" s="19"/>
@@ -6846,8 +6808,8 @@
       <c r="R70" s="25"/>
       <c r="S70" s="25"/>
       <c r="T70" s="26"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="38"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="36"/>
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
       <c r="Y70" s="26"/>
@@ -6855,16 +6817,16 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
       <c r="AC70" s="26"/>
-      <c r="AD70" s="28"/>
+      <c r="AD70" s="27"/>
       <c r="AE70" s="25"/>
       <c r="AF70" s="25"/>
       <c r="AG70" s="26"/>
-      <c r="AH70" s="28"/>
+      <c r="AH70" s="27"/>
       <c r="AI70" s="25"/>
       <c r="AJ70" s="25"/>
       <c r="AK70" s="26"/>
-      <c r="AL70" s="41"/>
-      <c r="AM70" s="38"/>
+      <c r="AL70" s="39"/>
+      <c r="AM70" s="36"/>
       <c r="AN70" s="25"/>
       <c r="AO70" s="25"/>
       <c r="AP70" s="26"/>
@@ -6884,8 +6846,8 @@
       <c r="BD70" s="25"/>
       <c r="BE70" s="25"/>
       <c r="BF70" s="26"/>
-      <c r="BG70" s="41"/>
-      <c r="BH70" s="38"/>
+      <c r="BG70" s="39"/>
+      <c r="BH70" s="36"/>
       <c r="BI70" s="25"/>
       <c r="BJ70" s="25"/>
       <c r="BK70" s="26"/>
@@ -6897,18 +6859,18 @@
       <c r="BQ70" s="22"/>
       <c r="BR70" s="22"/>
       <c r="BS70" s="23"/>
-      <c r="BT70" s="52"/>
+      <c r="BT70" s="50"/>
     </row>
     <row r="71" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="37"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
       <c r="L71" s="19"/>
@@ -6920,8 +6882,8 @@
       <c r="R71" s="25"/>
       <c r="S71" s="25"/>
       <c r="T71" s="26"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="38"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="36"/>
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
       <c r="Y71" s="26"/>
@@ -6929,16 +6891,16 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
       <c r="AC71" s="26"/>
-      <c r="AD71" s="28"/>
+      <c r="AD71" s="27"/>
       <c r="AE71" s="25"/>
       <c r="AF71" s="25"/>
       <c r="AG71" s="26"/>
-      <c r="AH71" s="28"/>
+      <c r="AH71" s="27"/>
       <c r="AI71" s="25"/>
       <c r="AJ71" s="25"/>
       <c r="AK71" s="26"/>
-      <c r="AL71" s="41"/>
-      <c r="AM71" s="38"/>
+      <c r="AL71" s="39"/>
+      <c r="AM71" s="36"/>
       <c r="AN71" s="25"/>
       <c r="AO71" s="25"/>
       <c r="AP71" s="26"/>
@@ -6958,8 +6920,8 @@
       <c r="BD71" s="25"/>
       <c r="BE71" s="25"/>
       <c r="BF71" s="26"/>
-      <c r="BG71" s="41"/>
-      <c r="BH71" s="38"/>
+      <c r="BG71" s="39"/>
+      <c r="BH71" s="36"/>
       <c r="BI71" s="25"/>
       <c r="BJ71" s="25"/>
       <c r="BK71" s="26"/>
@@ -6971,18 +6933,18 @@
       <c r="BQ71" s="22"/>
       <c r="BR71" s="22"/>
       <c r="BS71" s="23"/>
-      <c r="BT71" s="52"/>
+      <c r="BT71" s="50"/>
     </row>
     <row r="72" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="44"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="42"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
       <c r="L72" s="19"/>
@@ -6994,8 +6956,8 @@
       <c r="R72" s="25"/>
       <c r="S72" s="25"/>
       <c r="T72" s="26"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="38"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="36"/>
       <c r="W72" s="25"/>
       <c r="X72" s="25"/>
       <c r="Y72" s="26"/>
@@ -7003,16 +6965,16 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="26"/>
-      <c r="AD72" s="28"/>
+      <c r="AD72" s="27"/>
       <c r="AE72" s="25"/>
       <c r="AF72" s="25"/>
       <c r="AG72" s="26"/>
-      <c r="AH72" s="28"/>
+      <c r="AH72" s="27"/>
       <c r="AI72" s="25"/>
       <c r="AJ72" s="25"/>
       <c r="AK72" s="26"/>
-      <c r="AL72" s="41"/>
-      <c r="AM72" s="38"/>
+      <c r="AL72" s="39"/>
+      <c r="AM72" s="36"/>
       <c r="AN72" s="25"/>
       <c r="AO72" s="25"/>
       <c r="AP72" s="26"/>
@@ -7032,8 +6994,8 @@
       <c r="BD72" s="25"/>
       <c r="BE72" s="25"/>
       <c r="BF72" s="26"/>
-      <c r="BG72" s="41"/>
-      <c r="BH72" s="38"/>
+      <c r="BG72" s="39"/>
+      <c r="BH72" s="36"/>
       <c r="BI72" s="25"/>
       <c r="BJ72" s="25"/>
       <c r="BK72" s="26"/>
@@ -7045,18 +7007,18 @@
       <c r="BQ72" s="22"/>
       <c r="BR72" s="22"/>
       <c r="BS72" s="23"/>
-      <c r="BT72" s="52"/>
+      <c r="BT72" s="50"/>
     </row>
     <row r="73" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="44"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="42"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18"/>
       <c r="L73" s="19"/>
@@ -7068,8 +7030,8 @@
       <c r="R73" s="25"/>
       <c r="S73" s="25"/>
       <c r="T73" s="26"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="38"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="36"/>
       <c r="W73" s="25"/>
       <c r="X73" s="25"/>
       <c r="Y73" s="26"/>
@@ -7077,16 +7039,16 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
       <c r="AC73" s="26"/>
-      <c r="AD73" s="28"/>
+      <c r="AD73" s="27"/>
       <c r="AE73" s="25"/>
       <c r="AF73" s="25"/>
       <c r="AG73" s="26"/>
-      <c r="AH73" s="28"/>
+      <c r="AH73" s="27"/>
       <c r="AI73" s="25"/>
       <c r="AJ73" s="25"/>
       <c r="AK73" s="26"/>
-      <c r="AL73" s="41"/>
-      <c r="AM73" s="38"/>
+      <c r="AL73" s="39"/>
+      <c r="AM73" s="36"/>
       <c r="AN73" s="25"/>
       <c r="AO73" s="25"/>
       <c r="AP73" s="26"/>
@@ -7106,8 +7068,8 @@
       <c r="BD73" s="25"/>
       <c r="BE73" s="25"/>
       <c r="BF73" s="26"/>
-      <c r="BG73" s="41"/>
-      <c r="BH73" s="38"/>
+      <c r="BG73" s="39"/>
+      <c r="BH73" s="36"/>
       <c r="BI73" s="25"/>
       <c r="BJ73" s="25"/>
       <c r="BK73" s="26"/>
@@ -7119,18 +7081,18 @@
       <c r="BQ73" s="25"/>
       <c r="BR73" s="25"/>
       <c r="BS73" s="26"/>
-      <c r="BT73" s="52"/>
+      <c r="BT73" s="50"/>
     </row>
     <row r="74" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="44"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="42"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="19"/>
@@ -7142,8 +7104,8 @@
       <c r="R74" s="25"/>
       <c r="S74" s="25"/>
       <c r="T74" s="26"/>
-      <c r="U74" s="33"/>
-      <c r="V74" s="38"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="36"/>
       <c r="W74" s="25"/>
       <c r="X74" s="25"/>
       <c r="Y74" s="26"/>
@@ -7151,16 +7113,16 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
       <c r="AC74" s="26"/>
-      <c r="AD74" s="28"/>
+      <c r="AD74" s="27"/>
       <c r="AE74" s="25"/>
       <c r="AF74" s="25"/>
       <c r="AG74" s="26"/>
-      <c r="AH74" s="28"/>
+      <c r="AH74" s="27"/>
       <c r="AI74" s="25"/>
       <c r="AJ74" s="25"/>
       <c r="AK74" s="26"/>
-      <c r="AL74" s="41"/>
-      <c r="AM74" s="38"/>
+      <c r="AL74" s="39"/>
+      <c r="AM74" s="36"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="25"/>
       <c r="AP74" s="26"/>
@@ -7180,8 +7142,8 @@
       <c r="BD74" s="25"/>
       <c r="BE74" s="25"/>
       <c r="BF74" s="26"/>
-      <c r="BG74" s="41"/>
-      <c r="BH74" s="38"/>
+      <c r="BG74" s="39"/>
+      <c r="BH74" s="36"/>
       <c r="BI74" s="25"/>
       <c r="BJ74" s="25"/>
       <c r="BK74" s="26"/>
@@ -7193,18 +7155,18 @@
       <c r="BQ74" s="25"/>
       <c r="BR74" s="25"/>
       <c r="BS74" s="26"/>
-      <c r="BT74" s="52"/>
+      <c r="BT74" s="50"/>
     </row>
     <row r="75" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="44"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="42"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
       <c r="L75" s="19"/>
@@ -7216,8 +7178,8 @@
       <c r="R75" s="25"/>
       <c r="S75" s="25"/>
       <c r="T75" s="26"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="38"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="36"/>
       <c r="W75" s="25"/>
       <c r="X75" s="25"/>
       <c r="Y75" s="26"/>
@@ -7225,16 +7187,16 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
       <c r="AC75" s="26"/>
-      <c r="AD75" s="28"/>
+      <c r="AD75" s="27"/>
       <c r="AE75" s="25"/>
       <c r="AF75" s="25"/>
       <c r="AG75" s="26"/>
-      <c r="AH75" s="28"/>
+      <c r="AH75" s="27"/>
       <c r="AI75" s="25"/>
       <c r="AJ75" s="25"/>
       <c r="AK75" s="26"/>
-      <c r="AL75" s="41"/>
-      <c r="AM75" s="38"/>
+      <c r="AL75" s="39"/>
+      <c r="AM75" s="36"/>
       <c r="AN75" s="25"/>
       <c r="AO75" s="25"/>
       <c r="AP75" s="26"/>
@@ -7254,8 +7216,8 @@
       <c r="BD75" s="25"/>
       <c r="BE75" s="25"/>
       <c r="BF75" s="26"/>
-      <c r="BG75" s="41"/>
-      <c r="BH75" s="38"/>
+      <c r="BG75" s="39"/>
+      <c r="BH75" s="36"/>
       <c r="BI75" s="25"/>
       <c r="BJ75" s="25"/>
       <c r="BK75" s="26"/>
@@ -7267,18 +7229,18 @@
       <c r="BQ75" s="25"/>
       <c r="BR75" s="25"/>
       <c r="BS75" s="26"/>
-      <c r="BT75" s="52"/>
+      <c r="BT75" s="50"/>
     </row>
     <row r="76" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="44"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
       <c r="L76" s="19"/>
@@ -7290,8 +7252,8 @@
       <c r="R76" s="25"/>
       <c r="S76" s="25"/>
       <c r="T76" s="26"/>
-      <c r="U76" s="33"/>
-      <c r="V76" s="38"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="36"/>
       <c r="W76" s="25"/>
       <c r="X76" s="25"/>
       <c r="Y76" s="26"/>
@@ -7299,16 +7261,16 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
       <c r="AC76" s="26"/>
-      <c r="AD76" s="28"/>
+      <c r="AD76" s="27"/>
       <c r="AE76" s="25"/>
       <c r="AF76" s="25"/>
       <c r="AG76" s="26"/>
-      <c r="AH76" s="28"/>
+      <c r="AH76" s="27"/>
       <c r="AI76" s="25"/>
       <c r="AJ76" s="25"/>
       <c r="AK76" s="26"/>
-      <c r="AL76" s="41"/>
-      <c r="AM76" s="38"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="36"/>
       <c r="AN76" s="25"/>
       <c r="AO76" s="25"/>
       <c r="AP76" s="26"/>
@@ -7328,8 +7290,8 @@
       <c r="BD76" s="25"/>
       <c r="BE76" s="25"/>
       <c r="BF76" s="26"/>
-      <c r="BG76" s="41"/>
-      <c r="BH76" s="38"/>
+      <c r="BG76" s="39"/>
+      <c r="BH76" s="36"/>
       <c r="BI76" s="25"/>
       <c r="BJ76" s="25"/>
       <c r="BK76" s="26"/>
@@ -7341,18 +7303,18 @@
       <c r="BQ76" s="25"/>
       <c r="BR76" s="25"/>
       <c r="BS76" s="26"/>
-      <c r="BT76" s="52"/>
+      <c r="BT76" s="50"/>
     </row>
     <row r="77" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="44"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="42"/>
       <c r="J77" s="18"/>
       <c r="K77" s="18"/>
       <c r="L77" s="19"/>
@@ -7364,8 +7326,8 @@
       <c r="R77" s="25"/>
       <c r="S77" s="25"/>
       <c r="T77" s="26"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="38"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="36"/>
       <c r="W77" s="25"/>
       <c r="X77" s="25"/>
       <c r="Y77" s="26"/>
@@ -7373,16 +7335,16 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
       <c r="AC77" s="26"/>
-      <c r="AD77" s="28"/>
+      <c r="AD77" s="27"/>
       <c r="AE77" s="25"/>
       <c r="AF77" s="25"/>
       <c r="AG77" s="26"/>
-      <c r="AH77" s="28"/>
+      <c r="AH77" s="27"/>
       <c r="AI77" s="25"/>
       <c r="AJ77" s="25"/>
       <c r="AK77" s="26"/>
-      <c r="AL77" s="41"/>
-      <c r="AM77" s="38"/>
+      <c r="AL77" s="39"/>
+      <c r="AM77" s="36"/>
       <c r="AN77" s="25"/>
       <c r="AO77" s="25"/>
       <c r="AP77" s="26"/>
@@ -7402,8 +7364,8 @@
       <c r="BD77" s="25"/>
       <c r="BE77" s="25"/>
       <c r="BF77" s="26"/>
-      <c r="BG77" s="41"/>
-      <c r="BH77" s="38"/>
+      <c r="BG77" s="39"/>
+      <c r="BH77" s="36"/>
       <c r="BI77" s="25"/>
       <c r="BJ77" s="25"/>
       <c r="BK77" s="26"/>
@@ -7415,18 +7377,18 @@
       <c r="BQ77" s="25"/>
       <c r="BR77" s="25"/>
       <c r="BS77" s="26"/>
-      <c r="BT77" s="52"/>
+      <c r="BT77" s="50"/>
     </row>
     <row r="78" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="35"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="33"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="19"/>
@@ -7438,8 +7400,8 @@
       <c r="R78" s="25"/>
       <c r="S78" s="25"/>
       <c r="T78" s="26"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="38"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="36"/>
       <c r="W78" s="25"/>
       <c r="X78" s="25"/>
       <c r="Y78" s="26"/>
@@ -7447,16 +7409,16 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
       <c r="AC78" s="26"/>
-      <c r="AD78" s="28"/>
+      <c r="AD78" s="27"/>
       <c r="AE78" s="25"/>
       <c r="AF78" s="25"/>
       <c r="AG78" s="26"/>
-      <c r="AH78" s="28"/>
+      <c r="AH78" s="27"/>
       <c r="AI78" s="25"/>
       <c r="AJ78" s="25"/>
       <c r="AK78" s="26"/>
-      <c r="AL78" s="41"/>
-      <c r="AM78" s="38"/>
+      <c r="AL78" s="39"/>
+      <c r="AM78" s="36"/>
       <c r="AN78" s="25"/>
       <c r="AO78" s="25"/>
       <c r="AP78" s="26"/>
@@ -7476,8 +7438,8 @@
       <c r="BD78" s="25"/>
       <c r="BE78" s="25"/>
       <c r="BF78" s="26"/>
-      <c r="BG78" s="41"/>
-      <c r="BH78" s="38"/>
+      <c r="BG78" s="39"/>
+      <c r="BH78" s="36"/>
       <c r="BI78" s="25"/>
       <c r="BJ78" s="25"/>
       <c r="BK78" s="26"/>
@@ -7489,19 +7451,19 @@
       <c r="BQ78" s="25"/>
       <c r="BR78" s="25"/>
       <c r="BS78" s="26"/>
-      <c r="BT78" s="52"/>
+      <c r="BT78" s="50"/>
       <c r="BU78"/>
     </row>
     <row r="79" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="36"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="18"/>
       <c r="K79" s="18"/>
       <c r="L79" s="19"/>
@@ -7513,8 +7475,8 @@
       <c r="R79" s="25"/>
       <c r="S79" s="25"/>
       <c r="T79" s="26"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="38"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="36"/>
       <c r="W79" s="25"/>
       <c r="X79" s="25"/>
       <c r="Y79" s="26"/>
@@ -7522,16 +7484,16 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
       <c r="AC79" s="26"/>
-      <c r="AD79" s="28"/>
+      <c r="AD79" s="27"/>
       <c r="AE79" s="25"/>
       <c r="AF79" s="25"/>
       <c r="AG79" s="26"/>
-      <c r="AH79" s="28"/>
+      <c r="AH79" s="27"/>
       <c r="AI79" s="25"/>
       <c r="AJ79" s="25"/>
       <c r="AK79" s="26"/>
-      <c r="AL79" s="41"/>
-      <c r="AM79" s="38"/>
+      <c r="AL79" s="39"/>
+      <c r="AM79" s="36"/>
       <c r="AN79" s="25"/>
       <c r="AO79" s="25"/>
       <c r="AP79" s="26"/>
@@ -7551,8 +7513,8 @@
       <c r="BD79" s="25"/>
       <c r="BE79" s="25"/>
       <c r="BF79" s="26"/>
-      <c r="BG79" s="41"/>
-      <c r="BH79" s="38"/>
+      <c r="BG79" s="39"/>
+      <c r="BH79" s="36"/>
       <c r="BI79" s="25"/>
       <c r="BJ79" s="25"/>
       <c r="BK79" s="26"/>
@@ -7564,21 +7526,21 @@
       <c r="BQ79" s="25"/>
       <c r="BR79" s="25"/>
       <c r="BS79" s="26"/>
-      <c r="BT79" s="52"/>
+      <c r="BT79" s="50"/>
       <c r="BU79"/>
     </row>
     <row r="80" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="86" t="s">
-        <v>17</v>
+      <c r="B80" s="92" t="s">
+        <v>13</v>
       </c>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="36"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="18"/>
       <c r="K80" s="18"/>
       <c r="L80" s="19"/>
@@ -7590,8 +7552,8 @@
       <c r="R80" s="25"/>
       <c r="S80" s="25"/>
       <c r="T80" s="26"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="38"/>
+      <c r="U80" s="31"/>
+      <c r="V80" s="36"/>
       <c r="W80" s="25"/>
       <c r="X80" s="25"/>
       <c r="Y80" s="26"/>
@@ -7599,16 +7561,16 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
       <c r="AC80" s="26"/>
-      <c r="AD80" s="28"/>
+      <c r="AD80" s="27"/>
       <c r="AE80" s="25"/>
       <c r="AF80" s="25"/>
       <c r="AG80" s="26"/>
-      <c r="AH80" s="28"/>
+      <c r="AH80" s="27"/>
       <c r="AI80" s="25"/>
       <c r="AJ80" s="25"/>
       <c r="AK80" s="26"/>
-      <c r="AL80" s="41"/>
-      <c r="AM80" s="38"/>
+      <c r="AL80" s="39"/>
+      <c r="AM80" s="36"/>
       <c r="AN80" s="25"/>
       <c r="AO80" s="25"/>
       <c r="AP80" s="26"/>
@@ -7628,8 +7590,8 @@
       <c r="BD80" s="25"/>
       <c r="BE80" s="25"/>
       <c r="BF80" s="26"/>
-      <c r="BG80" s="41"/>
-      <c r="BH80" s="37"/>
+      <c r="BG80" s="39"/>
+      <c r="BH80" s="35"/>
       <c r="BI80" s="22"/>
       <c r="BJ80" s="22"/>
       <c r="BK80" s="23"/>
@@ -7640,20 +7602,20 @@
       <c r="BP80" s="24"/>
       <c r="BQ80" s="25"/>
       <c r="BR80" s="25"/>
-      <c r="BS80" s="114"/>
-      <c r="BT80" s="52"/>
+      <c r="BS80" s="120"/>
+      <c r="BT80" s="50"/>
       <c r="BU80"/>
     </row>
     <row r="81" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="36"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
       <c r="L81" s="19"/>
@@ -7665,8 +7627,8 @@
       <c r="R81" s="25"/>
       <c r="S81" s="25"/>
       <c r="T81" s="26"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="38"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="36"/>
       <c r="W81" s="25"/>
       <c r="X81" s="25"/>
       <c r="Y81" s="26"/>
@@ -7674,16 +7636,16 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
       <c r="AC81" s="26"/>
-      <c r="AD81" s="28"/>
+      <c r="AD81" s="27"/>
       <c r="AE81" s="25"/>
       <c r="AF81" s="25"/>
       <c r="AG81" s="26"/>
-      <c r="AH81" s="28"/>
+      <c r="AH81" s="27"/>
       <c r="AI81" s="25"/>
       <c r="AJ81" s="25"/>
       <c r="AK81" s="26"/>
-      <c r="AL81" s="41"/>
-      <c r="AM81" s="38"/>
+      <c r="AL81" s="39"/>
+      <c r="AM81" s="36"/>
       <c r="AN81" s="25"/>
       <c r="AO81" s="25"/>
       <c r="AP81" s="26"/>
@@ -7703,8 +7665,8 @@
       <c r="BD81" s="25"/>
       <c r="BE81" s="25"/>
       <c r="BF81" s="26"/>
-      <c r="BG81" s="41"/>
-      <c r="BH81" s="37"/>
+      <c r="BG81" s="39"/>
+      <c r="BH81" s="35"/>
       <c r="BI81" s="22"/>
       <c r="BJ81" s="22"/>
       <c r="BK81" s="23"/>
@@ -7715,28 +7677,28 @@
       <c r="BP81" s="24"/>
       <c r="BQ81" s="25"/>
       <c r="BR81" s="25"/>
-      <c r="BS81" s="115"/>
-      <c r="BT81" s="52"/>
+      <c r="BS81" s="121"/>
+      <c r="BT81" s="50"/>
       <c r="BU81"/>
     </row>
     <row r="82" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="101" t="s">
-        <v>19</v>
+      <c r="B82" s="110" t="s">
+        <v>14</v>
       </c>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="100">
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="109">
         <f>SUM(F66,F70:F79)</f>
         <v>21</v>
       </c>
-      <c r="G82" s="100">
+      <c r="G82" s="109">
         <f>SUM(G66,G70:G79)</f>
         <v>25.5</v>
       </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="37"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="18"/>
       <c r="K82" s="18"/>
       <c r="L82" s="19"/>
@@ -7748,8 +7710,8 @@
       <c r="R82" s="25"/>
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="38"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="36"/>
       <c r="W82" s="25"/>
       <c r="X82" s="25"/>
       <c r="Y82" s="26"/>
@@ -7757,16 +7719,16 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
       <c r="AC82" s="26"/>
-      <c r="AD82" s="28"/>
+      <c r="AD82" s="27"/>
       <c r="AE82" s="25"/>
       <c r="AF82" s="25"/>
       <c r="AG82" s="26"/>
-      <c r="AH82" s="28"/>
+      <c r="AH82" s="27"/>
       <c r="AI82" s="25"/>
       <c r="AJ82" s="25"/>
       <c r="AK82" s="26"/>
-      <c r="AL82" s="41"/>
-      <c r="AM82" s="38"/>
+      <c r="AL82" s="39"/>
+      <c r="AM82" s="36"/>
       <c r="AN82" s="25"/>
       <c r="AO82" s="25"/>
       <c r="AP82" s="26"/>
@@ -7786,8 +7748,8 @@
       <c r="BD82" s="25"/>
       <c r="BE82" s="25"/>
       <c r="BF82" s="26"/>
-      <c r="BG82" s="41"/>
-      <c r="BH82" s="38"/>
+      <c r="BG82" s="39"/>
+      <c r="BH82" s="36"/>
       <c r="BI82" s="25"/>
       <c r="BJ82" s="25"/>
       <c r="BK82" s="26"/>
@@ -7799,19 +7761,19 @@
       <c r="BQ82" s="25"/>
       <c r="BR82" s="25"/>
       <c r="BS82" s="26"/>
-      <c r="BT82" s="52"/>
+      <c r="BT82" s="50"/>
       <c r="BU82"/>
     </row>
     <row r="83" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="37"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="35"/>
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
       <c r="L83" s="19"/>
@@ -7823,8 +7785,8 @@
       <c r="R83" s="25"/>
       <c r="S83" s="25"/>
       <c r="T83" s="26"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="38"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="36"/>
       <c r="W83" s="25"/>
       <c r="X83" s="25"/>
       <c r="Y83" s="26"/>
@@ -7832,16 +7794,16 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
       <c r="AC83" s="26"/>
-      <c r="AD83" s="28"/>
+      <c r="AD83" s="27"/>
       <c r="AE83" s="25"/>
       <c r="AF83" s="25"/>
       <c r="AG83" s="26"/>
-      <c r="AH83" s="28"/>
+      <c r="AH83" s="27"/>
       <c r="AI83" s="25"/>
       <c r="AJ83" s="25"/>
       <c r="AK83" s="26"/>
-      <c r="AL83" s="41"/>
-      <c r="AM83" s="38"/>
+      <c r="AL83" s="39"/>
+      <c r="AM83" s="36"/>
       <c r="AN83" s="25"/>
       <c r="AO83" s="25"/>
       <c r="AP83" s="26"/>
@@ -7861,8 +7823,8 @@
       <c r="BD83" s="25"/>
       <c r="BE83" s="25"/>
       <c r="BF83" s="26"/>
-      <c r="BG83" s="41"/>
-      <c r="BH83" s="38"/>
+      <c r="BG83" s="39"/>
+      <c r="BH83" s="36"/>
       <c r="BI83" s="25"/>
       <c r="BJ83" s="25"/>
       <c r="BK83" s="26"/>
@@ -7874,1078 +7836,1067 @@
       <c r="BQ83" s="25"/>
       <c r="BR83" s="25"/>
       <c r="BS83" s="26"/>
-      <c r="BT83" s="52"/>
+      <c r="BT83" s="50"/>
       <c r="BU83"/>
     </row>
     <row r="84" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="79"/>
-      <c r="O84" s="79"/>
-      <c r="P84" s="79"/>
-      <c r="Q84" s="79"/>
-      <c r="R84" s="79"/>
-      <c r="S84" s="79"/>
-      <c r="T84" s="79"/>
-      <c r="U84" s="79"/>
-      <c r="V84" s="79"/>
-      <c r="W84" s="79"/>
-      <c r="X84" s="79"/>
-      <c r="Y84" s="79"/>
-      <c r="Z84" s="79"/>
-      <c r="AA84" s="79"/>
-      <c r="AB84" s="79"/>
-      <c r="AC84" s="79"/>
-      <c r="AD84" s="79"/>
-      <c r="AE84" s="79"/>
-      <c r="AF84" s="79"/>
-      <c r="AG84" s="79"/>
-      <c r="AH84" s="79"/>
-      <c r="AI84" s="79"/>
-      <c r="AJ84" s="79"/>
-      <c r="AK84" s="79"/>
-      <c r="AL84" s="79"/>
-      <c r="AM84" s="79"/>
-      <c r="AN84" s="79"/>
-      <c r="AO84" s="79"/>
-      <c r="AP84" s="79"/>
-      <c r="AQ84" s="79"/>
-      <c r="AR84" s="79"/>
-      <c r="AS84" s="79"/>
-      <c r="AT84" s="79"/>
-      <c r="AU84" s="79"/>
-      <c r="AV84" s="79"/>
-      <c r="AW84" s="79"/>
-      <c r="AX84" s="79"/>
-      <c r="AY84" s="79"/>
-      <c r="AZ84" s="79"/>
-      <c r="BA84" s="79"/>
-      <c r="BB84" s="79"/>
-      <c r="BC84" s="79"/>
-      <c r="BD84" s="79"/>
-      <c r="BE84" s="79"/>
-      <c r="BF84" s="79"/>
-      <c r="BG84" s="79"/>
-      <c r="BH84" s="79"/>
-      <c r="BI84" s="79"/>
-      <c r="BJ84" s="79"/>
-      <c r="BK84" s="79"/>
-      <c r="BL84" s="79"/>
-      <c r="BM84" s="79"/>
-      <c r="BN84" s="79"/>
-      <c r="BO84" s="79"/>
-      <c r="BP84" s="79"/>
-      <c r="BQ84" s="79"/>
-      <c r="BR84" s="79"/>
-      <c r="BS84" s="79"/>
-      <c r="BT84" s="79"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
+      <c r="K84" s="88"/>
+      <c r="L84" s="88"/>
+      <c r="M84" s="88"/>
+      <c r="N84" s="88"/>
+      <c r="O84" s="88"/>
+      <c r="P84" s="88"/>
+      <c r="Q84" s="88"/>
+      <c r="R84" s="88"/>
+      <c r="S84" s="88"/>
+      <c r="T84" s="88"/>
+      <c r="U84" s="88"/>
+      <c r="V84" s="88"/>
+      <c r="W84" s="88"/>
+      <c r="X84" s="88"/>
+      <c r="Y84" s="88"/>
+      <c r="Z84" s="88"/>
+      <c r="AA84" s="88"/>
+      <c r="AB84" s="88"/>
+      <c r="AC84" s="88"/>
+      <c r="AD84" s="88"/>
+      <c r="AE84" s="88"/>
+      <c r="AF84" s="88"/>
+      <c r="AG84" s="88"/>
+      <c r="AH84" s="88"/>
+      <c r="AI84" s="88"/>
+      <c r="AJ84" s="88"/>
+      <c r="AK84" s="88"/>
+      <c r="AL84" s="88"/>
+      <c r="AM84" s="88"/>
+      <c r="AN84" s="88"/>
+      <c r="AO84" s="88"/>
+      <c r="AP84" s="88"/>
+      <c r="AQ84" s="88"/>
+      <c r="AR84" s="88"/>
+      <c r="AS84" s="88"/>
+      <c r="AT84" s="88"/>
+      <c r="AU84" s="88"/>
+      <c r="AV84" s="88"/>
+      <c r="AW84" s="88"/>
+      <c r="AX84" s="88"/>
+      <c r="AY84" s="88"/>
+      <c r="AZ84" s="88"/>
+      <c r="BA84" s="88"/>
+      <c r="BB84" s="88"/>
+      <c r="BC84" s="88"/>
+      <c r="BD84" s="88"/>
+      <c r="BE84" s="88"/>
+      <c r="BF84" s="88"/>
+      <c r="BG84" s="88"/>
+      <c r="BH84" s="88"/>
+      <c r="BI84" s="88"/>
+      <c r="BJ84" s="88"/>
+      <c r="BK84" s="88"/>
+      <c r="BL84" s="88"/>
+      <c r="BM84" s="88"/>
+      <c r="BN84" s="88"/>
+      <c r="BO84" s="88"/>
+      <c r="BP84" s="88"/>
+      <c r="BQ84" s="88"/>
+      <c r="BR84" s="88"/>
+      <c r="BS84" s="88"/>
+      <c r="BT84" s="88"/>
       <c r="BU84"/>
     </row>
     <row r="85" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
-      <c r="O85" s="79"/>
-      <c r="P85" s="79"/>
-      <c r="Q85" s="79"/>
-      <c r="R85" s="79"/>
-      <c r="S85" s="79"/>
-      <c r="T85" s="79"/>
-      <c r="U85" s="79"/>
-      <c r="V85" s="79"/>
-      <c r="W85" s="79"/>
-      <c r="X85" s="79"/>
-      <c r="Y85" s="79"/>
-      <c r="Z85" s="79"/>
-      <c r="AA85" s="79"/>
-      <c r="AB85" s="79"/>
-      <c r="AC85" s="79"/>
-      <c r="AD85" s="79"/>
-      <c r="AE85" s="79"/>
-      <c r="AF85" s="79"/>
-      <c r="AG85" s="79"/>
-      <c r="AH85" s="79"/>
-      <c r="AI85" s="79"/>
-      <c r="AJ85" s="79"/>
-      <c r="AK85" s="79"/>
-      <c r="AL85" s="79"/>
-      <c r="AM85" s="79"/>
-      <c r="AN85" s="79"/>
-      <c r="AO85" s="79"/>
-      <c r="AP85" s="79"/>
-      <c r="AQ85" s="79"/>
-      <c r="AR85" s="79"/>
-      <c r="AS85" s="79"/>
-      <c r="AT85" s="79"/>
-      <c r="AU85" s="79"/>
-      <c r="AV85" s="79"/>
-      <c r="AW85" s="79"/>
-      <c r="AX85" s="79"/>
-      <c r="AY85" s="79"/>
-      <c r="AZ85" s="79"/>
-      <c r="BA85" s="79"/>
-      <c r="BB85" s="79"/>
-      <c r="BC85" s="79"/>
-      <c r="BD85" s="79"/>
-      <c r="BE85" s="79"/>
-      <c r="BF85" s="79"/>
-      <c r="BG85" s="79"/>
-      <c r="BH85" s="79"/>
-      <c r="BI85" s="79"/>
-      <c r="BJ85" s="79"/>
-      <c r="BK85" s="79"/>
-      <c r="BL85" s="79"/>
-      <c r="BM85" s="79"/>
-      <c r="BN85" s="79"/>
-      <c r="BO85" s="79"/>
-      <c r="BP85" s="79"/>
-      <c r="BQ85" s="79"/>
-      <c r="BR85" s="79"/>
-      <c r="BS85" s="79"/>
-      <c r="BT85" s="79"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="88"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="88"/>
+      <c r="Q85" s="88"/>
+      <c r="R85" s="88"/>
+      <c r="S85" s="88"/>
+      <c r="T85" s="88"/>
+      <c r="U85" s="88"/>
+      <c r="V85" s="88"/>
+      <c r="W85" s="88"/>
+      <c r="X85" s="88"/>
+      <c r="Y85" s="88"/>
+      <c r="Z85" s="88"/>
+      <c r="AA85" s="88"/>
+      <c r="AB85" s="88"/>
+      <c r="AC85" s="88"/>
+      <c r="AD85" s="88"/>
+      <c r="AE85" s="88"/>
+      <c r="AF85" s="88"/>
+      <c r="AG85" s="88"/>
+      <c r="AH85" s="88"/>
+      <c r="AI85" s="88"/>
+      <c r="AJ85" s="88"/>
+      <c r="AK85" s="88"/>
+      <c r="AL85" s="88"/>
+      <c r="AM85" s="88"/>
+      <c r="AN85" s="88"/>
+      <c r="AO85" s="88"/>
+      <c r="AP85" s="88"/>
+      <c r="AQ85" s="88"/>
+      <c r="AR85" s="88"/>
+      <c r="AS85" s="88"/>
+      <c r="AT85" s="88"/>
+      <c r="AU85" s="88"/>
+      <c r="AV85" s="88"/>
+      <c r="AW85" s="88"/>
+      <c r="AX85" s="88"/>
+      <c r="AY85" s="88"/>
+      <c r="AZ85" s="88"/>
+      <c r="BA85" s="88"/>
+      <c r="BB85" s="88"/>
+      <c r="BC85" s="88"/>
+      <c r="BD85" s="88"/>
+      <c r="BE85" s="88"/>
+      <c r="BF85" s="88"/>
+      <c r="BG85" s="88"/>
+      <c r="BH85" s="88"/>
+      <c r="BI85" s="88"/>
+      <c r="BJ85" s="88"/>
+      <c r="BK85" s="88"/>
+      <c r="BL85" s="88"/>
+      <c r="BM85" s="88"/>
+      <c r="BN85" s="88"/>
+      <c r="BO85" s="88"/>
+      <c r="BP85" s="88"/>
+      <c r="BQ85" s="88"/>
+      <c r="BR85" s="88"/>
+      <c r="BS85" s="88"/>
+      <c r="BT85" s="88"/>
       <c r="BU85"/>
     </row>
     <row r="86" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="79"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
-      <c r="N86" s="79"/>
-      <c r="O86" s="79"/>
-      <c r="P86" s="79"/>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
-      <c r="W86" s="79"/>
-      <c r="X86" s="79"/>
-      <c r="Y86" s="79"/>
-      <c r="Z86" s="79"/>
-      <c r="AA86" s="79"/>
-      <c r="AB86" s="79"/>
-      <c r="AC86" s="79"/>
-      <c r="AD86" s="79"/>
-      <c r="AE86" s="79"/>
-      <c r="AF86" s="79"/>
-      <c r="AG86" s="79"/>
-      <c r="AH86" s="79"/>
-      <c r="AI86" s="79"/>
-      <c r="AJ86" s="79"/>
-      <c r="AK86" s="79"/>
-      <c r="AL86" s="79"/>
-      <c r="AM86" s="79"/>
-      <c r="AN86" s="79"/>
-      <c r="AO86" s="79"/>
-      <c r="AP86" s="79"/>
-      <c r="AQ86" s="79"/>
-      <c r="AR86" s="79"/>
-      <c r="AS86" s="79"/>
-      <c r="AT86" s="79"/>
-      <c r="AU86" s="79"/>
-      <c r="AV86" s="79"/>
-      <c r="AW86" s="79"/>
-      <c r="AX86" s="79"/>
-      <c r="AY86" s="79"/>
-      <c r="AZ86" s="79"/>
-      <c r="BA86" s="79"/>
-      <c r="BB86" s="79"/>
-      <c r="BC86" s="79"/>
-      <c r="BD86" s="79"/>
-      <c r="BE86" s="79"/>
-      <c r="BF86" s="79"/>
-      <c r="BG86" s="79"/>
-      <c r="BH86" s="79"/>
-      <c r="BI86" s="79"/>
-      <c r="BJ86" s="79"/>
-      <c r="BK86" s="79"/>
-      <c r="BL86" s="79"/>
-      <c r="BM86" s="79"/>
-      <c r="BN86" s="79"/>
-      <c r="BO86" s="79"/>
-      <c r="BP86" s="79"/>
-      <c r="BQ86" s="79"/>
-      <c r="BR86" s="79"/>
-      <c r="BS86" s="79"/>
-      <c r="BT86" s="79"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="88"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="88"/>
+      <c r="Q86" s="88"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="88"/>
+      <c r="T86" s="88"/>
+      <c r="U86" s="88"/>
+      <c r="V86" s="88"/>
+      <c r="W86" s="88"/>
+      <c r="X86" s="88"/>
+      <c r="Y86" s="88"/>
+      <c r="Z86" s="88"/>
+      <c r="AA86" s="88"/>
+      <c r="AB86" s="88"/>
+      <c r="AC86" s="88"/>
+      <c r="AD86" s="88"/>
+      <c r="AE86" s="88"/>
+      <c r="AF86" s="88"/>
+      <c r="AG86" s="88"/>
+      <c r="AH86" s="88"/>
+      <c r="AI86" s="88"/>
+      <c r="AJ86" s="88"/>
+      <c r="AK86" s="88"/>
+      <c r="AL86" s="88"/>
+      <c r="AM86" s="88"/>
+      <c r="AN86" s="88"/>
+      <c r="AO86" s="88"/>
+      <c r="AP86" s="88"/>
+      <c r="AQ86" s="88"/>
+      <c r="AR86" s="88"/>
+      <c r="AS86" s="88"/>
+      <c r="AT86" s="88"/>
+      <c r="AU86" s="88"/>
+      <c r="AV86" s="88"/>
+      <c r="AW86" s="88"/>
+      <c r="AX86" s="88"/>
+      <c r="AY86" s="88"/>
+      <c r="AZ86" s="88"/>
+      <c r="BA86" s="88"/>
+      <c r="BB86" s="88"/>
+      <c r="BC86" s="88"/>
+      <c r="BD86" s="88"/>
+      <c r="BE86" s="88"/>
+      <c r="BF86" s="88"/>
+      <c r="BG86" s="88"/>
+      <c r="BH86" s="88"/>
+      <c r="BI86" s="88"/>
+      <c r="BJ86" s="88"/>
+      <c r="BK86" s="88"/>
+      <c r="BL86" s="88"/>
+      <c r="BM86" s="88"/>
+      <c r="BN86" s="88"/>
+      <c r="BO86" s="88"/>
+      <c r="BP86" s="88"/>
+      <c r="BQ86" s="88"/>
+      <c r="BR86" s="88"/>
+      <c r="BS86" s="88"/>
+      <c r="BT86" s="88"/>
       <c r="BU86"/>
     </row>
     <row r="87" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="79"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
-      <c r="O87" s="79"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
-      <c r="W87" s="79"/>
-      <c r="X87" s="79"/>
-      <c r="Y87" s="79"/>
-      <c r="Z87" s="79"/>
-      <c r="AA87" s="79"/>
-      <c r="AB87" s="79"/>
-      <c r="AC87" s="79"/>
-      <c r="AD87" s="79"/>
-      <c r="AE87" s="79"/>
-      <c r="AF87" s="79"/>
-      <c r="AG87" s="79"/>
-      <c r="AH87" s="79"/>
-      <c r="AI87" s="79"/>
-      <c r="AJ87" s="79"/>
-      <c r="AK87" s="79"/>
-      <c r="AL87" s="79"/>
-      <c r="AM87" s="79"/>
-      <c r="AN87" s="79"/>
-      <c r="AO87" s="79"/>
-      <c r="AP87" s="79"/>
-      <c r="AQ87" s="79"/>
-      <c r="AR87" s="79"/>
-      <c r="AS87" s="79"/>
-      <c r="AT87" s="79"/>
-      <c r="AU87" s="79"/>
-      <c r="AV87" s="79"/>
-      <c r="AW87" s="79"/>
-      <c r="AX87" s="79"/>
-      <c r="AY87" s="79"/>
-      <c r="AZ87" s="79"/>
-      <c r="BA87" s="79"/>
-      <c r="BB87" s="79"/>
-      <c r="BC87" s="79"/>
-      <c r="BD87" s="79"/>
-      <c r="BE87" s="79"/>
-      <c r="BF87" s="79"/>
-      <c r="BG87" s="79"/>
-      <c r="BH87" s="79"/>
-      <c r="BI87" s="79"/>
-      <c r="BJ87" s="79"/>
-      <c r="BK87" s="79"/>
-      <c r="BL87" s="79"/>
-      <c r="BM87" s="79"/>
-      <c r="BN87" s="79"/>
-      <c r="BO87" s="79"/>
-      <c r="BP87" s="79"/>
-      <c r="BQ87" s="79"/>
-      <c r="BR87" s="79"/>
-      <c r="BS87" s="79"/>
-      <c r="BT87" s="79"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="88"/>
+      <c r="U87" s="88"/>
+      <c r="V87" s="88"/>
+      <c r="W87" s="88"/>
+      <c r="X87" s="88"/>
+      <c r="Y87" s="88"/>
+      <c r="Z87" s="88"/>
+      <c r="AA87" s="88"/>
+      <c r="AB87" s="88"/>
+      <c r="AC87" s="88"/>
+      <c r="AD87" s="88"/>
+      <c r="AE87" s="88"/>
+      <c r="AF87" s="88"/>
+      <c r="AG87" s="88"/>
+      <c r="AH87" s="88"/>
+      <c r="AI87" s="88"/>
+      <c r="AJ87" s="88"/>
+      <c r="AK87" s="88"/>
+      <c r="AL87" s="88"/>
+      <c r="AM87" s="88"/>
+      <c r="AN87" s="88"/>
+      <c r="AO87" s="88"/>
+      <c r="AP87" s="88"/>
+      <c r="AQ87" s="88"/>
+      <c r="AR87" s="88"/>
+      <c r="AS87" s="88"/>
+      <c r="AT87" s="88"/>
+      <c r="AU87" s="88"/>
+      <c r="AV87" s="88"/>
+      <c r="AW87" s="88"/>
+      <c r="AX87" s="88"/>
+      <c r="AY87" s="88"/>
+      <c r="AZ87" s="88"/>
+      <c r="BA87" s="88"/>
+      <c r="BB87" s="88"/>
+      <c r="BC87" s="88"/>
+      <c r="BD87" s="88"/>
+      <c r="BE87" s="88"/>
+      <c r="BF87" s="88"/>
+      <c r="BG87" s="88"/>
+      <c r="BH87" s="88"/>
+      <c r="BI87" s="88"/>
+      <c r="BJ87" s="88"/>
+      <c r="BK87" s="88"/>
+      <c r="BL87" s="88"/>
+      <c r="BM87" s="88"/>
+      <c r="BN87" s="88"/>
+      <c r="BO87" s="88"/>
+      <c r="BP87" s="88"/>
+      <c r="BQ87" s="88"/>
+      <c r="BR87" s="88"/>
+      <c r="BS87" s="88"/>
+      <c r="BT87" s="88"/>
       <c r="BU87"/>
     </row>
     <row r="88" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="79"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
-      <c r="W88" s="79"/>
-      <c r="X88" s="79"/>
-      <c r="Y88" s="79"/>
-      <c r="Z88" s="79"/>
-      <c r="AA88" s="79"/>
-      <c r="AB88" s="79"/>
-      <c r="AC88" s="79"/>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="79"/>
-      <c r="AF88" s="79"/>
-      <c r="AG88" s="79"/>
-      <c r="AH88" s="79"/>
-      <c r="AI88" s="79"/>
-      <c r="AJ88" s="79"/>
-      <c r="AK88" s="79"/>
-      <c r="AL88" s="79"/>
-      <c r="AM88" s="79"/>
-      <c r="AN88" s="79"/>
-      <c r="AO88" s="79"/>
-      <c r="AP88" s="79"/>
-      <c r="AQ88" s="79"/>
-      <c r="AR88" s="79"/>
-      <c r="AS88" s="79"/>
-      <c r="AT88" s="79"/>
-      <c r="AU88" s="79"/>
-      <c r="AV88" s="79"/>
-      <c r="AW88" s="79"/>
-      <c r="AX88" s="79"/>
-      <c r="AY88" s="79"/>
-      <c r="AZ88" s="79"/>
-      <c r="BA88" s="79"/>
-      <c r="BB88" s="79"/>
-      <c r="BC88" s="79"/>
-      <c r="BD88" s="79"/>
-      <c r="BE88" s="79"/>
-      <c r="BF88" s="79"/>
-      <c r="BG88" s="79"/>
-      <c r="BH88" s="79"/>
-      <c r="BI88" s="79"/>
-      <c r="BJ88" s="79"/>
-      <c r="BK88" s="79"/>
-      <c r="BL88" s="79"/>
-      <c r="BM88" s="79"/>
-      <c r="BN88" s="79"/>
-      <c r="BO88" s="79"/>
-      <c r="BP88" s="79"/>
-      <c r="BQ88" s="79"/>
-      <c r="BR88" s="79"/>
-      <c r="BS88" s="79"/>
-      <c r="BT88" s="79"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="115"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="113"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
+      <c r="M88" s="88"/>
+      <c r="N88" s="88"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="88"/>
+      <c r="Q88" s="88"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="88"/>
+      <c r="T88" s="88"/>
+      <c r="U88" s="88"/>
+      <c r="V88" s="88"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="88"/>
+      <c r="Y88" s="88"/>
+      <c r="Z88" s="88"/>
+      <c r="AA88" s="88"/>
+      <c r="AB88" s="88"/>
+      <c r="AC88" s="88"/>
+      <c r="AD88" s="88"/>
+      <c r="AE88" s="88"/>
+      <c r="AF88" s="88"/>
+      <c r="AG88" s="88"/>
+      <c r="AH88" s="88"/>
+      <c r="AI88" s="88"/>
+      <c r="AJ88" s="88"/>
+      <c r="AK88" s="88"/>
+      <c r="AL88" s="88"/>
+      <c r="AM88" s="88"/>
+      <c r="AN88" s="88"/>
+      <c r="AO88" s="88"/>
+      <c r="AP88" s="88"/>
+      <c r="AQ88" s="88"/>
+      <c r="AR88" s="88"/>
+      <c r="AS88" s="88"/>
+      <c r="AT88" s="88"/>
+      <c r="AU88" s="88"/>
+      <c r="AV88" s="88"/>
+      <c r="AW88" s="88"/>
+      <c r="AX88" s="88"/>
+      <c r="AY88" s="88"/>
+      <c r="AZ88" s="88"/>
+      <c r="BA88" s="88"/>
+      <c r="BB88" s="88"/>
+      <c r="BC88" s="88"/>
+      <c r="BD88" s="88"/>
+      <c r="BE88" s="88"/>
+      <c r="BF88" s="88"/>
+      <c r="BG88" s="88"/>
+      <c r="BH88" s="88"/>
+      <c r="BI88" s="88"/>
+      <c r="BJ88" s="88"/>
+      <c r="BK88" s="88"/>
+      <c r="BL88" s="88"/>
+      <c r="BM88" s="88"/>
+      <c r="BN88" s="88"/>
+      <c r="BO88" s="88"/>
+      <c r="BP88" s="88"/>
+      <c r="BQ88" s="88"/>
+      <c r="BR88" s="88"/>
+      <c r="BS88" s="88"/>
+      <c r="BT88" s="88"/>
       <c r="BU88"/>
     </row>
     <row r="89" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="104"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="79"/>
-      <c r="O89" s="79"/>
-      <c r="P89" s="79"/>
-      <c r="Q89" s="79"/>
-      <c r="R89" s="79"/>
-      <c r="S89" s="79"/>
-      <c r="T89" s="79"/>
-      <c r="U89" s="79"/>
-      <c r="V89" s="79"/>
-      <c r="W89" s="79"/>
-      <c r="X89" s="79"/>
-      <c r="Y89" s="79"/>
-      <c r="Z89" s="79"/>
-      <c r="AA89" s="79"/>
-      <c r="AB89" s="79"/>
-      <c r="AC89" s="79"/>
-      <c r="AD89" s="79"/>
-      <c r="AE89" s="79"/>
-      <c r="AF89" s="79"/>
-      <c r="AG89" s="79"/>
-      <c r="AH89" s="79"/>
-      <c r="AI89" s="79"/>
-      <c r="AJ89" s="79"/>
-      <c r="AK89" s="79"/>
-      <c r="AL89" s="79"/>
-      <c r="AM89" s="79"/>
-      <c r="AN89" s="79"/>
-      <c r="AO89" s="79"/>
-      <c r="AP89" s="79"/>
-      <c r="AQ89" s="79"/>
-      <c r="AR89" s="79"/>
-      <c r="AS89" s="79"/>
-      <c r="AT89" s="79"/>
-      <c r="AU89" s="79"/>
-      <c r="AV89" s="79"/>
-      <c r="AW89" s="79"/>
-      <c r="AX89" s="79"/>
-      <c r="AY89" s="79"/>
-      <c r="AZ89" s="79"/>
-      <c r="BA89" s="79"/>
-      <c r="BB89" s="79"/>
-      <c r="BC89" s="79"/>
-      <c r="BD89" s="79"/>
-      <c r="BE89" s="79"/>
-      <c r="BF89" s="79"/>
-      <c r="BG89" s="79"/>
-      <c r="BH89" s="79"/>
-      <c r="BI89" s="79"/>
-      <c r="BJ89" s="79"/>
-      <c r="BK89" s="79"/>
-      <c r="BL89" s="79"/>
-      <c r="BM89" s="79"/>
-      <c r="BN89" s="79"/>
-      <c r="BO89" s="79"/>
-      <c r="BP89" s="79"/>
-      <c r="BQ89" s="79"/>
-      <c r="BR89" s="79"/>
-      <c r="BS89" s="79"/>
-      <c r="BT89" s="79"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="113"/>
+      <c r="G89" s="113"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="88"/>
+      <c r="T89" s="88"/>
+      <c r="U89" s="88"/>
+      <c r="V89" s="88"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="88"/>
+      <c r="Y89" s="88"/>
+      <c r="Z89" s="88"/>
+      <c r="AA89" s="88"/>
+      <c r="AB89" s="88"/>
+      <c r="AC89" s="88"/>
+      <c r="AD89" s="88"/>
+      <c r="AE89" s="88"/>
+      <c r="AF89" s="88"/>
+      <c r="AG89" s="88"/>
+      <c r="AH89" s="88"/>
+      <c r="AI89" s="88"/>
+      <c r="AJ89" s="88"/>
+      <c r="AK89" s="88"/>
+      <c r="AL89" s="88"/>
+      <c r="AM89" s="88"/>
+      <c r="AN89" s="88"/>
+      <c r="AO89" s="88"/>
+      <c r="AP89" s="88"/>
+      <c r="AQ89" s="88"/>
+      <c r="AR89" s="88"/>
+      <c r="AS89" s="88"/>
+      <c r="AT89" s="88"/>
+      <c r="AU89" s="88"/>
+      <c r="AV89" s="88"/>
+      <c r="AW89" s="88"/>
+      <c r="AX89" s="88"/>
+      <c r="AY89" s="88"/>
+      <c r="AZ89" s="88"/>
+      <c r="BA89" s="88"/>
+      <c r="BB89" s="88"/>
+      <c r="BC89" s="88"/>
+      <c r="BD89" s="88"/>
+      <c r="BE89" s="88"/>
+      <c r="BF89" s="88"/>
+      <c r="BG89" s="88"/>
+      <c r="BH89" s="88"/>
+      <c r="BI89" s="88"/>
+      <c r="BJ89" s="88"/>
+      <c r="BK89" s="88"/>
+      <c r="BL89" s="88"/>
+      <c r="BM89" s="88"/>
+      <c r="BN89" s="88"/>
+      <c r="BO89" s="88"/>
+      <c r="BP89" s="88"/>
+      <c r="BQ89" s="88"/>
+      <c r="BR89" s="88"/>
+      <c r="BS89" s="88"/>
+      <c r="BT89" s="88"/>
       <c r="BU89"/>
     </row>
     <row r="90" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="79"/>
-      <c r="K90" s="79"/>
-      <c r="L90" s="79"/>
-      <c r="M90" s="79"/>
-      <c r="N90" s="79"/>
-      <c r="O90" s="79"/>
-      <c r="P90" s="79"/>
-      <c r="Q90" s="79"/>
-      <c r="R90" s="79"/>
-      <c r="S90" s="79"/>
-      <c r="T90" s="79"/>
-      <c r="U90" s="79"/>
-      <c r="V90" s="79"/>
-      <c r="W90" s="79"/>
-      <c r="X90" s="79"/>
-      <c r="Y90" s="79"/>
-      <c r="Z90" s="79"/>
-      <c r="AA90" s="79"/>
-      <c r="AB90" s="79"/>
-      <c r="AC90" s="79"/>
-      <c r="AD90" s="79"/>
-      <c r="AE90" s="79"/>
-      <c r="AF90" s="79"/>
-      <c r="AG90" s="79"/>
-      <c r="AH90" s="79"/>
-      <c r="AI90" s="79"/>
-      <c r="AJ90" s="79"/>
-      <c r="AK90" s="79"/>
-      <c r="AL90" s="79"/>
-      <c r="AM90" s="79"/>
-      <c r="AN90" s="79"/>
-      <c r="AO90" s="79"/>
-      <c r="AP90" s="79"/>
-      <c r="AQ90" s="79"/>
-      <c r="AR90" s="79"/>
-      <c r="AS90" s="79"/>
-      <c r="AT90" s="79"/>
-      <c r="AU90" s="79"/>
-      <c r="AV90" s="79"/>
-      <c r="AW90" s="79"/>
-      <c r="AX90" s="79"/>
-      <c r="AY90" s="79"/>
-      <c r="AZ90" s="79"/>
-      <c r="BA90" s="79"/>
-      <c r="BB90" s="79"/>
-      <c r="BC90" s="79"/>
-      <c r="BD90" s="79"/>
-      <c r="BE90" s="79"/>
-      <c r="BF90" s="79"/>
-      <c r="BG90" s="79"/>
-      <c r="BH90" s="79"/>
-      <c r="BI90" s="79"/>
-      <c r="BJ90" s="79"/>
-      <c r="BK90" s="79"/>
-      <c r="BL90" s="79"/>
-      <c r="BM90" s="79"/>
-      <c r="BN90" s="79"/>
-      <c r="BO90" s="79"/>
-      <c r="BP90" s="79"/>
-      <c r="BQ90" s="79"/>
-      <c r="BR90" s="79"/>
-      <c r="BS90" s="79"/>
-      <c r="BT90" s="79"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="88"/>
+      <c r="Q90" s="88"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="88"/>
+      <c r="V90" s="88"/>
+      <c r="W90" s="88"/>
+      <c r="X90" s="88"/>
+      <c r="Y90" s="88"/>
+      <c r="Z90" s="88"/>
+      <c r="AA90" s="88"/>
+      <c r="AB90" s="88"/>
+      <c r="AC90" s="88"/>
+      <c r="AD90" s="88"/>
+      <c r="AE90" s="88"/>
+      <c r="AF90" s="88"/>
+      <c r="AG90" s="88"/>
+      <c r="AH90" s="88"/>
+      <c r="AI90" s="88"/>
+      <c r="AJ90" s="88"/>
+      <c r="AK90" s="88"/>
+      <c r="AL90" s="88"/>
+      <c r="AM90" s="88"/>
+      <c r="AN90" s="88"/>
+      <c r="AO90" s="88"/>
+      <c r="AP90" s="88"/>
+      <c r="AQ90" s="88"/>
+      <c r="AR90" s="88"/>
+      <c r="AS90" s="88"/>
+      <c r="AT90" s="88"/>
+      <c r="AU90" s="88"/>
+      <c r="AV90" s="88"/>
+      <c r="AW90" s="88"/>
+      <c r="AX90" s="88"/>
+      <c r="AY90" s="88"/>
+      <c r="AZ90" s="88"/>
+      <c r="BA90" s="88"/>
+      <c r="BB90" s="88"/>
+      <c r="BC90" s="88"/>
+      <c r="BD90" s="88"/>
+      <c r="BE90" s="88"/>
+      <c r="BF90" s="88"/>
+      <c r="BG90" s="88"/>
+      <c r="BH90" s="88"/>
+      <c r="BI90" s="88"/>
+      <c r="BJ90" s="88"/>
+      <c r="BK90" s="88"/>
+      <c r="BL90" s="88"/>
+      <c r="BM90" s="88"/>
+      <c r="BN90" s="88"/>
+      <c r="BO90" s="88"/>
+      <c r="BP90" s="88"/>
+      <c r="BQ90" s="88"/>
+      <c r="BR90" s="88"/>
+      <c r="BS90" s="88"/>
+      <c r="BT90" s="88"/>
       <c r="BU90"/>
     </row>
     <row r="91" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="79"/>
-      <c r="L91" s="79"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="79"/>
-      <c r="O91" s="79"/>
-      <c r="P91" s="79"/>
-      <c r="Q91" s="79"/>
-      <c r="R91" s="79"/>
-      <c r="S91" s="79"/>
-      <c r="T91" s="79"/>
-      <c r="U91" s="79"/>
-      <c r="V91" s="79"/>
-      <c r="W91" s="79"/>
-      <c r="X91" s="79"/>
-      <c r="Y91" s="79"/>
-      <c r="Z91" s="79"/>
-      <c r="AA91" s="79"/>
-      <c r="AB91" s="79"/>
-      <c r="AC91" s="79"/>
-      <c r="AD91" s="79"/>
-      <c r="AE91" s="79"/>
-      <c r="AF91" s="79"/>
-      <c r="AG91" s="79"/>
-      <c r="AH91" s="79"/>
-      <c r="AI91" s="79"/>
-      <c r="AJ91" s="79"/>
-      <c r="AK91" s="79"/>
-      <c r="AL91" s="79"/>
-      <c r="AM91" s="79"/>
-      <c r="AN91" s="79"/>
-      <c r="AO91" s="79"/>
-      <c r="AP91" s="79"/>
-      <c r="AQ91" s="79"/>
-      <c r="AR91" s="79"/>
-      <c r="AS91" s="79"/>
-      <c r="AT91" s="79"/>
-      <c r="AU91" s="79"/>
-      <c r="AV91" s="79"/>
-      <c r="AW91" s="79"/>
-      <c r="AX91" s="79"/>
-      <c r="AY91" s="79"/>
-      <c r="AZ91" s="79"/>
-      <c r="BA91" s="79"/>
-      <c r="BB91" s="79"/>
-      <c r="BC91" s="79"/>
-      <c r="BD91" s="79"/>
-      <c r="BE91" s="79"/>
-      <c r="BF91" s="79"/>
-      <c r="BG91" s="79"/>
-      <c r="BH91" s="79"/>
-      <c r="BI91" s="79"/>
-      <c r="BJ91" s="79"/>
-      <c r="BK91" s="79"/>
-      <c r="BL91" s="79"/>
-      <c r="BM91" s="79"/>
-      <c r="BN91" s="79"/>
-      <c r="BO91" s="79"/>
-      <c r="BP91" s="79"/>
-      <c r="BQ91" s="79"/>
-      <c r="BR91" s="79"/>
-      <c r="BS91" s="79"/>
-      <c r="BT91" s="79"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="115"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="88"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="88"/>
+      <c r="Q91" s="88"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="88"/>
+      <c r="V91" s="88"/>
+      <c r="W91" s="88"/>
+      <c r="X91" s="88"/>
+      <c r="Y91" s="88"/>
+      <c r="Z91" s="88"/>
+      <c r="AA91" s="88"/>
+      <c r="AB91" s="88"/>
+      <c r="AC91" s="88"/>
+      <c r="AD91" s="88"/>
+      <c r="AE91" s="88"/>
+      <c r="AF91" s="88"/>
+      <c r="AG91" s="88"/>
+      <c r="AH91" s="88"/>
+      <c r="AI91" s="88"/>
+      <c r="AJ91" s="88"/>
+      <c r="AK91" s="88"/>
+      <c r="AL91" s="88"/>
+      <c r="AM91" s="88"/>
+      <c r="AN91" s="88"/>
+      <c r="AO91" s="88"/>
+      <c r="AP91" s="88"/>
+      <c r="AQ91" s="88"/>
+      <c r="AR91" s="88"/>
+      <c r="AS91" s="88"/>
+      <c r="AT91" s="88"/>
+      <c r="AU91" s="88"/>
+      <c r="AV91" s="88"/>
+      <c r="AW91" s="88"/>
+      <c r="AX91" s="88"/>
+      <c r="AY91" s="88"/>
+      <c r="AZ91" s="88"/>
+      <c r="BA91" s="88"/>
+      <c r="BB91" s="88"/>
+      <c r="BC91" s="88"/>
+      <c r="BD91" s="88"/>
+      <c r="BE91" s="88"/>
+      <c r="BF91" s="88"/>
+      <c r="BG91" s="88"/>
+      <c r="BH91" s="88"/>
+      <c r="BI91" s="88"/>
+      <c r="BJ91" s="88"/>
+      <c r="BK91" s="88"/>
+      <c r="BL91" s="88"/>
+      <c r="BM91" s="88"/>
+      <c r="BN91" s="88"/>
+      <c r="BO91" s="88"/>
+      <c r="BP91" s="88"/>
+      <c r="BQ91" s="88"/>
+      <c r="BR91" s="88"/>
+      <c r="BS91" s="88"/>
+      <c r="BT91" s="88"/>
       <c r="BU91"/>
     </row>
     <row r="92" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="79"/>
-      <c r="H92" s="79"/>
-      <c r="I92" s="79"/>
-      <c r="J92" s="79"/>
-      <c r="K92" s="79"/>
-      <c r="L92" s="79"/>
-      <c r="M92" s="79"/>
-      <c r="N92" s="79"/>
-      <c r="O92" s="79"/>
-      <c r="P92" s="79"/>
-      <c r="Q92" s="79"/>
-      <c r="R92" s="79"/>
-      <c r="S92" s="79"/>
-      <c r="T92" s="79"/>
-      <c r="U92" s="79"/>
-      <c r="V92" s="79"/>
-      <c r="W92" s="79"/>
-      <c r="X92" s="79"/>
-      <c r="Y92" s="79"/>
-      <c r="Z92" s="79"/>
-      <c r="AA92" s="79"/>
-      <c r="AB92" s="79"/>
-      <c r="AC92" s="79"/>
-      <c r="AD92" s="79"/>
-      <c r="AE92" s="79"/>
-      <c r="AF92" s="79"/>
-      <c r="AG92" s="79"/>
-      <c r="AH92" s="79"/>
-      <c r="AI92" s="79"/>
-      <c r="AJ92" s="79"/>
-      <c r="AK92" s="79"/>
-      <c r="AL92" s="79"/>
-      <c r="AM92" s="79"/>
-      <c r="AN92" s="79"/>
-      <c r="AO92" s="79"/>
-      <c r="AP92" s="79"/>
-      <c r="AQ92" s="79"/>
-      <c r="AR92" s="79"/>
-      <c r="AS92" s="79"/>
-      <c r="AT92" s="79"/>
-      <c r="AU92" s="79"/>
-      <c r="AV92" s="79"/>
-      <c r="AW92" s="79"/>
-      <c r="AX92" s="79"/>
-      <c r="AY92" s="79"/>
-      <c r="AZ92" s="79"/>
-      <c r="BA92" s="79"/>
-      <c r="BB92" s="79"/>
-      <c r="BC92" s="79"/>
-      <c r="BD92" s="79"/>
-      <c r="BE92" s="79"/>
-      <c r="BF92" s="79"/>
-      <c r="BG92" s="79"/>
-      <c r="BH92" s="79"/>
-      <c r="BI92" s="79"/>
-      <c r="BJ92" s="79"/>
-      <c r="BK92" s="79"/>
-      <c r="BL92" s="79"/>
-      <c r="BM92" s="79"/>
-      <c r="BN92" s="79"/>
-      <c r="BO92" s="79"/>
-      <c r="BP92" s="79"/>
-      <c r="BQ92" s="79"/>
-      <c r="BR92" s="79"/>
-      <c r="BS92" s="79"/>
-      <c r="BT92" s="79"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="88"/>
+      <c r="V92" s="88"/>
+      <c r="W92" s="88"/>
+      <c r="X92" s="88"/>
+      <c r="Y92" s="88"/>
+      <c r="Z92" s="88"/>
+      <c r="AA92" s="88"/>
+      <c r="AB92" s="88"/>
+      <c r="AC92" s="88"/>
+      <c r="AD92" s="88"/>
+      <c r="AE92" s="88"/>
+      <c r="AF92" s="88"/>
+      <c r="AG92" s="88"/>
+      <c r="AH92" s="88"/>
+      <c r="AI92" s="88"/>
+      <c r="AJ92" s="88"/>
+      <c r="AK92" s="88"/>
+      <c r="AL92" s="88"/>
+      <c r="AM92" s="88"/>
+      <c r="AN92" s="88"/>
+      <c r="AO92" s="88"/>
+      <c r="AP92" s="88"/>
+      <c r="AQ92" s="88"/>
+      <c r="AR92" s="88"/>
+      <c r="AS92" s="88"/>
+      <c r="AT92" s="88"/>
+      <c r="AU92" s="88"/>
+      <c r="AV92" s="88"/>
+      <c r="AW92" s="88"/>
+      <c r="AX92" s="88"/>
+      <c r="AY92" s="88"/>
+      <c r="AZ92" s="88"/>
+      <c r="BA92" s="88"/>
+      <c r="BB92" s="88"/>
+      <c r="BC92" s="88"/>
+      <c r="BD92" s="88"/>
+      <c r="BE92" s="88"/>
+      <c r="BF92" s="88"/>
+      <c r="BG92" s="88"/>
+      <c r="BH92" s="88"/>
+      <c r="BI92" s="88"/>
+      <c r="BJ92" s="88"/>
+      <c r="BK92" s="88"/>
+      <c r="BL92" s="88"/>
+      <c r="BM92" s="88"/>
+      <c r="BN92" s="88"/>
+      <c r="BO92" s="88"/>
+      <c r="BP92" s="88"/>
+      <c r="BQ92" s="88"/>
+      <c r="BR92" s="88"/>
+      <c r="BS92" s="88"/>
+      <c r="BT92" s="88"/>
       <c r="BU92"/>
     </row>
     <row r="93" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
-      <c r="H93" s="79"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
-      <c r="N93" s="79"/>
-      <c r="O93" s="79"/>
-      <c r="P93" s="79"/>
-      <c r="Q93" s="79"/>
-      <c r="R93" s="79"/>
-      <c r="S93" s="79"/>
-      <c r="T93" s="79"/>
-      <c r="U93" s="79"/>
-      <c r="V93" s="79"/>
-      <c r="W93" s="79"/>
-      <c r="X93" s="79"/>
-      <c r="Y93" s="79"/>
-      <c r="Z93" s="79"/>
-      <c r="AA93" s="79"/>
-      <c r="AB93" s="79"/>
-      <c r="AC93" s="79"/>
-      <c r="AD93" s="79"/>
-      <c r="AE93" s="79"/>
-      <c r="AF93" s="79"/>
-      <c r="AG93" s="79"/>
-      <c r="AH93" s="79"/>
-      <c r="AI93" s="79"/>
-      <c r="AJ93" s="79"/>
-      <c r="AK93" s="79"/>
-      <c r="AL93" s="79"/>
-      <c r="AM93" s="79"/>
-      <c r="AN93" s="79"/>
-      <c r="AO93" s="79"/>
-      <c r="AP93" s="79"/>
-      <c r="AQ93" s="79"/>
-      <c r="AR93" s="79"/>
-      <c r="AS93" s="79"/>
-      <c r="AT93" s="79"/>
-      <c r="AU93" s="79"/>
-      <c r="AV93" s="79"/>
-      <c r="AW93" s="79"/>
-      <c r="AX93" s="79"/>
-      <c r="AY93" s="79"/>
-      <c r="AZ93" s="79"/>
-      <c r="BA93" s="79"/>
-      <c r="BB93" s="79"/>
-      <c r="BC93" s="79"/>
-      <c r="BD93" s="79"/>
-      <c r="BE93" s="79"/>
-      <c r="BF93" s="79"/>
-      <c r="BG93" s="79"/>
-      <c r="BH93" s="79"/>
-      <c r="BI93" s="79"/>
-      <c r="BJ93" s="79"/>
-      <c r="BK93" s="79"/>
-      <c r="BL93" s="79"/>
-      <c r="BM93" s="79"/>
-      <c r="BN93" s="79"/>
-      <c r="BO93" s="79"/>
-      <c r="BP93" s="79"/>
-      <c r="BQ93" s="79"/>
-      <c r="BR93" s="79"/>
-      <c r="BS93" s="79"/>
-      <c r="BT93" s="79"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="113"/>
+      <c r="G93" s="113"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="88"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="88"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="88"/>
+      <c r="V93" s="88"/>
+      <c r="W93" s="88"/>
+      <c r="X93" s="88"/>
+      <c r="Y93" s="88"/>
+      <c r="Z93" s="88"/>
+      <c r="AA93" s="88"/>
+      <c r="AB93" s="88"/>
+      <c r="AC93" s="88"/>
+      <c r="AD93" s="88"/>
+      <c r="AE93" s="88"/>
+      <c r="AF93" s="88"/>
+      <c r="AG93" s="88"/>
+      <c r="AH93" s="88"/>
+      <c r="AI93" s="88"/>
+      <c r="AJ93" s="88"/>
+      <c r="AK93" s="88"/>
+      <c r="AL93" s="88"/>
+      <c r="AM93" s="88"/>
+      <c r="AN93" s="88"/>
+      <c r="AO93" s="88"/>
+      <c r="AP93" s="88"/>
+      <c r="AQ93" s="88"/>
+      <c r="AR93" s="88"/>
+      <c r="AS93" s="88"/>
+      <c r="AT93" s="88"/>
+      <c r="AU93" s="88"/>
+      <c r="AV93" s="88"/>
+      <c r="AW93" s="88"/>
+      <c r="AX93" s="88"/>
+      <c r="AY93" s="88"/>
+      <c r="AZ93" s="88"/>
+      <c r="BA93" s="88"/>
+      <c r="BB93" s="88"/>
+      <c r="BC93" s="88"/>
+      <c r="BD93" s="88"/>
+      <c r="BE93" s="88"/>
+      <c r="BF93" s="88"/>
+      <c r="BG93" s="88"/>
+      <c r="BH93" s="88"/>
+      <c r="BI93" s="88"/>
+      <c r="BJ93" s="88"/>
+      <c r="BK93" s="88"/>
+      <c r="BL93" s="88"/>
+      <c r="BM93" s="88"/>
+      <c r="BN93" s="88"/>
+      <c r="BO93" s="88"/>
+      <c r="BP93" s="88"/>
+      <c r="BQ93" s="88"/>
+      <c r="BR93" s="88"/>
+      <c r="BS93" s="88"/>
+      <c r="BT93" s="88"/>
       <c r="BU93"/>
     </row>
     <row r="94" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="79"/>
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-      <c r="K94" s="79"/>
-      <c r="L94" s="79"/>
-      <c r="M94" s="79"/>
-      <c r="N94" s="79"/>
-      <c r="O94" s="79"/>
-      <c r="P94" s="79"/>
-      <c r="Q94" s="79"/>
-      <c r="R94" s="79"/>
-      <c r="S94" s="79"/>
-      <c r="T94" s="79"/>
-      <c r="U94" s="79"/>
-      <c r="V94" s="79"/>
-      <c r="W94" s="79"/>
-      <c r="X94" s="79"/>
-      <c r="Y94" s="79"/>
-      <c r="Z94" s="79"/>
-      <c r="AA94" s="79"/>
-      <c r="AB94" s="79"/>
-      <c r="AC94" s="79"/>
-      <c r="AD94" s="79"/>
-      <c r="AE94" s="79"/>
-      <c r="AF94" s="79"/>
-      <c r="AG94" s="79"/>
-      <c r="AH94" s="79"/>
-      <c r="AI94" s="79"/>
-      <c r="AJ94" s="79"/>
-      <c r="AK94" s="79"/>
-      <c r="AL94" s="79"/>
-      <c r="AM94" s="79"/>
-      <c r="AN94" s="79"/>
-      <c r="AO94" s="79"/>
-      <c r="AP94" s="79"/>
-      <c r="AQ94" s="79"/>
-      <c r="AR94" s="79"/>
-      <c r="AS94" s="79"/>
-      <c r="AT94" s="79"/>
-      <c r="AU94" s="79"/>
-      <c r="AV94" s="79"/>
-      <c r="AW94" s="79"/>
-      <c r="AX94" s="79"/>
-      <c r="AY94" s="79"/>
-      <c r="AZ94" s="79"/>
-      <c r="BA94" s="79"/>
-      <c r="BB94" s="79"/>
-      <c r="BC94" s="79"/>
-      <c r="BD94" s="79"/>
-      <c r="BE94" s="79"/>
-      <c r="BF94" s="79"/>
-      <c r="BG94" s="79"/>
-      <c r="BH94" s="79"/>
-      <c r="BI94" s="79"/>
-      <c r="BJ94" s="79"/>
-      <c r="BK94" s="79"/>
-      <c r="BL94" s="79"/>
-      <c r="BM94" s="79"/>
-      <c r="BN94" s="79"/>
-      <c r="BO94" s="79"/>
-      <c r="BP94" s="79"/>
-      <c r="BQ94" s="79"/>
-      <c r="BR94" s="79"/>
-      <c r="BS94" s="79"/>
-      <c r="BT94" s="79"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="113"/>
+      <c r="G94" s="113"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="88"/>
+      <c r="L94" s="88"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="O94" s="88"/>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="88"/>
+      <c r="R94" s="88"/>
+      <c r="S94" s="88"/>
+      <c r="T94" s="88"/>
+      <c r="U94" s="88"/>
+      <c r="V94" s="88"/>
+      <c r="W94" s="88"/>
+      <c r="X94" s="88"/>
+      <c r="Y94" s="88"/>
+      <c r="Z94" s="88"/>
+      <c r="AA94" s="88"/>
+      <c r="AB94" s="88"/>
+      <c r="AC94" s="88"/>
+      <c r="AD94" s="88"/>
+      <c r="AE94" s="88"/>
+      <c r="AF94" s="88"/>
+      <c r="AG94" s="88"/>
+      <c r="AH94" s="88"/>
+      <c r="AI94" s="88"/>
+      <c r="AJ94" s="88"/>
+      <c r="AK94" s="88"/>
+      <c r="AL94" s="88"/>
+      <c r="AM94" s="88"/>
+      <c r="AN94" s="88"/>
+      <c r="AO94" s="88"/>
+      <c r="AP94" s="88"/>
+      <c r="AQ94" s="88"/>
+      <c r="AR94" s="88"/>
+      <c r="AS94" s="88"/>
+      <c r="AT94" s="88"/>
+      <c r="AU94" s="88"/>
+      <c r="AV94" s="88"/>
+      <c r="AW94" s="88"/>
+      <c r="AX94" s="88"/>
+      <c r="AY94" s="88"/>
+      <c r="AZ94" s="88"/>
+      <c r="BA94" s="88"/>
+      <c r="BB94" s="88"/>
+      <c r="BC94" s="88"/>
+      <c r="BD94" s="88"/>
+      <c r="BE94" s="88"/>
+      <c r="BF94" s="88"/>
+      <c r="BG94" s="88"/>
+      <c r="BH94" s="88"/>
+      <c r="BI94" s="88"/>
+      <c r="BJ94" s="88"/>
+      <c r="BK94" s="88"/>
+      <c r="BL94" s="88"/>
+      <c r="BM94" s="88"/>
+      <c r="BN94" s="88"/>
+      <c r="BO94" s="88"/>
+      <c r="BP94" s="88"/>
+      <c r="BQ94" s="88"/>
+      <c r="BR94" s="88"/>
+      <c r="BS94" s="88"/>
+      <c r="BT94" s="88"/>
       <c r="BU94"/>
     </row>
-    <row r="95" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="83"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="79"/>
-      <c r="H95" s="79"/>
-      <c r="I95" s="79"/>
-      <c r="J95" s="79"/>
-      <c r="K95" s="79"/>
-      <c r="L95" s="79"/>
-      <c r="M95" s="79"/>
-      <c r="N95" s="79"/>
-      <c r="O95" s="79"/>
-      <c r="P95" s="79"/>
-      <c r="Q95" s="79"/>
-      <c r="R95" s="79"/>
-      <c r="S95" s="79"/>
-      <c r="T95" s="79"/>
-      <c r="U95" s="79"/>
-      <c r="V95" s="79"/>
-      <c r="W95" s="79"/>
-      <c r="X95" s="79"/>
-      <c r="Y95" s="79"/>
-      <c r="Z95" s="79"/>
-      <c r="AA95" s="79"/>
-      <c r="AB95" s="79"/>
-      <c r="AC95" s="79"/>
-      <c r="AD95" s="79"/>
-      <c r="AE95" s="79"/>
-      <c r="AF95" s="79"/>
-      <c r="AG95" s="79"/>
-      <c r="AH95" s="79"/>
-      <c r="AI95" s="79"/>
-      <c r="AJ95" s="79"/>
-      <c r="AK95" s="79"/>
-      <c r="AL95" s="79"/>
-      <c r="AM95" s="79"/>
-      <c r="AN95" s="79"/>
-      <c r="AO95" s="79"/>
-      <c r="AP95" s="79"/>
-      <c r="AQ95" s="79"/>
-      <c r="AR95" s="79"/>
-      <c r="AS95" s="79"/>
-      <c r="AT95" s="79"/>
-      <c r="AU95" s="79"/>
-      <c r="AV95" s="79"/>
-      <c r="AW95" s="79"/>
-      <c r="AX95" s="79"/>
-      <c r="AY95" s="79"/>
-      <c r="AZ95" s="79"/>
-      <c r="BA95" s="79"/>
-      <c r="BB95" s="79"/>
-      <c r="BC95" s="79"/>
-      <c r="BD95" s="79"/>
-      <c r="BE95" s="79"/>
-      <c r="BF95" s="79"/>
-      <c r="BG95" s="79"/>
-      <c r="BH95" s="79"/>
-      <c r="BI95" s="79"/>
-      <c r="BJ95" s="79"/>
-      <c r="BK95" s="79"/>
-      <c r="BL95" s="79"/>
-      <c r="BM95" s="79"/>
-      <c r="BN95" s="79"/>
-      <c r="BO95" s="79"/>
-      <c r="BP95" s="79"/>
-      <c r="BQ95" s="79"/>
-      <c r="BR95" s="79"/>
-      <c r="BS95" s="79"/>
-      <c r="BT95" s="79"/>
+    <row r="95" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="85"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="113"/>
+      <c r="G95" s="113"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="88"/>
+      <c r="O95" s="88"/>
+      <c r="P95" s="88"/>
+      <c r="Q95" s="88"/>
+      <c r="R95" s="88"/>
+      <c r="S95" s="88"/>
+      <c r="T95" s="88"/>
+      <c r="U95" s="88"/>
+      <c r="V95" s="88"/>
+      <c r="W95" s="88"/>
+      <c r="X95" s="88"/>
+      <c r="Y95" s="88"/>
+      <c r="Z95" s="88"/>
+      <c r="AA95" s="88"/>
+      <c r="AB95" s="88"/>
+      <c r="AC95" s="88"/>
+      <c r="AD95" s="88"/>
+      <c r="AE95" s="88"/>
+      <c r="AF95" s="88"/>
+      <c r="AG95" s="88"/>
+      <c r="AH95" s="88"/>
+      <c r="AI95" s="88"/>
+      <c r="AJ95" s="88"/>
+      <c r="AK95" s="88"/>
+      <c r="AL95" s="88"/>
+      <c r="AM95" s="88"/>
+      <c r="AN95" s="88"/>
+      <c r="AO95" s="88"/>
+      <c r="AP95" s="88"/>
+      <c r="AQ95" s="88"/>
+      <c r="AR95" s="88"/>
+      <c r="AS95" s="88"/>
+      <c r="AT95" s="88"/>
+      <c r="AU95" s="88"/>
+      <c r="AV95" s="88"/>
+      <c r="AW95" s="88"/>
+      <c r="AX95" s="88"/>
+      <c r="AY95" s="88"/>
+      <c r="AZ95" s="88"/>
+      <c r="BA95" s="88"/>
+      <c r="BB95" s="88"/>
+      <c r="BC95" s="88"/>
+      <c r="BD95" s="88"/>
+      <c r="BE95" s="88"/>
+      <c r="BF95" s="88"/>
+      <c r="BG95" s="88"/>
+      <c r="BH95" s="88"/>
+      <c r="BI95" s="88"/>
+      <c r="BJ95" s="88"/>
+      <c r="BK95" s="88"/>
+      <c r="BL95" s="88"/>
+      <c r="BM95" s="88"/>
+      <c r="BN95" s="88"/>
+      <c r="BO95" s="88"/>
+      <c r="BP95" s="88"/>
+      <c r="BQ95" s="88"/>
+      <c r="BR95" s="88"/>
+      <c r="BS95" s="88"/>
+      <c r="BT95" s="88"/>
       <c r="BU95"/>
     </row>
-    <row r="96" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="30"/>
-      <c r="C96" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="113"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="79"/>
-      <c r="I96" s="79"/>
-      <c r="J96" s="79"/>
-      <c r="K96" s="79"/>
-      <c r="L96" s="79"/>
-      <c r="M96" s="79"/>
-      <c r="N96" s="79"/>
-      <c r="O96" s="79"/>
-      <c r="P96" s="79"/>
-      <c r="Q96" s="79"/>
-      <c r="R96" s="79"/>
-      <c r="S96" s="79"/>
-      <c r="T96" s="79"/>
-      <c r="U96" s="79"/>
-      <c r="V96" s="79"/>
-      <c r="W96" s="79"/>
-      <c r="X96" s="79"/>
-      <c r="Y96" s="79"/>
-      <c r="Z96" s="79"/>
-      <c r="AA96" s="79"/>
-      <c r="AB96" s="79"/>
-      <c r="AC96" s="79"/>
-      <c r="AD96" s="79"/>
-      <c r="AE96" s="79"/>
-      <c r="AF96" s="79"/>
-      <c r="AG96" s="79"/>
-      <c r="AH96" s="79"/>
-      <c r="AI96" s="79"/>
-      <c r="AJ96" s="79"/>
-      <c r="AK96" s="79"/>
-      <c r="AL96" s="79"/>
-      <c r="AM96" s="79"/>
-      <c r="AN96" s="79"/>
-      <c r="AO96" s="79"/>
-      <c r="AP96" s="79"/>
-      <c r="AQ96" s="79"/>
-      <c r="AR96" s="79"/>
-      <c r="AS96" s="79"/>
-      <c r="AT96" s="79"/>
-      <c r="AU96" s="79"/>
-      <c r="AV96" s="79"/>
-      <c r="AW96" s="79"/>
-      <c r="AX96" s="79"/>
-      <c r="AY96" s="79"/>
-      <c r="AZ96" s="79"/>
-      <c r="BA96" s="79"/>
-      <c r="BB96" s="79"/>
-      <c r="BC96" s="79"/>
-      <c r="BD96" s="79"/>
-      <c r="BE96" s="79"/>
-      <c r="BF96" s="79"/>
-      <c r="BG96" s="79"/>
-      <c r="BH96" s="79"/>
-      <c r="BI96" s="79"/>
-      <c r="BJ96" s="79"/>
-      <c r="BK96" s="79"/>
-      <c r="BL96" s="79"/>
-      <c r="BM96" s="79"/>
-      <c r="BN96" s="79"/>
-      <c r="BO96" s="79"/>
-      <c r="BP96" s="79"/>
-      <c r="BQ96" s="79"/>
-      <c r="BR96" s="79"/>
-      <c r="BS96" s="79"/>
-      <c r="BT96" s="79"/>
+    <row r="96" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="85"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="113"/>
+      <c r="G96" s="113"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="K96" s="88"/>
+      <c r="L96" s="88"/>
+      <c r="M96" s="88"/>
+      <c r="N96" s="88"/>
+      <c r="O96" s="88"/>
+      <c r="P96" s="88"/>
+      <c r="Q96" s="88"/>
+      <c r="R96" s="88"/>
+      <c r="S96" s="88"/>
+      <c r="T96" s="88"/>
+      <c r="U96" s="88"/>
+      <c r="V96" s="88"/>
+      <c r="W96" s="88"/>
+      <c r="X96" s="88"/>
+      <c r="Y96" s="88"/>
+      <c r="Z96" s="88"/>
+      <c r="AA96" s="88"/>
+      <c r="AB96" s="88"/>
+      <c r="AC96" s="88"/>
+      <c r="AD96" s="88"/>
+      <c r="AE96" s="88"/>
+      <c r="AF96" s="88"/>
+      <c r="AG96" s="88"/>
+      <c r="AH96" s="88"/>
+      <c r="AI96" s="88"/>
+      <c r="AJ96" s="88"/>
+      <c r="AK96" s="88"/>
+      <c r="AL96" s="88"/>
+      <c r="AM96" s="88"/>
+      <c r="AN96" s="88"/>
+      <c r="AO96" s="88"/>
+      <c r="AP96" s="88"/>
+      <c r="AQ96" s="88"/>
+      <c r="AR96" s="88"/>
+      <c r="AS96" s="88"/>
+      <c r="AT96" s="88"/>
+      <c r="AU96" s="88"/>
+      <c r="AV96" s="88"/>
+      <c r="AW96" s="88"/>
+      <c r="AX96" s="88"/>
+      <c r="AY96" s="88"/>
+      <c r="AZ96" s="88"/>
+      <c r="BA96" s="88"/>
+      <c r="BB96" s="88"/>
+      <c r="BC96" s="88"/>
+      <c r="BD96" s="88"/>
+      <c r="BE96" s="88"/>
+      <c r="BF96" s="88"/>
+      <c r="BG96" s="88"/>
+      <c r="BH96" s="88"/>
+      <c r="BI96" s="88"/>
+      <c r="BJ96" s="88"/>
+      <c r="BK96" s="88"/>
+      <c r="BL96" s="88"/>
+      <c r="BM96" s="88"/>
+      <c r="BN96" s="88"/>
+      <c r="BO96" s="88"/>
+      <c r="BP96" s="88"/>
+      <c r="BQ96" s="88"/>
+      <c r="BR96" s="88"/>
+      <c r="BS96" s="88"/>
+      <c r="BT96" s="88"/>
       <c r="BU96"/>
     </row>
     <row r="97" spans="1:79" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="105"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="113"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="79"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="79"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="79"/>
-      <c r="M97" s="79"/>
-      <c r="N97" s="79"/>
-      <c r="O97" s="79"/>
-      <c r="P97" s="79"/>
-      <c r="Q97" s="79"/>
-      <c r="R97" s="79"/>
-      <c r="S97" s="79"/>
-      <c r="T97" s="79"/>
-      <c r="U97" s="79"/>
-      <c r="V97" s="79"/>
-      <c r="W97" s="79"/>
-      <c r="X97" s="79"/>
-      <c r="Y97" s="79"/>
-      <c r="Z97" s="79"/>
-      <c r="AA97" s="79"/>
-      <c r="AB97" s="79"/>
-      <c r="AC97" s="79"/>
-      <c r="AD97" s="79"/>
-      <c r="AE97" s="79"/>
-      <c r="AF97" s="79"/>
-      <c r="AG97" s="79"/>
-      <c r="AH97" s="79"/>
-      <c r="AI97" s="79"/>
-      <c r="AJ97" s="79"/>
-      <c r="AK97" s="79"/>
-      <c r="AL97" s="79"/>
-      <c r="AM97" s="79"/>
-      <c r="AN97" s="79"/>
-      <c r="AO97" s="79"/>
-      <c r="AP97" s="79"/>
-      <c r="AQ97" s="79"/>
-      <c r="AR97" s="79"/>
-      <c r="AS97" s="79"/>
-      <c r="AT97" s="79"/>
-      <c r="AU97" s="79"/>
-      <c r="AV97" s="79"/>
-      <c r="AW97" s="79"/>
-      <c r="AX97" s="79"/>
-      <c r="AY97" s="79"/>
-      <c r="AZ97" s="79"/>
-      <c r="BA97" s="79"/>
-      <c r="BB97" s="79"/>
-      <c r="BC97" s="79"/>
-      <c r="BD97" s="79"/>
-      <c r="BE97" s="79"/>
-      <c r="BF97" s="79"/>
-      <c r="BG97" s="79"/>
-      <c r="BH97" s="79"/>
-      <c r="BI97" s="79"/>
-      <c r="BJ97" s="79"/>
-      <c r="BK97" s="79"/>
-      <c r="BL97" s="79"/>
-      <c r="BM97" s="79"/>
-      <c r="BN97" s="79"/>
-      <c r="BO97" s="79"/>
-      <c r="BP97" s="79"/>
-      <c r="BQ97" s="79"/>
-      <c r="BR97" s="79"/>
-      <c r="BS97" s="79"/>
-      <c r="BT97" s="79"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="115"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="114"/>
+      <c r="F97" s="113"/>
+      <c r="G97" s="113"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="88"/>
+      <c r="M97" s="88"/>
+      <c r="N97" s="88"/>
+      <c r="O97" s="88"/>
+      <c r="P97" s="88"/>
+      <c r="Q97" s="88"/>
+      <c r="R97" s="88"/>
+      <c r="S97" s="88"/>
+      <c r="T97" s="88"/>
+      <c r="U97" s="88"/>
+      <c r="V97" s="88"/>
+      <c r="W97" s="88"/>
+      <c r="X97" s="88"/>
+      <c r="Y97" s="88"/>
+      <c r="Z97" s="88"/>
+      <c r="AA97" s="88"/>
+      <c r="AB97" s="88"/>
+      <c r="AC97" s="88"/>
+      <c r="AD97" s="88"/>
+      <c r="AE97" s="88"/>
+      <c r="AF97" s="88"/>
+      <c r="AG97" s="88"/>
+      <c r="AH97" s="88"/>
+      <c r="AI97" s="88"/>
+      <c r="AJ97" s="88"/>
+      <c r="AK97" s="88"/>
+      <c r="AL97" s="88"/>
+      <c r="AM97" s="88"/>
+      <c r="AN97" s="88"/>
+      <c r="AO97" s="88"/>
+      <c r="AP97" s="88"/>
+      <c r="AQ97" s="88"/>
+      <c r="AR97" s="88"/>
+      <c r="AS97" s="88"/>
+      <c r="AT97" s="88"/>
+      <c r="AU97" s="88"/>
+      <c r="AV97" s="88"/>
+      <c r="AW97" s="88"/>
+      <c r="AX97" s="88"/>
+      <c r="AY97" s="88"/>
+      <c r="AZ97" s="88"/>
+      <c r="BA97" s="88"/>
+      <c r="BB97" s="88"/>
+      <c r="BC97" s="88"/>
+      <c r="BD97" s="88"/>
+      <c r="BE97" s="88"/>
+      <c r="BF97" s="88"/>
+      <c r="BG97" s="88"/>
+      <c r="BH97" s="88"/>
+      <c r="BI97" s="88"/>
+      <c r="BJ97" s="88"/>
+      <c r="BK97" s="88"/>
+      <c r="BL97" s="88"/>
+      <c r="BM97" s="88"/>
+      <c r="BN97" s="88"/>
+      <c r="BO97" s="88"/>
+      <c r="BP97" s="88"/>
+      <c r="BQ97" s="88"/>
+      <c r="BR97" s="88"/>
+      <c r="BS97" s="88"/>
+      <c r="BT97" s="88"/>
       <c r="BU97"/>
     </row>
     <row r="98" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="87"/>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
@@ -10724,9 +10675,7 @@
     <row r="121" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="618">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="BA64:BA65"/>
+  <mergeCells count="617">
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="BS80:BS81"/>
     <mergeCell ref="B8:E9"/>
@@ -10768,6 +10717,9 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="B94:C95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="E94:E95"/>
@@ -10776,7 +10728,7 @@
     <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D92:D93"/>
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="F90:F91"/>
@@ -10788,11 +10740,10 @@
     <mergeCell ref="G82:G83"/>
     <mergeCell ref="B78:E79"/>
     <mergeCell ref="B82:E83"/>
-    <mergeCell ref="D92:D93"/>
     <mergeCell ref="B92:C93"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="BA64:BA65"/>
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="F92:F93"/>
     <mergeCell ref="G92:G93"/>
@@ -10881,8 +10832,6 @@
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="H84:H85"/>
     <mergeCell ref="I84:I85"/>
     <mergeCell ref="J84:J85"/>
@@ -10894,6 +10843,7 @@
     <mergeCell ref="F84:F85"/>
     <mergeCell ref="G84:G85"/>
     <mergeCell ref="A84:E85"/>
+    <mergeCell ref="G88:G89"/>
     <mergeCell ref="K84:K85"/>
     <mergeCell ref="L84:L85"/>
     <mergeCell ref="M84:M85"/>
